--- a/Austria Landesliga/Austria Landesliga.xlsx
+++ b/Austria Landesliga/Austria Landesliga.xlsx
@@ -42306,7 +42306,7 @@
         <v>463</v>
       </c>
       <c r="B465">
-        <v>7518100</v>
+        <v>7518264</v>
       </c>
       <c r="C465" t="s">
         <v>28</v>
@@ -42318,76 +42318,76 @@
         <v>45255.41666666666</v>
       </c>
       <c r="F465" t="s">
-        <v>78</v>
+        <v>135</v>
       </c>
       <c r="G465" t="s">
-        <v>65</v>
+        <v>77</v>
       </c>
       <c r="H465">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I465">
         <v>1</v>
       </c>
       <c r="J465" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="K465">
-        <v>1.615</v>
+        <v>3.5</v>
       </c>
       <c r="L465">
         <v>4</v>
       </c>
       <c r="M465">
-        <v>4</v>
+        <v>1.727</v>
       </c>
       <c r="N465">
-        <v>1.85</v>
+        <v>3</v>
       </c>
       <c r="O465">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P465">
-        <v>3.25</v>
+        <v>2</v>
       </c>
       <c r="Q465">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R465">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S465">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T465">
         <v>3</v>
       </c>
       <c r="U465">
+        <v>1.825</v>
+      </c>
+      <c r="V465">
         <v>1.975</v>
       </c>
-      <c r="V465">
-        <v>1.825</v>
-      </c>
       <c r="W465">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X465">
         <v>-1</v>
       </c>
       <c r="Y465">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z465">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA465">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB465">
+        <v>-1</v>
+      </c>
+      <c r="AC465">
         <v>0.9750000000000001</v>
-      </c>
-      <c r="AC465">
-        <v>-1</v>
       </c>
     </row>
     <row r="466" spans="1:29">
@@ -42395,7 +42395,7 @@
         <v>464</v>
       </c>
       <c r="B466">
-        <v>7518264</v>
+        <v>7518100</v>
       </c>
       <c r="C466" t="s">
         <v>28</v>
@@ -42407,76 +42407,76 @@
         <v>45255.41666666666</v>
       </c>
       <c r="F466" t="s">
-        <v>135</v>
+        <v>78</v>
       </c>
       <c r="G466" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="H466">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I466">
         <v>1</v>
       </c>
       <c r="J466" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="K466">
-        <v>3.5</v>
+        <v>1.615</v>
       </c>
       <c r="L466">
         <v>4</v>
       </c>
       <c r="M466">
-        <v>1.727</v>
+        <v>4</v>
       </c>
       <c r="N466">
-        <v>3</v>
+        <v>1.85</v>
       </c>
       <c r="O466">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P466">
-        <v>2</v>
+        <v>3.25</v>
       </c>
       <c r="Q466">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R466">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S466">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T466">
         <v>3</v>
       </c>
       <c r="U466">
+        <v>1.975</v>
+      </c>
+      <c r="V466">
         <v>1.825</v>
       </c>
-      <c r="V466">
-        <v>1.975</v>
-      </c>
       <c r="W466">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X466">
         <v>-1</v>
       </c>
       <c r="Y466">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Z466">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA466">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB466">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC466">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="467" spans="1:29">
@@ -44086,7 +44086,7 @@
         <v>483</v>
       </c>
       <c r="B485">
-        <v>7926506</v>
+        <v>7926507</v>
       </c>
       <c r="C485" t="s">
         <v>28</v>
@@ -44098,76 +44098,76 @@
         <v>45359.64583333334</v>
       </c>
       <c r="F485" t="s">
-        <v>145</v>
+        <v>157</v>
       </c>
       <c r="G485" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="H485">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I485">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J485" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="K485">
-        <v>2.25</v>
+        <v>19</v>
       </c>
       <c r="L485">
+        <v>10</v>
+      </c>
+      <c r="M485">
+        <v>1.071</v>
+      </c>
+      <c r="N485">
+        <v>23</v>
+      </c>
+      <c r="O485">
+        <v>11</v>
+      </c>
+      <c r="P485">
+        <v>1.062</v>
+      </c>
+      <c r="Q485">
+        <v>2.75</v>
+      </c>
+      <c r="R485">
+        <v>1.925</v>
+      </c>
+      <c r="S485">
+        <v>1.875</v>
+      </c>
+      <c r="T485">
         <v>3.25</v>
       </c>
-      <c r="M485">
-        <v>2.75</v>
-      </c>
-      <c r="N485">
-        <v>1.571</v>
-      </c>
-      <c r="O485">
-        <v>3.75</v>
-      </c>
-      <c r="P485">
-        <v>4.75</v>
-      </c>
-      <c r="Q485">
-        <v>-1</v>
-      </c>
-      <c r="R485">
-        <v>2</v>
-      </c>
-      <c r="S485">
-        <v>1.8</v>
-      </c>
-      <c r="T485">
-        <v>2.75</v>
-      </c>
       <c r="U485">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V485">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W485">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="X485">
         <v>-1</v>
       </c>
       <c r="Y485">
-        <v>-1</v>
+        <v>0.06200000000000006</v>
       </c>
       <c r="Z485">
-        <v>1</v>
+        <v>0.925</v>
       </c>
       <c r="AA485">
         <v>-1</v>
       </c>
       <c r="AB485">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC485">
-        <v>0.875</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="486" spans="1:29">
@@ -44175,7 +44175,7 @@
         <v>484</v>
       </c>
       <c r="B486">
-        <v>7926507</v>
+        <v>7926506</v>
       </c>
       <c r="C486" t="s">
         <v>28</v>
@@ -44187,76 +44187,76 @@
         <v>45359.64583333334</v>
       </c>
       <c r="F486" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="G486" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H486">
+        <v>2</v>
+      </c>
+      <c r="I486">
+        <v>0</v>
+      </c>
+      <c r="J486" t="s">
+        <v>206</v>
+      </c>
+      <c r="K486">
+        <v>2.25</v>
+      </c>
+      <c r="L486">
+        <v>3.25</v>
+      </c>
+      <c r="M486">
+        <v>2.75</v>
+      </c>
+      <c r="N486">
+        <v>1.571</v>
+      </c>
+      <c r="O486">
+        <v>3.75</v>
+      </c>
+      <c r="P486">
+        <v>4.75</v>
+      </c>
+      <c r="Q486">
+        <v>-1</v>
+      </c>
+      <c r="R486">
+        <v>2</v>
+      </c>
+      <c r="S486">
+        <v>1.8</v>
+      </c>
+      <c r="T486">
+        <v>2.75</v>
+      </c>
+      <c r="U486">
+        <v>1.925</v>
+      </c>
+      <c r="V486">
+        <v>1.875</v>
+      </c>
+      <c r="W486">
+        <v>0.571</v>
+      </c>
+      <c r="X486">
+        <v>-1</v>
+      </c>
+      <c r="Y486">
+        <v>-1</v>
+      </c>
+      <c r="Z486">
         <v>1</v>
       </c>
-      <c r="I486">
-        <v>2</v>
-      </c>
-      <c r="J486" t="s">
-        <v>208</v>
-      </c>
-      <c r="K486">
-        <v>19</v>
-      </c>
-      <c r="L486">
-        <v>10</v>
-      </c>
-      <c r="M486">
-        <v>1.071</v>
-      </c>
-      <c r="N486">
-        <v>23</v>
-      </c>
-      <c r="O486">
-        <v>11</v>
-      </c>
-      <c r="P486">
-        <v>1.062</v>
-      </c>
-      <c r="Q486">
-        <v>2.75</v>
-      </c>
-      <c r="R486">
-        <v>1.925</v>
-      </c>
-      <c r="S486">
-        <v>1.875</v>
-      </c>
-      <c r="T486">
-        <v>3.25</v>
-      </c>
-      <c r="U486">
-        <v>1.9</v>
-      </c>
-      <c r="V486">
-        <v>1.9</v>
-      </c>
-      <c r="W486">
-        <v>-1</v>
-      </c>
-      <c r="X486">
-        <v>-1</v>
-      </c>
-      <c r="Y486">
-        <v>0.06200000000000006</v>
-      </c>
-      <c r="Z486">
-        <v>0.925</v>
-      </c>
       <c r="AA486">
         <v>-1</v>
       </c>
       <c r="AB486">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC486">
-        <v>0.45</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="487" spans="1:29">
@@ -44620,7 +44620,7 @@
         <v>489</v>
       </c>
       <c r="B491">
-        <v>7939415</v>
+        <v>7939414</v>
       </c>
       <c r="C491" t="s">
         <v>28</v>
@@ -44632,40 +44632,40 @@
         <v>45361.27083333334</v>
       </c>
       <c r="F491" t="s">
-        <v>79</v>
+        <v>56</v>
       </c>
       <c r="G491" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="H491">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I491">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J491" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="K491">
-        <v>2.05</v>
+        <v>1.062</v>
       </c>
       <c r="L491">
-        <v>3.6</v>
+        <v>13</v>
       </c>
       <c r="M491">
-        <v>2.875</v>
+        <v>29</v>
       </c>
       <c r="N491">
-        <v>1.833</v>
+        <v>1.333</v>
       </c>
       <c r="O491">
-        <v>3.75</v>
+        <v>7.5</v>
       </c>
       <c r="P491">
-        <v>3.4</v>
+        <v>5.75</v>
       </c>
       <c r="Q491">
-        <v>-0.5</v>
+        <v>-1.75</v>
       </c>
       <c r="R491">
         <v>1.9</v>
@@ -44674,19 +44674,19 @@
         <v>1.9</v>
       </c>
       <c r="T491">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="U491">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V491">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W491">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="X491">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y491">
         <v>-1</v>
@@ -44698,10 +44698,10 @@
         <v>0.8999999999999999</v>
       </c>
       <c r="AB491">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC491">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="492" spans="1:29">
@@ -44709,7 +44709,7 @@
         <v>490</v>
       </c>
       <c r="B492">
-        <v>7939414</v>
+        <v>7939415</v>
       </c>
       <c r="C492" t="s">
         <v>28</v>
@@ -44721,40 +44721,40 @@
         <v>45361.27083333334</v>
       </c>
       <c r="F492" t="s">
-        <v>56</v>
+        <v>79</v>
       </c>
       <c r="G492" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="H492">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I492">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J492" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="K492">
-        <v>1.062</v>
+        <v>2.05</v>
       </c>
       <c r="L492">
-        <v>13</v>
+        <v>3.6</v>
       </c>
       <c r="M492">
-        <v>29</v>
+        <v>2.875</v>
       </c>
       <c r="N492">
-        <v>1.333</v>
+        <v>1.833</v>
       </c>
       <c r="O492">
-        <v>7.5</v>
+        <v>3.75</v>
       </c>
       <c r="P492">
-        <v>5.75</v>
+        <v>3.4</v>
       </c>
       <c r="Q492">
-        <v>-1.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R492">
         <v>1.9</v>
@@ -44763,19 +44763,19 @@
         <v>1.9</v>
       </c>
       <c r="T492">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="U492">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V492">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W492">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="X492">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y492">
         <v>-1</v>
@@ -44787,10 +44787,10 @@
         <v>0.8999999999999999</v>
       </c>
       <c r="AB492">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC492">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="493" spans="1:29">
@@ -45065,7 +45065,7 @@
         <v>494</v>
       </c>
       <c r="B496">
-        <v>7959107</v>
+        <v>7959109</v>
       </c>
       <c r="C496" t="s">
         <v>28</v>
@@ -45077,76 +45077,76 @@
         <v>45366.625</v>
       </c>
       <c r="F496" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="G496" t="s">
-        <v>192</v>
+        <v>62</v>
       </c>
       <c r="H496">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I496">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J496" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="K496">
-        <v>1.85</v>
+        <v>2.2</v>
       </c>
       <c r="L496">
         <v>4</v>
       </c>
       <c r="M496">
-        <v>3.1</v>
+        <v>2.45</v>
       </c>
       <c r="N496">
-        <v>1.444</v>
+        <v>2.2</v>
       </c>
       <c r="O496">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="P496">
-        <v>5</v>
+        <v>2.45</v>
       </c>
       <c r="Q496">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R496">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S496">
-        <v>1.875</v>
+        <v>1.75</v>
       </c>
       <c r="T496">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="U496">
+        <v>1.85</v>
+      </c>
+      <c r="V496">
         <v>1.95</v>
       </c>
-      <c r="V496">
-        <v>1.85</v>
-      </c>
       <c r="W496">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="X496">
         <v>-1</v>
       </c>
       <c r="Y496">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="Z496">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA496">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB496">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC496">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="497" spans="1:29">
@@ -45154,7 +45154,7 @@
         <v>495</v>
       </c>
       <c r="B497">
-        <v>7959109</v>
+        <v>7959107</v>
       </c>
       <c r="C497" t="s">
         <v>28</v>
@@ -45166,76 +45166,76 @@
         <v>45366.625</v>
       </c>
       <c r="F497" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="G497" t="s">
-        <v>62</v>
+        <v>192</v>
       </c>
       <c r="H497">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I497">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J497" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="K497">
-        <v>2.2</v>
+        <v>1.85</v>
       </c>
       <c r="L497">
         <v>4</v>
       </c>
       <c r="M497">
-        <v>2.45</v>
+        <v>3.1</v>
       </c>
       <c r="N497">
-        <v>2.2</v>
+        <v>1.444</v>
       </c>
       <c r="O497">
+        <v>4.75</v>
+      </c>
+      <c r="P497">
+        <v>5</v>
+      </c>
+      <c r="Q497">
+        <v>-1.25</v>
+      </c>
+      <c r="R497">
+        <v>1.925</v>
+      </c>
+      <c r="S497">
+        <v>1.875</v>
+      </c>
+      <c r="T497">
+        <v>3.75</v>
+      </c>
+      <c r="U497">
+        <v>1.95</v>
+      </c>
+      <c r="V497">
+        <v>1.85</v>
+      </c>
+      <c r="W497">
+        <v>-1</v>
+      </c>
+      <c r="X497">
+        <v>-1</v>
+      </c>
+      <c r="Y497">
         <v>4</v>
       </c>
-      <c r="P497">
-        <v>2.45</v>
-      </c>
-      <c r="Q497">
-        <v>-0.25</v>
-      </c>
-      <c r="R497">
-        <v>1.95</v>
-      </c>
-      <c r="S497">
-        <v>1.75</v>
-      </c>
-      <c r="T497">
-        <v>3.25</v>
-      </c>
-      <c r="U497">
-        <v>1.85</v>
-      </c>
-      <c r="V497">
-        <v>1.95</v>
-      </c>
-      <c r="W497">
-        <v>1.2</v>
-      </c>
-      <c r="X497">
-        <v>-1</v>
-      </c>
-      <c r="Y497">
-        <v>-1</v>
-      </c>
       <c r="Z497">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA497">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB497">
+        <v>-1</v>
+      </c>
+      <c r="AC497">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AC497">
-        <v>-1</v>
       </c>
     </row>
     <row r="498" spans="1:29">
@@ -46222,7 +46222,7 @@
         <v>507</v>
       </c>
       <c r="B509">
-        <v>7990526</v>
+        <v>7990525</v>
       </c>
       <c r="C509" t="s">
         <v>28</v>
@@ -46234,76 +46234,76 @@
         <v>45373.60416666666</v>
       </c>
       <c r="F509" t="s">
-        <v>72</v>
+        <v>124</v>
       </c>
       <c r="G509" t="s">
-        <v>112</v>
+        <v>97</v>
       </c>
       <c r="H509">
         <v>2</v>
       </c>
       <c r="I509">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J509" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="K509">
-        <v>3</v>
+        <v>1.571</v>
       </c>
       <c r="L509">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M509">
-        <v>2</v>
+        <v>4.333</v>
       </c>
       <c r="N509">
-        <v>2.5</v>
+        <v>1.65</v>
       </c>
       <c r="O509">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="P509">
-        <v>2.3</v>
+        <v>4.2</v>
       </c>
       <c r="Q509">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R509">
+        <v>1.825</v>
+      </c>
+      <c r="S509">
         <v>1.975</v>
       </c>
-      <c r="S509">
-        <v>1.825</v>
-      </c>
       <c r="T509">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="U509">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V509">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W509">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X509">
         <v>-1</v>
       </c>
       <c r="Y509">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Z509">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA509">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB509">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC509">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="510" spans="1:29">
@@ -46311,7 +46311,7 @@
         <v>508</v>
       </c>
       <c r="B510">
-        <v>7990525</v>
+        <v>7990526</v>
       </c>
       <c r="C510" t="s">
         <v>28</v>
@@ -46323,76 +46323,76 @@
         <v>45373.60416666666</v>
       </c>
       <c r="F510" t="s">
-        <v>124</v>
+        <v>72</v>
       </c>
       <c r="G510" t="s">
-        <v>97</v>
+        <v>112</v>
       </c>
       <c r="H510">
         <v>2</v>
       </c>
       <c r="I510">
+        <v>5</v>
+      </c>
+      <c r="J510" t="s">
+        <v>208</v>
+      </c>
+      <c r="K510">
+        <v>3</v>
+      </c>
+      <c r="L510">
+        <v>3.6</v>
+      </c>
+      <c r="M510">
+        <v>2</v>
+      </c>
+      <c r="N510">
+        <v>2.5</v>
+      </c>
+      <c r="O510">
+        <v>3.6</v>
+      </c>
+      <c r="P510">
+        <v>2.3</v>
+      </c>
+      <c r="Q510">
         <v>0</v>
       </c>
-      <c r="J510" t="s">
-        <v>206</v>
-      </c>
-      <c r="K510">
-        <v>1.571</v>
-      </c>
-      <c r="L510">
-        <v>4</v>
-      </c>
-      <c r="M510">
-        <v>4.333</v>
-      </c>
-      <c r="N510">
-        <v>1.65</v>
-      </c>
-      <c r="O510">
-        <v>4</v>
-      </c>
-      <c r="P510">
-        <v>4.2</v>
-      </c>
-      <c r="Q510">
-        <v>-0.75</v>
-      </c>
       <c r="R510">
+        <v>1.975</v>
+      </c>
+      <c r="S510">
         <v>1.825</v>
       </c>
-      <c r="S510">
-        <v>1.975</v>
-      </c>
       <c r="T510">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="U510">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V510">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W510">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X510">
         <v>-1</v>
       </c>
       <c r="Y510">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Z510">
+        <v>-1</v>
+      </c>
+      <c r="AA510">
         <v>0.825</v>
       </c>
-      <c r="AA510">
-        <v>-1</v>
-      </c>
       <c r="AB510">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC510">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="511" spans="1:29">
@@ -47023,7 +47023,7 @@
         <v>516</v>
       </c>
       <c r="B518">
-        <v>7990566</v>
+        <v>7990641</v>
       </c>
       <c r="C518" t="s">
         <v>28</v>
@@ -47035,73 +47035,73 @@
         <v>45373.64583333334</v>
       </c>
       <c r="F518" t="s">
-        <v>38</v>
+        <v>116</v>
       </c>
       <c r="G518" t="s">
-        <v>117</v>
+        <v>193</v>
       </c>
       <c r="H518">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I518">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J518" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="K518">
-        <v>3.1</v>
+        <v>5.5</v>
       </c>
       <c r="L518">
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="M518">
-        <v>1.909</v>
+        <v>1.363</v>
       </c>
       <c r="N518">
+        <v>17</v>
+      </c>
+      <c r="O518">
+        <v>7.5</v>
+      </c>
+      <c r="P518">
+        <v>1.125</v>
+      </c>
+      <c r="Q518">
         <v>2.5</v>
       </c>
-      <c r="O518">
-        <v>3.6</v>
-      </c>
-      <c r="P518">
-        <v>2.375</v>
-      </c>
-      <c r="Q518">
-        <v>0</v>
-      </c>
       <c r="R518">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S518">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="T518">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="U518">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V518">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W518">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="X518">
         <v>-1</v>
       </c>
       <c r="Y518">
-        <v>-1</v>
+        <v>0.125</v>
       </c>
       <c r="Z518">
-        <v>0.9750000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AA518">
         <v>-1</v>
       </c>
       <c r="AB518">
-        <v>0.8</v>
+        <v>0.875</v>
       </c>
       <c r="AC518">
         <v>-1</v>
@@ -47112,7 +47112,7 @@
         <v>517</v>
       </c>
       <c r="B519">
-        <v>7990641</v>
+        <v>7990566</v>
       </c>
       <c r="C519" t="s">
         <v>28</v>
@@ -47124,73 +47124,73 @@
         <v>45373.64583333334</v>
       </c>
       <c r="F519" t="s">
-        <v>116</v>
+        <v>38</v>
       </c>
       <c r="G519" t="s">
-        <v>193</v>
+        <v>117</v>
       </c>
       <c r="H519">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I519">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J519" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="K519">
-        <v>5.5</v>
+        <v>3.1</v>
       </c>
       <c r="L519">
-        <v>5</v>
+        <v>3.75</v>
       </c>
       <c r="M519">
-        <v>1.363</v>
+        <v>1.909</v>
       </c>
       <c r="N519">
-        <v>17</v>
+        <v>2.5</v>
       </c>
       <c r="O519">
-        <v>7.5</v>
+        <v>3.6</v>
       </c>
       <c r="P519">
-        <v>1.125</v>
+        <v>2.375</v>
       </c>
       <c r="Q519">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="R519">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S519">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="T519">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="U519">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="V519">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W519">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="X519">
         <v>-1</v>
       </c>
       <c r="Y519">
-        <v>0.125</v>
+        <v>-1</v>
       </c>
       <c r="Z519">
-        <v>0.925</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA519">
         <v>-1</v>
       </c>
       <c r="AB519">
-        <v>0.875</v>
+        <v>0.8</v>
       </c>
       <c r="AC519">
         <v>-1</v>
@@ -48180,7 +48180,7 @@
         <v>529</v>
       </c>
       <c r="B531">
-        <v>8022395</v>
+        <v>8019254</v>
       </c>
       <c r="C531" t="s">
         <v>28</v>
@@ -48192,52 +48192,52 @@
         <v>45379.625</v>
       </c>
       <c r="F531" t="s">
-        <v>165</v>
+        <v>36</v>
       </c>
       <c r="G531" t="s">
-        <v>203</v>
+        <v>102</v>
       </c>
       <c r="H531">
         <v>2</v>
       </c>
       <c r="I531">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J531" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="K531">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="L531">
         <v>3.6</v>
       </c>
       <c r="M531">
-        <v>2.75</v>
+        <v>2.625</v>
       </c>
       <c r="N531">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="O531">
         <v>3.6</v>
       </c>
       <c r="P531">
-        <v>2.75</v>
+        <v>2.625</v>
       </c>
       <c r="Q531">
         <v>-0.25</v>
       </c>
       <c r="R531">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="S531">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="T531">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U531">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="V531">
         <v>1.95</v>
@@ -48246,19 +48246,19 @@
         <v>-1</v>
       </c>
       <c r="X531">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y531">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="Z531">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA531">
-        <v>0.4375</v>
+        <v>0.8</v>
       </c>
       <c r="AB531">
-        <v>0.8500000000000001</v>
+        <v>0.75</v>
       </c>
       <c r="AC531">
         <v>-1</v>
@@ -48269,7 +48269,7 @@
         <v>530</v>
       </c>
       <c r="B532">
-        <v>8019254</v>
+        <v>8022395</v>
       </c>
       <c r="C532" t="s">
         <v>28</v>
@@ -48281,52 +48281,52 @@
         <v>45379.625</v>
       </c>
       <c r="F532" t="s">
-        <v>36</v>
+        <v>165</v>
       </c>
       <c r="G532" t="s">
-        <v>102</v>
+        <v>203</v>
       </c>
       <c r="H532">
         <v>2</v>
       </c>
       <c r="I532">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J532" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="K532">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="L532">
         <v>3.6</v>
       </c>
       <c r="M532">
-        <v>2.625</v>
+        <v>2.75</v>
       </c>
       <c r="N532">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="O532">
         <v>3.6</v>
       </c>
       <c r="P532">
-        <v>2.625</v>
+        <v>2.75</v>
       </c>
       <c r="Q532">
         <v>-0.25</v>
       </c>
       <c r="R532">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="S532">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="T532">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U532">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="V532">
         <v>1.95</v>
@@ -48335,19 +48335,19 @@
         <v>-1</v>
       </c>
       <c r="X532">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y532">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="Z532">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA532">
-        <v>0.8</v>
+        <v>0.4375</v>
       </c>
       <c r="AB532">
-        <v>0.75</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC532">
         <v>-1</v>

--- a/Austria Landesliga/Austria Landesliga.xlsx
+++ b/Austria Landesliga/Austria Landesliga.xlsx
@@ -42306,7 +42306,7 @@
         <v>463</v>
       </c>
       <c r="B465">
-        <v>7518264</v>
+        <v>7518100</v>
       </c>
       <c r="C465" t="s">
         <v>28</v>
@@ -42318,76 +42318,76 @@
         <v>45255.41666666666</v>
       </c>
       <c r="F465" t="s">
-        <v>135</v>
+        <v>78</v>
       </c>
       <c r="G465" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="H465">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I465">
         <v>1</v>
       </c>
       <c r="J465" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="K465">
-        <v>3.5</v>
+        <v>1.615</v>
       </c>
       <c r="L465">
         <v>4</v>
       </c>
       <c r="M465">
-        <v>1.727</v>
+        <v>4</v>
       </c>
       <c r="N465">
-        <v>3</v>
+        <v>1.85</v>
       </c>
       <c r="O465">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P465">
-        <v>2</v>
+        <v>3.25</v>
       </c>
       <c r="Q465">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R465">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S465">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T465">
         <v>3</v>
       </c>
       <c r="U465">
+        <v>1.975</v>
+      </c>
+      <c r="V465">
         <v>1.825</v>
       </c>
-      <c r="V465">
-        <v>1.975</v>
-      </c>
       <c r="W465">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X465">
         <v>-1</v>
       </c>
       <c r="Y465">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Z465">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA465">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB465">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC465">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="466" spans="1:29">
@@ -42395,7 +42395,7 @@
         <v>464</v>
       </c>
       <c r="B466">
-        <v>7518100</v>
+        <v>7518264</v>
       </c>
       <c r="C466" t="s">
         <v>28</v>
@@ -42407,76 +42407,76 @@
         <v>45255.41666666666</v>
       </c>
       <c r="F466" t="s">
-        <v>78</v>
+        <v>135</v>
       </c>
       <c r="G466" t="s">
-        <v>65</v>
+        <v>77</v>
       </c>
       <c r="H466">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I466">
         <v>1</v>
       </c>
       <c r="J466" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="K466">
-        <v>1.615</v>
+        <v>3.5</v>
       </c>
       <c r="L466">
         <v>4</v>
       </c>
       <c r="M466">
-        <v>4</v>
+        <v>1.727</v>
       </c>
       <c r="N466">
-        <v>1.85</v>
+        <v>3</v>
       </c>
       <c r="O466">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P466">
-        <v>3.25</v>
+        <v>2</v>
       </c>
       <c r="Q466">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R466">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S466">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T466">
         <v>3</v>
       </c>
       <c r="U466">
+        <v>1.825</v>
+      </c>
+      <c r="V466">
         <v>1.975</v>
       </c>
-      <c r="V466">
-        <v>1.825</v>
-      </c>
       <c r="W466">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X466">
         <v>-1</v>
       </c>
       <c r="Y466">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z466">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA466">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB466">
+        <v>-1</v>
+      </c>
+      <c r="AC466">
         <v>0.9750000000000001</v>
-      </c>
-      <c r="AC466">
-        <v>-1</v>
       </c>
     </row>
     <row r="467" spans="1:29">
@@ -44086,7 +44086,7 @@
         <v>483</v>
       </c>
       <c r="B485">
-        <v>7926507</v>
+        <v>7926506</v>
       </c>
       <c r="C485" t="s">
         <v>28</v>
@@ -44098,76 +44098,76 @@
         <v>45359.64583333334</v>
       </c>
       <c r="F485" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="G485" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H485">
+        <v>2</v>
+      </c>
+      <c r="I485">
+        <v>0</v>
+      </c>
+      <c r="J485" t="s">
+        <v>206</v>
+      </c>
+      <c r="K485">
+        <v>2.25</v>
+      </c>
+      <c r="L485">
+        <v>3.25</v>
+      </c>
+      <c r="M485">
+        <v>2.75</v>
+      </c>
+      <c r="N485">
+        <v>1.571</v>
+      </c>
+      <c r="O485">
+        <v>3.75</v>
+      </c>
+      <c r="P485">
+        <v>4.75</v>
+      </c>
+      <c r="Q485">
+        <v>-1</v>
+      </c>
+      <c r="R485">
+        <v>2</v>
+      </c>
+      <c r="S485">
+        <v>1.8</v>
+      </c>
+      <c r="T485">
+        <v>2.75</v>
+      </c>
+      <c r="U485">
+        <v>1.925</v>
+      </c>
+      <c r="V485">
+        <v>1.875</v>
+      </c>
+      <c r="W485">
+        <v>0.571</v>
+      </c>
+      <c r="X485">
+        <v>-1</v>
+      </c>
+      <c r="Y485">
+        <v>-1</v>
+      </c>
+      <c r="Z485">
         <v>1</v>
       </c>
-      <c r="I485">
-        <v>2</v>
-      </c>
-      <c r="J485" t="s">
-        <v>208</v>
-      </c>
-      <c r="K485">
-        <v>19</v>
-      </c>
-      <c r="L485">
-        <v>10</v>
-      </c>
-      <c r="M485">
-        <v>1.071</v>
-      </c>
-      <c r="N485">
-        <v>23</v>
-      </c>
-      <c r="O485">
-        <v>11</v>
-      </c>
-      <c r="P485">
-        <v>1.062</v>
-      </c>
-      <c r="Q485">
-        <v>2.75</v>
-      </c>
-      <c r="R485">
-        <v>1.925</v>
-      </c>
-      <c r="S485">
-        <v>1.875</v>
-      </c>
-      <c r="T485">
-        <v>3.25</v>
-      </c>
-      <c r="U485">
-        <v>1.9</v>
-      </c>
-      <c r="V485">
-        <v>1.9</v>
-      </c>
-      <c r="W485">
-        <v>-1</v>
-      </c>
-      <c r="X485">
-        <v>-1</v>
-      </c>
-      <c r="Y485">
-        <v>0.06200000000000006</v>
-      </c>
-      <c r="Z485">
-        <v>0.925</v>
-      </c>
       <c r="AA485">
         <v>-1</v>
       </c>
       <c r="AB485">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC485">
-        <v>0.45</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="486" spans="1:29">
@@ -44175,7 +44175,7 @@
         <v>484</v>
       </c>
       <c r="B486">
-        <v>7926506</v>
+        <v>7926507</v>
       </c>
       <c r="C486" t="s">
         <v>28</v>
@@ -44187,76 +44187,76 @@
         <v>45359.64583333334</v>
       </c>
       <c r="F486" t="s">
-        <v>145</v>
+        <v>157</v>
       </c>
       <c r="G486" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="H486">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I486">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J486" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="K486">
-        <v>2.25</v>
+        <v>19</v>
       </c>
       <c r="L486">
+        <v>10</v>
+      </c>
+      <c r="M486">
+        <v>1.071</v>
+      </c>
+      <c r="N486">
+        <v>23</v>
+      </c>
+      <c r="O486">
+        <v>11</v>
+      </c>
+      <c r="P486">
+        <v>1.062</v>
+      </c>
+      <c r="Q486">
+        <v>2.75</v>
+      </c>
+      <c r="R486">
+        <v>1.925</v>
+      </c>
+      <c r="S486">
+        <v>1.875</v>
+      </c>
+      <c r="T486">
         <v>3.25</v>
       </c>
-      <c r="M486">
-        <v>2.75</v>
-      </c>
-      <c r="N486">
-        <v>1.571</v>
-      </c>
-      <c r="O486">
-        <v>3.75</v>
-      </c>
-      <c r="P486">
-        <v>4.75</v>
-      </c>
-      <c r="Q486">
-        <v>-1</v>
-      </c>
-      <c r="R486">
-        <v>2</v>
-      </c>
-      <c r="S486">
-        <v>1.8</v>
-      </c>
-      <c r="T486">
-        <v>2.75</v>
-      </c>
       <c r="U486">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V486">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W486">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="X486">
         <v>-1</v>
       </c>
       <c r="Y486">
-        <v>-1</v>
+        <v>0.06200000000000006</v>
       </c>
       <c r="Z486">
-        <v>1</v>
+        <v>0.925</v>
       </c>
       <c r="AA486">
         <v>-1</v>
       </c>
       <c r="AB486">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC486">
-        <v>0.875</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="487" spans="1:29">
@@ -44620,7 +44620,7 @@
         <v>489</v>
       </c>
       <c r="B491">
-        <v>7939414</v>
+        <v>7939415</v>
       </c>
       <c r="C491" t="s">
         <v>28</v>
@@ -44632,40 +44632,40 @@
         <v>45361.27083333334</v>
       </c>
       <c r="F491" t="s">
-        <v>56</v>
+        <v>79</v>
       </c>
       <c r="G491" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="H491">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I491">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J491" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="K491">
-        <v>1.062</v>
+        <v>2.05</v>
       </c>
       <c r="L491">
-        <v>13</v>
+        <v>3.6</v>
       </c>
       <c r="M491">
-        <v>29</v>
+        <v>2.875</v>
       </c>
       <c r="N491">
-        <v>1.333</v>
+        <v>1.833</v>
       </c>
       <c r="O491">
-        <v>7.5</v>
+        <v>3.75</v>
       </c>
       <c r="P491">
-        <v>5.75</v>
+        <v>3.4</v>
       </c>
       <c r="Q491">
-        <v>-1.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R491">
         <v>1.9</v>
@@ -44674,19 +44674,19 @@
         <v>1.9</v>
       </c>
       <c r="T491">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="U491">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V491">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W491">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="X491">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y491">
         <v>-1</v>
@@ -44698,10 +44698,10 @@
         <v>0.8999999999999999</v>
       </c>
       <c r="AB491">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC491">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="492" spans="1:29">
@@ -44709,7 +44709,7 @@
         <v>490</v>
       </c>
       <c r="B492">
-        <v>7939415</v>
+        <v>7939414</v>
       </c>
       <c r="C492" t="s">
         <v>28</v>
@@ -44721,40 +44721,40 @@
         <v>45361.27083333334</v>
       </c>
       <c r="F492" t="s">
-        <v>79</v>
+        <v>56</v>
       </c>
       <c r="G492" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="H492">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I492">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J492" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="K492">
-        <v>2.05</v>
+        <v>1.062</v>
       </c>
       <c r="L492">
-        <v>3.6</v>
+        <v>13</v>
       </c>
       <c r="M492">
-        <v>2.875</v>
+        <v>29</v>
       </c>
       <c r="N492">
-        <v>1.833</v>
+        <v>1.333</v>
       </c>
       <c r="O492">
-        <v>3.75</v>
+        <v>7.5</v>
       </c>
       <c r="P492">
-        <v>3.4</v>
+        <v>5.75</v>
       </c>
       <c r="Q492">
-        <v>-0.5</v>
+        <v>-1.75</v>
       </c>
       <c r="R492">
         <v>1.9</v>
@@ -44763,19 +44763,19 @@
         <v>1.9</v>
       </c>
       <c r="T492">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="U492">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V492">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W492">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="X492">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y492">
         <v>-1</v>
@@ -44787,10 +44787,10 @@
         <v>0.8999999999999999</v>
       </c>
       <c r="AB492">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC492">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="493" spans="1:29">
@@ -45065,7 +45065,7 @@
         <v>494</v>
       </c>
       <c r="B496">
-        <v>7959109</v>
+        <v>7959107</v>
       </c>
       <c r="C496" t="s">
         <v>28</v>
@@ -45077,76 +45077,76 @@
         <v>45366.625</v>
       </c>
       <c r="F496" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="G496" t="s">
-        <v>62</v>
+        <v>192</v>
       </c>
       <c r="H496">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I496">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J496" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="K496">
-        <v>2.2</v>
+        <v>1.85</v>
       </c>
       <c r="L496">
         <v>4</v>
       </c>
       <c r="M496">
-        <v>2.45</v>
+        <v>3.1</v>
       </c>
       <c r="N496">
-        <v>2.2</v>
+        <v>1.444</v>
       </c>
       <c r="O496">
+        <v>4.75</v>
+      </c>
+      <c r="P496">
+        <v>5</v>
+      </c>
+      <c r="Q496">
+        <v>-1.25</v>
+      </c>
+      <c r="R496">
+        <v>1.925</v>
+      </c>
+      <c r="S496">
+        <v>1.875</v>
+      </c>
+      <c r="T496">
+        <v>3.75</v>
+      </c>
+      <c r="U496">
+        <v>1.95</v>
+      </c>
+      <c r="V496">
+        <v>1.85</v>
+      </c>
+      <c r="W496">
+        <v>-1</v>
+      </c>
+      <c r="X496">
+        <v>-1</v>
+      </c>
+      <c r="Y496">
         <v>4</v>
       </c>
-      <c r="P496">
-        <v>2.45</v>
-      </c>
-      <c r="Q496">
-        <v>-0.25</v>
-      </c>
-      <c r="R496">
-        <v>1.95</v>
-      </c>
-      <c r="S496">
-        <v>1.75</v>
-      </c>
-      <c r="T496">
-        <v>3.25</v>
-      </c>
-      <c r="U496">
-        <v>1.85</v>
-      </c>
-      <c r="V496">
-        <v>1.95</v>
-      </c>
-      <c r="W496">
-        <v>1.2</v>
-      </c>
-      <c r="X496">
-        <v>-1</v>
-      </c>
-      <c r="Y496">
-        <v>-1</v>
-      </c>
       <c r="Z496">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA496">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB496">
+        <v>-1</v>
+      </c>
+      <c r="AC496">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AC496">
-        <v>-1</v>
       </c>
     </row>
     <row r="497" spans="1:29">
@@ -45154,7 +45154,7 @@
         <v>495</v>
       </c>
       <c r="B497">
-        <v>7959107</v>
+        <v>7959109</v>
       </c>
       <c r="C497" t="s">
         <v>28</v>
@@ -45166,76 +45166,76 @@
         <v>45366.625</v>
       </c>
       <c r="F497" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="G497" t="s">
-        <v>192</v>
+        <v>62</v>
       </c>
       <c r="H497">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I497">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J497" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="K497">
-        <v>1.85</v>
+        <v>2.2</v>
       </c>
       <c r="L497">
         <v>4</v>
       </c>
       <c r="M497">
-        <v>3.1</v>
+        <v>2.45</v>
       </c>
       <c r="N497">
-        <v>1.444</v>
+        <v>2.2</v>
       </c>
       <c r="O497">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="P497">
-        <v>5</v>
+        <v>2.45</v>
       </c>
       <c r="Q497">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R497">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S497">
-        <v>1.875</v>
+        <v>1.75</v>
       </c>
       <c r="T497">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="U497">
+        <v>1.85</v>
+      </c>
+      <c r="V497">
         <v>1.95</v>
       </c>
-      <c r="V497">
-        <v>1.85</v>
-      </c>
       <c r="W497">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="X497">
         <v>-1</v>
       </c>
       <c r="Y497">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="Z497">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA497">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB497">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC497">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="498" spans="1:29">
@@ -46222,7 +46222,7 @@
         <v>507</v>
       </c>
       <c r="B509">
-        <v>7990525</v>
+        <v>7990526</v>
       </c>
       <c r="C509" t="s">
         <v>28</v>
@@ -46234,76 +46234,76 @@
         <v>45373.60416666666</v>
       </c>
       <c r="F509" t="s">
-        <v>124</v>
+        <v>72</v>
       </c>
       <c r="G509" t="s">
-        <v>97</v>
+        <v>112</v>
       </c>
       <c r="H509">
         <v>2</v>
       </c>
       <c r="I509">
+        <v>5</v>
+      </c>
+      <c r="J509" t="s">
+        <v>208</v>
+      </c>
+      <c r="K509">
+        <v>3</v>
+      </c>
+      <c r="L509">
+        <v>3.6</v>
+      </c>
+      <c r="M509">
+        <v>2</v>
+      </c>
+      <c r="N509">
+        <v>2.5</v>
+      </c>
+      <c r="O509">
+        <v>3.6</v>
+      </c>
+      <c r="P509">
+        <v>2.3</v>
+      </c>
+      <c r="Q509">
         <v>0</v>
       </c>
-      <c r="J509" t="s">
-        <v>206</v>
-      </c>
-      <c r="K509">
-        <v>1.571</v>
-      </c>
-      <c r="L509">
-        <v>4</v>
-      </c>
-      <c r="M509">
-        <v>4.333</v>
-      </c>
-      <c r="N509">
-        <v>1.65</v>
-      </c>
-      <c r="O509">
-        <v>4</v>
-      </c>
-      <c r="P509">
-        <v>4.2</v>
-      </c>
-      <c r="Q509">
-        <v>-0.75</v>
-      </c>
       <c r="R509">
+        <v>1.975</v>
+      </c>
+      <c r="S509">
         <v>1.825</v>
       </c>
-      <c r="S509">
-        <v>1.975</v>
-      </c>
       <c r="T509">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="U509">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V509">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W509">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X509">
         <v>-1</v>
       </c>
       <c r="Y509">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Z509">
+        <v>-1</v>
+      </c>
+      <c r="AA509">
         <v>0.825</v>
       </c>
-      <c r="AA509">
-        <v>-1</v>
-      </c>
       <c r="AB509">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC509">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="510" spans="1:29">
@@ -46311,7 +46311,7 @@
         <v>508</v>
       </c>
       <c r="B510">
-        <v>7990526</v>
+        <v>7990525</v>
       </c>
       <c r="C510" t="s">
         <v>28</v>
@@ -46323,76 +46323,76 @@
         <v>45373.60416666666</v>
       </c>
       <c r="F510" t="s">
-        <v>72</v>
+        <v>124</v>
       </c>
       <c r="G510" t="s">
-        <v>112</v>
+        <v>97</v>
       </c>
       <c r="H510">
         <v>2</v>
       </c>
       <c r="I510">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J510" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="K510">
-        <v>3</v>
+        <v>1.571</v>
       </c>
       <c r="L510">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M510">
-        <v>2</v>
+        <v>4.333</v>
       </c>
       <c r="N510">
-        <v>2.5</v>
+        <v>1.65</v>
       </c>
       <c r="O510">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="P510">
-        <v>2.3</v>
+        <v>4.2</v>
       </c>
       <c r="Q510">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R510">
+        <v>1.825</v>
+      </c>
+      <c r="S510">
         <v>1.975</v>
       </c>
-      <c r="S510">
-        <v>1.825</v>
-      </c>
       <c r="T510">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="U510">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V510">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W510">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X510">
         <v>-1</v>
       </c>
       <c r="Y510">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Z510">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA510">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB510">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC510">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="511" spans="1:29">
@@ -47023,7 +47023,7 @@
         <v>516</v>
       </c>
       <c r="B518">
-        <v>7990641</v>
+        <v>7990566</v>
       </c>
       <c r="C518" t="s">
         <v>28</v>
@@ -47035,73 +47035,73 @@
         <v>45373.64583333334</v>
       </c>
       <c r="F518" t="s">
-        <v>116</v>
+        <v>38</v>
       </c>
       <c r="G518" t="s">
-        <v>193</v>
+        <v>117</v>
       </c>
       <c r="H518">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I518">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J518" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="K518">
-        <v>5.5</v>
+        <v>3.1</v>
       </c>
       <c r="L518">
-        <v>5</v>
+        <v>3.75</v>
       </c>
       <c r="M518">
-        <v>1.363</v>
+        <v>1.909</v>
       </c>
       <c r="N518">
-        <v>17</v>
+        <v>2.5</v>
       </c>
       <c r="O518">
-        <v>7.5</v>
+        <v>3.6</v>
       </c>
       <c r="P518">
-        <v>1.125</v>
+        <v>2.375</v>
       </c>
       <c r="Q518">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="R518">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S518">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="T518">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="U518">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="V518">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W518">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="X518">
         <v>-1</v>
       </c>
       <c r="Y518">
-        <v>0.125</v>
+        <v>-1</v>
       </c>
       <c r="Z518">
-        <v>0.925</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA518">
         <v>-1</v>
       </c>
       <c r="AB518">
-        <v>0.875</v>
+        <v>0.8</v>
       </c>
       <c r="AC518">
         <v>-1</v>
@@ -47112,7 +47112,7 @@
         <v>517</v>
       </c>
       <c r="B519">
-        <v>7990566</v>
+        <v>7990641</v>
       </c>
       <c r="C519" t="s">
         <v>28</v>
@@ -47124,73 +47124,73 @@
         <v>45373.64583333334</v>
       </c>
       <c r="F519" t="s">
-        <v>38</v>
+        <v>116</v>
       </c>
       <c r="G519" t="s">
-        <v>117</v>
+        <v>193</v>
       </c>
       <c r="H519">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I519">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J519" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="K519">
-        <v>3.1</v>
+        <v>5.5</v>
       </c>
       <c r="L519">
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="M519">
-        <v>1.909</v>
+        <v>1.363</v>
       </c>
       <c r="N519">
+        <v>17</v>
+      </c>
+      <c r="O519">
+        <v>7.5</v>
+      </c>
+      <c r="P519">
+        <v>1.125</v>
+      </c>
+      <c r="Q519">
         <v>2.5</v>
       </c>
-      <c r="O519">
-        <v>3.6</v>
-      </c>
-      <c r="P519">
-        <v>2.375</v>
-      </c>
-      <c r="Q519">
-        <v>0</v>
-      </c>
       <c r="R519">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S519">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="T519">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="U519">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V519">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W519">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="X519">
         <v>-1</v>
       </c>
       <c r="Y519">
-        <v>-1</v>
+        <v>0.125</v>
       </c>
       <c r="Z519">
-        <v>0.9750000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AA519">
         <v>-1</v>
       </c>
       <c r="AB519">
-        <v>0.8</v>
+        <v>0.875</v>
       </c>
       <c r="AC519">
         <v>-1</v>
@@ -48180,7 +48180,7 @@
         <v>529</v>
       </c>
       <c r="B531">
-        <v>8019254</v>
+        <v>8022395</v>
       </c>
       <c r="C531" t="s">
         <v>28</v>
@@ -48192,52 +48192,52 @@
         <v>45379.625</v>
       </c>
       <c r="F531" t="s">
-        <v>36</v>
+        <v>165</v>
       </c>
       <c r="G531" t="s">
-        <v>102</v>
+        <v>203</v>
       </c>
       <c r="H531">
         <v>2</v>
       </c>
       <c r="I531">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J531" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="K531">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="L531">
         <v>3.6</v>
       </c>
       <c r="M531">
-        <v>2.625</v>
+        <v>2.75</v>
       </c>
       <c r="N531">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="O531">
         <v>3.6</v>
       </c>
       <c r="P531">
-        <v>2.625</v>
+        <v>2.75</v>
       </c>
       <c r="Q531">
         <v>-0.25</v>
       </c>
       <c r="R531">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="S531">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="T531">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U531">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="V531">
         <v>1.95</v>
@@ -48246,19 +48246,19 @@
         <v>-1</v>
       </c>
       <c r="X531">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y531">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="Z531">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA531">
-        <v>0.8</v>
+        <v>0.4375</v>
       </c>
       <c r="AB531">
-        <v>0.75</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC531">
         <v>-1</v>
@@ -48269,7 +48269,7 @@
         <v>530</v>
       </c>
       <c r="B532">
-        <v>8022395</v>
+        <v>8019254</v>
       </c>
       <c r="C532" t="s">
         <v>28</v>
@@ -48281,52 +48281,52 @@
         <v>45379.625</v>
       </c>
       <c r="F532" t="s">
-        <v>165</v>
+        <v>36</v>
       </c>
       <c r="G532" t="s">
-        <v>203</v>
+        <v>102</v>
       </c>
       <c r="H532">
         <v>2</v>
       </c>
       <c r="I532">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J532" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="K532">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="L532">
         <v>3.6</v>
       </c>
       <c r="M532">
-        <v>2.75</v>
+        <v>2.625</v>
       </c>
       <c r="N532">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="O532">
         <v>3.6</v>
       </c>
       <c r="P532">
-        <v>2.75</v>
+        <v>2.625</v>
       </c>
       <c r="Q532">
         <v>-0.25</v>
       </c>
       <c r="R532">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="S532">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="T532">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U532">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="V532">
         <v>1.95</v>
@@ -48335,19 +48335,19 @@
         <v>-1</v>
       </c>
       <c r="X532">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y532">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="Z532">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA532">
-        <v>0.4375</v>
+        <v>0.8</v>
       </c>
       <c r="AB532">
-        <v>0.8500000000000001</v>
+        <v>0.75</v>
       </c>
       <c r="AC532">
         <v>-1</v>

--- a/Austria Landesliga/Austria Landesliga.xlsx
+++ b/Austria Landesliga/Austria Landesliga.xlsx
@@ -208,10 +208,10 @@
     <t>SV Kematen</t>
   </si>
   <si>
-    <t>ASV 13 Vienna</t>
+    <t>SV Wienerberg</t>
   </si>
   <si>
-    <t>SV Wienerberg</t>
+    <t>ASV 13 Vienna</t>
   </si>
   <si>
     <t>ASV Spratzern</t>
@@ -442,10 +442,10 @@
     <t>Union Perg</t>
   </si>
   <si>
-    <t>SV Sedda Bad Schallerbach</t>
+    <t>FugenUderns</t>
   </si>
   <si>
-    <t>FugenUderns</t>
+    <t>SV Sedda Bad Schallerbach</t>
   </si>
   <si>
     <t>Kottingbrunn</t>
@@ -2309,7 +2309,7 @@
         <v>42</v>
       </c>
       <c r="F16" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G16">
         <v>2</v>
@@ -2567,7 +2567,7 @@
         <v>45</v>
       </c>
       <c r="F19" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G19">
         <v>2</v>
@@ -4189,7 +4189,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>6744956</v>
+        <v>6744957</v>
       </c>
       <c r="C38" t="s">
         <v>27</v>
@@ -4201,70 +4201,70 @@
         <v>64</v>
       </c>
       <c r="F38" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="G38">
+        <v>1</v>
+      </c>
+      <c r="H38">
         <v>3</v>
       </c>
-      <c r="H38">
-        <v>2</v>
-      </c>
       <c r="I38" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="J38">
-        <v>1.909</v>
+        <v>2.625</v>
       </c>
       <c r="K38">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="L38">
-        <v>3.1</v>
+        <v>2.25</v>
       </c>
       <c r="M38">
-        <v>1.65</v>
+        <v>2.3</v>
       </c>
       <c r="N38">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="O38">
-        <v>4</v>
+        <v>2.55</v>
       </c>
       <c r="P38">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="Q38">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="R38">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="S38">
         <v>3.5</v>
       </c>
       <c r="T38">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="U38">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="V38">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="W38">
         <v>-1</v>
       </c>
       <c r="X38">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="Y38">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="Z38">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA38">
-        <v>1</v>
+        <v>0.825</v>
       </c>
       <c r="AB38">
         <v>-1</v>
@@ -4275,7 +4275,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>6744957</v>
+        <v>6744956</v>
       </c>
       <c r="C39" t="s">
         <v>27</v>
@@ -4287,70 +4287,70 @@
         <v>65</v>
       </c>
       <c r="F39" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="G39">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H39">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I39" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="J39">
-        <v>2.625</v>
+        <v>1.909</v>
       </c>
       <c r="K39">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="L39">
-        <v>2.25</v>
+        <v>3.1</v>
       </c>
       <c r="M39">
-        <v>2.3</v>
+        <v>1.65</v>
       </c>
       <c r="N39">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="O39">
-        <v>2.55</v>
+        <v>4</v>
       </c>
       <c r="P39">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="Q39">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="R39">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="S39">
         <v>3.5</v>
       </c>
       <c r="T39">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="U39">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V39">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="W39">
         <v>-1</v>
       </c>
       <c r="X39">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="Y39">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="Z39">
+        <v>-1</v>
+      </c>
+      <c r="AA39">
         <v>1</v>
-      </c>
-      <c r="AA39">
-        <v>0.825</v>
       </c>
       <c r="AB39">
         <v>-1</v>
@@ -5921,7 +5921,7 @@
         <v>79</v>
       </c>
       <c r="F58" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G58">
         <v>1</v>
@@ -6007,7 +6007,7 @@
         <v>78</v>
       </c>
       <c r="F59" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G59">
         <v>4</v>
@@ -9177,7 +9177,7 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>7045804</v>
+        <v>7045805</v>
       </c>
       <c r="C96" t="s">
         <v>27</v>
@@ -9186,58 +9186,58 @@
         <v>45149.60416666666</v>
       </c>
       <c r="E96" t="s">
-        <v>54</v>
+        <v>102</v>
       </c>
       <c r="F96" t="s">
-        <v>162</v>
+        <v>148</v>
       </c>
       <c r="G96">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H96">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I96" t="s">
         <v>205</v>
       </c>
       <c r="J96">
-        <v>2</v>
+        <v>1.25</v>
       </c>
       <c r="K96">
+        <v>6</v>
+      </c>
+      <c r="L96">
+        <v>7</v>
+      </c>
+      <c r="M96">
+        <v>1.142</v>
+      </c>
+      <c r="N96">
+        <v>8.5</v>
+      </c>
+      <c r="O96">
+        <v>9.5</v>
+      </c>
+      <c r="P96">
+        <v>-2.5</v>
+      </c>
+      <c r="Q96">
+        <v>1.925</v>
+      </c>
+      <c r="R96">
+        <v>1.875</v>
+      </c>
+      <c r="S96">
         <v>4</v>
       </c>
-      <c r="L96">
-        <v>2.75</v>
-      </c>
-      <c r="M96">
-        <v>2</v>
-      </c>
-      <c r="N96">
-        <v>4</v>
-      </c>
-      <c r="O96">
-        <v>2.75</v>
-      </c>
-      <c r="P96">
-        <v>-0.25</v>
-      </c>
-      <c r="Q96">
-        <v>1.825</v>
-      </c>
-      <c r="R96">
-        <v>1.975</v>
-      </c>
-      <c r="S96">
-        <v>3</v>
-      </c>
       <c r="T96">
-        <v>1.725</v>
+        <v>1.875</v>
       </c>
       <c r="U96">
-        <v>2.075</v>
+        <v>1.925</v>
       </c>
       <c r="V96">
-        <v>1</v>
+        <v>0.1419999999999999</v>
       </c>
       <c r="W96">
         <v>-1</v>
@@ -9246,16 +9246,16 @@
         <v>-1</v>
       </c>
       <c r="Y96">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="Z96">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA96">
-        <v>0.7250000000000001</v>
+        <v>0</v>
       </c>
       <c r="AB96">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:28">
@@ -9263,7 +9263,7 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>7045805</v>
+        <v>7045804</v>
       </c>
       <c r="C97" t="s">
         <v>27</v>
@@ -9272,58 +9272,58 @@
         <v>45149.60416666666</v>
       </c>
       <c r="E97" t="s">
-        <v>102</v>
+        <v>54</v>
       </c>
       <c r="F97" t="s">
-        <v>148</v>
+        <v>162</v>
       </c>
       <c r="G97">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H97">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I97" t="s">
         <v>205</v>
       </c>
       <c r="J97">
-        <v>1.25</v>
+        <v>2</v>
       </c>
       <c r="K97">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="L97">
-        <v>7</v>
+        <v>2.75</v>
       </c>
       <c r="M97">
-        <v>1.142</v>
+        <v>2</v>
       </c>
       <c r="N97">
-        <v>8.5</v>
+        <v>4</v>
       </c>
       <c r="O97">
-        <v>9.5</v>
+        <v>2.75</v>
       </c>
       <c r="P97">
-        <v>-2.5</v>
+        <v>-0.25</v>
       </c>
       <c r="Q97">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="R97">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="S97">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T97">
-        <v>1.875</v>
+        <v>1.725</v>
       </c>
       <c r="U97">
-        <v>1.925</v>
+        <v>2.075</v>
       </c>
       <c r="V97">
-        <v>0.1419999999999999</v>
+        <v>1</v>
       </c>
       <c r="W97">
         <v>-1</v>
@@ -9332,16 +9332,16 @@
         <v>-1</v>
       </c>
       <c r="Y97">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="Z97">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA97">
-        <v>0</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AB97">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="98" spans="1:28">
@@ -10135,7 +10135,7 @@
         <v>63</v>
       </c>
       <c r="F107" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G107">
         <v>3</v>
@@ -10467,7 +10467,7 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>7067953</v>
+        <v>7067961</v>
       </c>
       <c r="C111" t="s">
         <v>27</v>
@@ -10476,55 +10476,55 @@
         <v>45153.22916666666</v>
       </c>
       <c r="E111" t="s">
-        <v>111</v>
+        <v>94</v>
       </c>
       <c r="F111" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="G111">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H111">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I111" t="s">
         <v>207</v>
       </c>
       <c r="J111">
-        <v>2.35</v>
+        <v>2</v>
       </c>
       <c r="K111">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="L111">
-        <v>2.35</v>
+        <v>3</v>
       </c>
       <c r="M111">
-        <v>2.05</v>
+        <v>2.4</v>
       </c>
       <c r="N111">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="O111">
-        <v>2.7</v>
+        <v>2.4</v>
       </c>
       <c r="P111">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="Q111">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="R111">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="S111">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="T111">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="U111">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V111">
         <v>-1</v>
@@ -10533,19 +10533,19 @@
         <v>-1</v>
       </c>
       <c r="X111">
-        <v>1.7</v>
+        <v>1.4</v>
       </c>
       <c r="Y111">
         <v>-1</v>
       </c>
       <c r="Z111">
-        <v>0.925</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA111">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB111">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="112" spans="1:28">
@@ -10553,7 +10553,7 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>7067961</v>
+        <v>7067953</v>
       </c>
       <c r="C112" t="s">
         <v>27</v>
@@ -10562,55 +10562,55 @@
         <v>45153.22916666666</v>
       </c>
       <c r="E112" t="s">
-        <v>94</v>
+        <v>111</v>
       </c>
       <c r="F112" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="G112">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H112">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I112" t="s">
         <v>207</v>
       </c>
       <c r="J112">
-        <v>2</v>
+        <v>2.35</v>
       </c>
       <c r="K112">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="L112">
-        <v>3</v>
+        <v>2.35</v>
       </c>
       <c r="M112">
-        <v>2.4</v>
+        <v>2.05</v>
       </c>
       <c r="N112">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="O112">
-        <v>2.4</v>
+        <v>2.7</v>
       </c>
       <c r="P112">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="Q112">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="R112">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S112">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="T112">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="U112">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V112">
         <v>-1</v>
@@ -10619,19 +10619,19 @@
         <v>-1</v>
       </c>
       <c r="X112">
-        <v>1.4</v>
+        <v>1.7</v>
       </c>
       <c r="Y112">
         <v>-1</v>
       </c>
       <c r="Z112">
-        <v>0.8999999999999999</v>
+        <v>0.925</v>
       </c>
       <c r="AA112">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB112">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="113" spans="1:28">
@@ -11852,7 +11852,7 @@
         <v>45156.54166666666</v>
       </c>
       <c r="E127" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F127" t="s">
         <v>46</v>
@@ -13231,7 +13231,7 @@
         <v>43</v>
       </c>
       <c r="F143" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G143">
         <v>7</v>
@@ -14260,7 +14260,7 @@
         <v>45163.54166666666</v>
       </c>
       <c r="E155" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F155" t="s">
         <v>70</v>
@@ -14423,7 +14423,7 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>7113182</v>
+        <v>7113185</v>
       </c>
       <c r="C157" t="s">
         <v>27</v>
@@ -14432,40 +14432,40 @@
         <v>45163.58333333334</v>
       </c>
       <c r="E157" t="s">
-        <v>98</v>
+        <v>128</v>
       </c>
       <c r="F157" t="s">
-        <v>71</v>
+        <v>89</v>
       </c>
       <c r="G157">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H157">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I157" t="s">
         <v>205</v>
       </c>
       <c r="J157">
-        <v>3.1</v>
+        <v>1.8</v>
       </c>
       <c r="K157">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="L157">
-        <v>1.909</v>
+        <v>3.25</v>
       </c>
       <c r="M157">
-        <v>1.363</v>
+        <v>2.05</v>
       </c>
       <c r="N157">
-        <v>5</v>
+        <v>4.333</v>
       </c>
       <c r="O157">
-        <v>6.5</v>
+        <v>2.5</v>
       </c>
       <c r="P157">
-        <v>-1.5</v>
+        <v>-0.25</v>
       </c>
       <c r="Q157">
         <v>1.95</v>
@@ -14474,16 +14474,16 @@
         <v>1.85</v>
       </c>
       <c r="S157">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="T157">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="U157">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V157">
-        <v>0.363</v>
+        <v>1.05</v>
       </c>
       <c r="W157">
         <v>-1</v>
@@ -14492,16 +14492,16 @@
         <v>-1</v>
       </c>
       <c r="Y157">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="Z157">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA157">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB157">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="158" spans="1:28">
@@ -14509,7 +14509,7 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>7113185</v>
+        <v>7113182</v>
       </c>
       <c r="C158" t="s">
         <v>27</v>
@@ -14518,40 +14518,40 @@
         <v>45163.58333333334</v>
       </c>
       <c r="E158" t="s">
-        <v>128</v>
+        <v>98</v>
       </c>
       <c r="F158" t="s">
-        <v>89</v>
+        <v>71</v>
       </c>
       <c r="G158">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H158">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I158" t="s">
         <v>205</v>
       </c>
       <c r="J158">
-        <v>1.8</v>
+        <v>3.1</v>
       </c>
       <c r="K158">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="L158">
-        <v>3.25</v>
+        <v>1.909</v>
       </c>
       <c r="M158">
-        <v>2.05</v>
+        <v>1.363</v>
       </c>
       <c r="N158">
-        <v>4.333</v>
+        <v>5</v>
       </c>
       <c r="O158">
-        <v>2.5</v>
+        <v>6.5</v>
       </c>
       <c r="P158">
-        <v>-0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="Q158">
         <v>1.95</v>
@@ -14560,16 +14560,16 @@
         <v>1.85</v>
       </c>
       <c r="S158">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="T158">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="U158">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V158">
-        <v>1.05</v>
+        <v>0.363</v>
       </c>
       <c r="W158">
         <v>-1</v>
@@ -14578,16 +14578,16 @@
         <v>-1</v>
       </c>
       <c r="Y158">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="Z158">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA158">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB158">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="159" spans="1:28">
@@ -14595,7 +14595,7 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>7113184</v>
+        <v>7113183</v>
       </c>
       <c r="C159" t="s">
         <v>27</v>
@@ -14604,76 +14604,76 @@
         <v>45163.58333333334</v>
       </c>
       <c r="E159" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="F159" t="s">
-        <v>86</v>
+        <v>61</v>
       </c>
       <c r="G159">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H159">
         <v>1</v>
       </c>
       <c r="I159" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="J159">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="K159">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="L159">
-        <v>2</v>
+        <v>1.833</v>
       </c>
       <c r="M159">
-        <v>2.15</v>
+        <v>1.8</v>
       </c>
       <c r="N159">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="O159">
-        <v>2.8</v>
+        <v>3.3</v>
       </c>
       <c r="P159">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="Q159">
+        <v>1.85</v>
+      </c>
+      <c r="R159">
         <v>1.95</v>
       </c>
-      <c r="R159">
+      <c r="S159">
+        <v>3.5</v>
+      </c>
+      <c r="T159">
         <v>1.85</v>
       </c>
-      <c r="S159">
-        <v>3.25</v>
-      </c>
-      <c r="T159">
-        <v>1.825</v>
-      </c>
       <c r="U159">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V159">
         <v>-1</v>
       </c>
       <c r="W159">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="X159">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y159">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="Z159">
-        <v>0.425</v>
+        <v>0.95</v>
       </c>
       <c r="AA159">
         <v>-1</v>
       </c>
       <c r="AB159">
-        <v>0.9750000000000001</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="160" spans="1:28">
@@ -14681,7 +14681,7 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>7113183</v>
+        <v>7113184</v>
       </c>
       <c r="C160" t="s">
         <v>27</v>
@@ -14690,76 +14690,76 @@
         <v>45163.58333333334</v>
       </c>
       <c r="E160" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="F160" t="s">
-        <v>61</v>
+        <v>86</v>
       </c>
       <c r="G160">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H160">
         <v>1</v>
       </c>
       <c r="I160" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="J160">
+        <v>3</v>
+      </c>
+      <c r="K160">
+        <v>3.6</v>
+      </c>
+      <c r="L160">
+        <v>2</v>
+      </c>
+      <c r="M160">
+        <v>2.15</v>
+      </c>
+      <c r="N160">
+        <v>3.6</v>
+      </c>
+      <c r="O160">
+        <v>2.8</v>
+      </c>
+      <c r="P160">
+        <v>-0.25</v>
+      </c>
+      <c r="Q160">
+        <v>1.95</v>
+      </c>
+      <c r="R160">
+        <v>1.85</v>
+      </c>
+      <c r="S160">
         <v>3.25</v>
       </c>
-      <c r="K160">
-        <v>3.8</v>
-      </c>
-      <c r="L160">
-        <v>1.833</v>
-      </c>
-      <c r="M160">
-        <v>1.8</v>
-      </c>
-      <c r="N160">
-        <v>4.2</v>
-      </c>
-      <c r="O160">
-        <v>3.3</v>
-      </c>
-      <c r="P160">
+      <c r="T160">
+        <v>1.825</v>
+      </c>
+      <c r="U160">
+        <v>1.975</v>
+      </c>
+      <c r="V160">
+        <v>-1</v>
+      </c>
+      <c r="W160">
+        <v>2.6</v>
+      </c>
+      <c r="X160">
+        <v>-1</v>
+      </c>
+      <c r="Y160">
         <v>-0.5</v>
       </c>
-      <c r="Q160">
-        <v>1.85</v>
-      </c>
-      <c r="R160">
-        <v>1.95</v>
-      </c>
-      <c r="S160">
-        <v>3.5</v>
-      </c>
-      <c r="T160">
-        <v>1.85</v>
-      </c>
-      <c r="U160">
-        <v>1.95</v>
-      </c>
-      <c r="V160">
-        <v>-1</v>
-      </c>
-      <c r="W160">
-        <v>-1</v>
-      </c>
-      <c r="X160">
-        <v>2.3</v>
-      </c>
-      <c r="Y160">
-        <v>-1</v>
-      </c>
       <c r="Z160">
-        <v>0.95</v>
+        <v>0.425</v>
       </c>
       <c r="AA160">
         <v>-1</v>
       </c>
       <c r="AB160">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="161" spans="1:28">
@@ -14767,7 +14767,7 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>7115255</v>
+        <v>7113289</v>
       </c>
       <c r="C161" t="s">
         <v>27</v>
@@ -14776,76 +14776,76 @@
         <v>45163.58333333334</v>
       </c>
       <c r="E161" t="s">
-        <v>129</v>
+        <v>63</v>
       </c>
       <c r="F161" t="s">
-        <v>40</v>
+        <v>87</v>
       </c>
       <c r="G161">
         <v>2</v>
       </c>
       <c r="H161">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I161" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="J161">
-        <v>1.8</v>
+        <v>2.75</v>
       </c>
       <c r="K161">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="L161">
-        <v>3.75</v>
+        <v>2.1</v>
       </c>
       <c r="M161">
-        <v>2.15</v>
+        <v>3.25</v>
       </c>
       <c r="N161">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="O161">
-        <v>2.875</v>
+        <v>1.85</v>
       </c>
       <c r="P161">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="Q161">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="R161">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="S161">
         <v>3.5</v>
       </c>
       <c r="T161">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="U161">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="V161">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="W161">
         <v>-1</v>
       </c>
       <c r="X161">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Y161">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z161">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA161">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB161">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="162" spans="1:28">
@@ -14853,7 +14853,7 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>7113289</v>
+        <v>7115255</v>
       </c>
       <c r="C162" t="s">
         <v>27</v>
@@ -14862,76 +14862,76 @@
         <v>45163.58333333334</v>
       </c>
       <c r="E162" t="s">
-        <v>63</v>
+        <v>129</v>
       </c>
       <c r="F162" t="s">
-        <v>87</v>
+        <v>40</v>
       </c>
       <c r="G162">
         <v>2</v>
       </c>
       <c r="H162">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I162" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="J162">
-        <v>2.75</v>
+        <v>1.8</v>
       </c>
       <c r="K162">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="L162">
-        <v>2.1</v>
+        <v>3.75</v>
       </c>
       <c r="M162">
-        <v>3.25</v>
+        <v>2.15</v>
       </c>
       <c r="N162">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="O162">
-        <v>1.85</v>
+        <v>2.875</v>
       </c>
       <c r="P162">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="Q162">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="R162">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="S162">
         <v>3.5</v>
       </c>
       <c r="T162">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="U162">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="V162">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="W162">
         <v>-1</v>
       </c>
       <c r="X162">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="Y162">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z162">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA162">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB162">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="163" spans="1:28">
@@ -14939,7 +14939,7 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>7113334</v>
+        <v>7113024</v>
       </c>
       <c r="C163" t="s">
         <v>27</v>
@@ -14948,49 +14948,49 @@
         <v>45163.60416666666</v>
       </c>
       <c r="E163" t="s">
-        <v>130</v>
+        <v>102</v>
       </c>
       <c r="F163" t="s">
-        <v>190</v>
+        <v>177</v>
       </c>
       <c r="G163">
         <v>2</v>
       </c>
       <c r="H163">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I163" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="J163">
-        <v>3.5</v>
+        <v>1.533</v>
       </c>
       <c r="K163">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="L163">
-        <v>1.727</v>
+        <v>4.5</v>
       </c>
       <c r="M163">
-        <v>4.333</v>
+        <v>1.533</v>
       </c>
       <c r="N163">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="O163">
-        <v>1.571</v>
+        <v>4.75</v>
       </c>
       <c r="P163">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Q163">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="R163">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S163">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="T163">
         <v>1.85</v>
@@ -14999,25 +14999,25 @@
         <v>1.95</v>
       </c>
       <c r="V163">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="W163">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="X163">
         <v>-1</v>
       </c>
       <c r="Y163">
-        <v>0.8500000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="Z163">
         <v>-1</v>
       </c>
       <c r="AA163">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB163">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="164" spans="1:28">
@@ -15025,7 +15025,7 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>7113024</v>
+        <v>7113025</v>
       </c>
       <c r="C164" t="s">
         <v>27</v>
@@ -15034,13 +15034,13 @@
         <v>45163.60416666666</v>
       </c>
       <c r="E164" t="s">
-        <v>102</v>
+        <v>73</v>
       </c>
       <c r="F164" t="s">
-        <v>177</v>
+        <v>138</v>
       </c>
       <c r="G164">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H164">
         <v>0</v>
@@ -15049,43 +15049,43 @@
         <v>205</v>
       </c>
       <c r="J164">
-        <v>1.533</v>
+        <v>1.363</v>
       </c>
       <c r="K164">
-        <v>4.2</v>
+        <v>5</v>
       </c>
       <c r="L164">
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
       <c r="M164">
-        <v>1.533</v>
+        <v>1.222</v>
       </c>
       <c r="N164">
-        <v>4.2</v>
+        <v>5.75</v>
       </c>
       <c r="O164">
-        <v>4.75</v>
+        <v>8</v>
       </c>
       <c r="P164">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="Q164">
+        <v>1.925</v>
+      </c>
+      <c r="R164">
+        <v>1.875</v>
+      </c>
+      <c r="S164">
+        <v>4</v>
+      </c>
+      <c r="T164">
+        <v>1.975</v>
+      </c>
+      <c r="U164">
         <v>1.825</v>
       </c>
-      <c r="R164">
-        <v>1.975</v>
-      </c>
-      <c r="S164">
-        <v>3.25</v>
-      </c>
-      <c r="T164">
-        <v>1.85</v>
-      </c>
-      <c r="U164">
-        <v>1.95</v>
-      </c>
       <c r="V164">
-        <v>0.5329999999999999</v>
+        <v>0.222</v>
       </c>
       <c r="W164">
         <v>-1</v>
@@ -15094,16 +15094,16 @@
         <v>-1</v>
       </c>
       <c r="Y164">
+        <v>-1</v>
+      </c>
+      <c r="Z164">
+        <v>0.875</v>
+      </c>
+      <c r="AA164">
+        <v>-1</v>
+      </c>
+      <c r="AB164">
         <v>0.825</v>
-      </c>
-      <c r="Z164">
-        <v>-1</v>
-      </c>
-      <c r="AA164">
-        <v>-1</v>
-      </c>
-      <c r="AB164">
-        <v>0.95</v>
       </c>
     </row>
     <row r="165" spans="1:28">
@@ -15111,7 +15111,7 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>7113025</v>
+        <v>7113334</v>
       </c>
       <c r="C165" t="s">
         <v>27</v>
@@ -15120,76 +15120,76 @@
         <v>45163.60416666666</v>
       </c>
       <c r="E165" t="s">
-        <v>73</v>
+        <v>130</v>
       </c>
       <c r="F165" t="s">
-        <v>138</v>
+        <v>190</v>
       </c>
       <c r="G165">
+        <v>2</v>
+      </c>
+      <c r="H165">
+        <v>2</v>
+      </c>
+      <c r="I165" t="s">
+        <v>206</v>
+      </c>
+      <c r="J165">
+        <v>3.5</v>
+      </c>
+      <c r="K165">
+        <v>4</v>
+      </c>
+      <c r="L165">
+        <v>1.727</v>
+      </c>
+      <c r="M165">
+        <v>4.333</v>
+      </c>
+      <c r="N165">
+        <v>4</v>
+      </c>
+      <c r="O165">
+        <v>1.571</v>
+      </c>
+      <c r="P165">
         <v>1</v>
       </c>
-      <c r="H165">
-        <v>0</v>
-      </c>
-      <c r="I165" t="s">
-        <v>205</v>
-      </c>
-      <c r="J165">
-        <v>1.363</v>
-      </c>
-      <c r="K165">
-        <v>5</v>
-      </c>
-      <c r="L165">
-        <v>5.5</v>
-      </c>
-      <c r="M165">
-        <v>1.222</v>
-      </c>
-      <c r="N165">
-        <v>5.75</v>
-      </c>
-      <c r="O165">
-        <v>8</v>
-      </c>
-      <c r="P165">
-        <v>-2</v>
-      </c>
       <c r="Q165">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="R165">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="S165">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T165">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="U165">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V165">
-        <v>0.222</v>
+        <v>-1</v>
       </c>
       <c r="W165">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="X165">
         <v>-1</v>
       </c>
       <c r="Y165">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z165">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA165">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB165">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="166" spans="1:28">
@@ -15209,7 +15209,7 @@
         <v>131</v>
       </c>
       <c r="F166" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="G166">
         <v>1</v>
@@ -15378,7 +15378,7 @@
         <v>45164.41666666666</v>
       </c>
       <c r="E168" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F168" t="s">
         <v>55</v>
@@ -16324,7 +16324,7 @@
         <v>45170.53125</v>
       </c>
       <c r="E179" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F179" t="s">
         <v>79</v>
@@ -17003,7 +17003,7 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>7147747</v>
+        <v>7147667</v>
       </c>
       <c r="C187" t="s">
         <v>27</v>
@@ -17012,76 +17012,76 @@
         <v>45170.58333333334</v>
       </c>
       <c r="E187" t="s">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="F187" t="s">
-        <v>114</v>
+        <v>100</v>
       </c>
       <c r="G187">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H187">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I187" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="J187">
-        <v>1.571</v>
+        <v>1.727</v>
       </c>
       <c r="K187">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="L187">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="M187">
-        <v>1.7</v>
+        <v>2.05</v>
       </c>
       <c r="N187">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="O187">
-        <v>4</v>
+        <v>2.625</v>
       </c>
       <c r="P187">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="Q187">
+        <v>1.925</v>
+      </c>
+      <c r="R187">
         <v>1.875</v>
       </c>
-      <c r="R187">
-        <v>1.925</v>
-      </c>
       <c r="S187">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="T187">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="U187">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V187">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="W187">
         <v>-1</v>
       </c>
       <c r="X187">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y187">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="Z187">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA187">
         <v>-1</v>
       </c>
       <c r="AB187">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="188" spans="1:28">
@@ -17089,7 +17089,7 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>7147667</v>
+        <v>7147668</v>
       </c>
       <c r="C188" t="s">
         <v>27</v>
@@ -17098,49 +17098,49 @@
         <v>45170.58333333334</v>
       </c>
       <c r="E188" t="s">
-        <v>61</v>
+        <v>86</v>
       </c>
       <c r="F188" t="s">
-        <v>100</v>
+        <v>48</v>
       </c>
       <c r="G188">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H188">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I188" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="J188">
-        <v>1.727</v>
+        <v>1.8</v>
       </c>
       <c r="K188">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="L188">
         <v>3.5</v>
       </c>
       <c r="M188">
-        <v>2.05</v>
+        <v>1.4</v>
       </c>
       <c r="N188">
-        <v>4</v>
+        <v>4.333</v>
       </c>
       <c r="O188">
-        <v>2.625</v>
+        <v>6.5</v>
       </c>
       <c r="P188">
-        <v>-0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="Q188">
+        <v>1.875</v>
+      </c>
+      <c r="R188">
         <v>1.925</v>
       </c>
-      <c r="R188">
-        <v>1.875</v>
-      </c>
       <c r="S188">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="T188">
         <v>1.975</v>
@@ -17149,25 +17149,25 @@
         <v>1.825</v>
       </c>
       <c r="V188">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="W188">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="X188">
         <v>-1</v>
       </c>
       <c r="Y188">
+        <v>-1</v>
+      </c>
+      <c r="Z188">
         <v>0.925</v>
       </c>
-      <c r="Z188">
-        <v>-1</v>
-      </c>
       <c r="AA188">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB188">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="189" spans="1:28">
@@ -17175,7 +17175,7 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>7147668</v>
+        <v>7147747</v>
       </c>
       <c r="C189" t="s">
         <v>27</v>
@@ -17184,40 +17184,40 @@
         <v>45170.58333333334</v>
       </c>
       <c r="E189" t="s">
-        <v>86</v>
+        <v>40</v>
       </c>
       <c r="F189" t="s">
-        <v>48</v>
+        <v>114</v>
       </c>
       <c r="G189">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H189">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I189" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="J189">
-        <v>1.8</v>
+        <v>1.571</v>
       </c>
       <c r="K189">
+        <v>3.6</v>
+      </c>
+      <c r="L189">
+        <v>5</v>
+      </c>
+      <c r="M189">
+        <v>1.7</v>
+      </c>
+      <c r="N189">
         <v>3.75</v>
       </c>
-      <c r="L189">
-        <v>3.5</v>
-      </c>
-      <c r="M189">
-        <v>1.4</v>
-      </c>
-      <c r="N189">
-        <v>4.333</v>
-      </c>
       <c r="O189">
-        <v>6.5</v>
+        <v>4</v>
       </c>
       <c r="P189">
-        <v>-1.5</v>
+        <v>-0.75</v>
       </c>
       <c r="Q189">
         <v>1.875</v>
@@ -17226,22 +17226,22 @@
         <v>1.925</v>
       </c>
       <c r="S189">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="T189">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="U189">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V189">
         <v>-1</v>
       </c>
       <c r="W189">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="X189">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y189">
         <v>-1</v>
@@ -17250,10 +17250,10 @@
         <v>0.925</v>
       </c>
       <c r="AA189">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB189">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="190" spans="1:28">
@@ -17347,7 +17347,7 @@
         <v>189</v>
       </c>
       <c r="B191">
-        <v>7151179</v>
+        <v>7151159</v>
       </c>
       <c r="C191" t="s">
         <v>27</v>
@@ -17356,76 +17356,76 @@
         <v>45171.45833333334</v>
       </c>
       <c r="E191" t="s">
-        <v>58</v>
+        <v>138</v>
       </c>
       <c r="F191" t="s">
-        <v>30</v>
+        <v>102</v>
       </c>
       <c r="G191">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H191">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I191" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="J191">
-        <v>2.75</v>
+        <v>9</v>
       </c>
       <c r="K191">
-        <v>3.6</v>
+        <v>7</v>
       </c>
       <c r="L191">
-        <v>2.1</v>
+        <v>1.166</v>
       </c>
       <c r="M191">
-        <v>2.625</v>
+        <v>9</v>
       </c>
       <c r="N191">
-        <v>3.6</v>
+        <v>7</v>
       </c>
       <c r="O191">
-        <v>2.2</v>
+        <v>1.166</v>
       </c>
       <c r="P191">
-        <v>0.25</v>
+        <v>2</v>
       </c>
       <c r="Q191">
-        <v>1.8</v>
+        <v>2.05</v>
       </c>
       <c r="R191">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="S191">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="T191">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="U191">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V191">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="W191">
         <v>-1</v>
       </c>
       <c r="X191">
-        <v>-1</v>
+        <v>0.1659999999999999</v>
       </c>
       <c r="Y191">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="Z191">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AA191">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AB191">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="192" spans="1:28">
@@ -17605,7 +17605,7 @@
         <v>192</v>
       </c>
       <c r="B194">
-        <v>7151159</v>
+        <v>7151179</v>
       </c>
       <c r="C194" t="s">
         <v>27</v>
@@ -17614,76 +17614,76 @@
         <v>45171.45833333334</v>
       </c>
       <c r="E194" t="s">
-        <v>138</v>
+        <v>58</v>
       </c>
       <c r="F194" t="s">
-        <v>102</v>
+        <v>30</v>
       </c>
       <c r="G194">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H194">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I194" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="J194">
-        <v>9</v>
+        <v>2.75</v>
       </c>
       <c r="K194">
-        <v>7</v>
+        <v>3.6</v>
       </c>
       <c r="L194">
-        <v>1.166</v>
+        <v>2.1</v>
       </c>
       <c r="M194">
-        <v>9</v>
+        <v>2.625</v>
       </c>
       <c r="N194">
-        <v>7</v>
+        <v>3.6</v>
       </c>
       <c r="O194">
-        <v>1.166</v>
+        <v>2.2</v>
       </c>
       <c r="P194">
-        <v>2</v>
+        <v>0.25</v>
       </c>
       <c r="Q194">
-        <v>2.05</v>
+        <v>1.8</v>
       </c>
       <c r="R194">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="S194">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="T194">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="U194">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V194">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="W194">
         <v>-1</v>
       </c>
       <c r="X194">
-        <v>0.1659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Y194">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Z194">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AA194">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AB194">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="195" spans="1:28">
@@ -18219,7 +18219,7 @@
         <v>87</v>
       </c>
       <c r="F201" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G201">
         <v>3</v>
@@ -18821,7 +18821,7 @@
         <v>68</v>
       </c>
       <c r="F208" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G208">
         <v>2</v>
@@ -18895,7 +18895,7 @@
         <v>207</v>
       </c>
       <c r="B209">
-        <v>7176437</v>
+        <v>7178228</v>
       </c>
       <c r="C209" t="s">
         <v>27</v>
@@ -18904,76 +18904,76 @@
         <v>45177.5625</v>
       </c>
       <c r="E209" t="s">
-        <v>70</v>
+        <v>141</v>
       </c>
       <c r="F209" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="G209">
+        <v>2</v>
+      </c>
+      <c r="H209">
         <v>0</v>
       </c>
-      <c r="H209">
-        <v>3</v>
-      </c>
       <c r="I209" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="J209">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="K209">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="L209">
-        <v>2.6</v>
+        <v>2.4</v>
       </c>
       <c r="M209">
-        <v>2.7</v>
+        <v>2.25</v>
       </c>
       <c r="N209">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="O209">
-        <v>2.15</v>
+        <v>2.45</v>
       </c>
       <c r="P209">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="Q209">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="R209">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S209">
         <v>3.25</v>
       </c>
       <c r="T209">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="U209">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V209">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="W209">
         <v>-1</v>
       </c>
       <c r="X209">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="Y209">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Z209">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA209">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB209">
-        <v>0.4</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="210" spans="1:28">
@@ -18981,7 +18981,7 @@
         <v>208</v>
       </c>
       <c r="B210">
-        <v>7178228</v>
+        <v>7176437</v>
       </c>
       <c r="C210" t="s">
         <v>27</v>
@@ -18990,76 +18990,76 @@
         <v>45177.5625</v>
       </c>
       <c r="E210" t="s">
-        <v>141</v>
+        <v>70</v>
       </c>
       <c r="F210" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="G210">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H210">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I210" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="J210">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="K210">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="L210">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
       <c r="M210">
-        <v>2.25</v>
+        <v>2.7</v>
       </c>
       <c r="N210">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="O210">
-        <v>2.45</v>
+        <v>2.15</v>
       </c>
       <c r="P210">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="Q210">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="R210">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S210">
         <v>3.25</v>
       </c>
       <c r="T210">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="U210">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V210">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="W210">
         <v>-1</v>
       </c>
       <c r="X210">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="Y210">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="Z210">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA210">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB210">
-        <v>0.95</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="211" spans="1:28">
@@ -19325,7 +19325,7 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>7176692</v>
+        <v>7176416</v>
       </c>
       <c r="C214" t="s">
         <v>27</v>
@@ -19334,49 +19334,49 @@
         <v>45177.58333333334</v>
       </c>
       <c r="E214" t="s">
-        <v>80</v>
+        <v>142</v>
       </c>
       <c r="F214" t="s">
-        <v>89</v>
+        <v>44</v>
       </c>
       <c r="G214">
+        <v>3</v>
+      </c>
+      <c r="H214">
+        <v>3</v>
+      </c>
+      <c r="I214" t="s">
+        <v>206</v>
+      </c>
+      <c r="J214">
+        <v>2.5</v>
+      </c>
+      <c r="K214">
+        <v>3.4</v>
+      </c>
+      <c r="L214">
+        <v>2.375</v>
+      </c>
+      <c r="M214">
+        <v>2.2</v>
+      </c>
+      <c r="N214">
+        <v>3.4</v>
+      </c>
+      <c r="O214">
+        <v>2.75</v>
+      </c>
+      <c r="P214">
         <v>0</v>
       </c>
-      <c r="H214">
-        <v>2</v>
-      </c>
-      <c r="I214" t="s">
-        <v>207</v>
-      </c>
-      <c r="J214">
+      <c r="Q214">
+        <v>1.875</v>
+      </c>
+      <c r="R214">
+        <v>1.925</v>
+      </c>
+      <c r="S214">
         <v>3</v>
-      </c>
-      <c r="K214">
-        <v>3.6</v>
-      </c>
-      <c r="L214">
-        <v>2</v>
-      </c>
-      <c r="M214">
-        <v>2.7</v>
-      </c>
-      <c r="N214">
-        <v>3.5</v>
-      </c>
-      <c r="O214">
-        <v>2.2</v>
-      </c>
-      <c r="P214">
-        <v>0.25</v>
-      </c>
-      <c r="Q214">
-        <v>1.8</v>
-      </c>
-      <c r="R214">
-        <v>2</v>
-      </c>
-      <c r="S214">
-        <v>3.5</v>
       </c>
       <c r="T214">
         <v>1.975</v>
@@ -19388,22 +19388,22 @@
         <v>-1</v>
       </c>
       <c r="W214">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="X214">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="Y214">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Z214">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA214">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB214">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="215" spans="1:28">
@@ -19420,7 +19420,7 @@
         <v>45177.58333333334</v>
       </c>
       <c r="E215" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F215" t="s">
         <v>185</v>
@@ -19669,7 +19669,7 @@
         <v>216</v>
       </c>
       <c r="B218">
-        <v>7176417</v>
+        <v>7176692</v>
       </c>
       <c r="C218" t="s">
         <v>27</v>
@@ -19678,56 +19678,56 @@
         <v>45177.58333333334</v>
       </c>
       <c r="E218" t="s">
-        <v>63</v>
+        <v>80</v>
       </c>
       <c r="F218" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G218">
         <v>0</v>
       </c>
       <c r="H218">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I218" t="s">
         <v>207</v>
       </c>
       <c r="J218">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="K218">
         <v>3.6</v>
       </c>
       <c r="L218">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="M218">
-        <v>2.45</v>
+        <v>2.7</v>
       </c>
       <c r="N218">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="O218">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="P218">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="Q218">
+        <v>1.8</v>
+      </c>
+      <c r="R218">
+        <v>2</v>
+      </c>
+      <c r="S218">
+        <v>3.5</v>
+      </c>
+      <c r="T218">
         <v>1.975</v>
       </c>
-      <c r="R218">
+      <c r="U218">
         <v>1.825</v>
       </c>
-      <c r="S218">
-        <v>3.25</v>
-      </c>
-      <c r="T218">
-        <v>1.85</v>
-      </c>
-      <c r="U218">
-        <v>1.95</v>
-      </c>
       <c r="V218">
         <v>-1</v>
       </c>
@@ -19735,19 +19735,19 @@
         <v>-1</v>
       </c>
       <c r="X218">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="Y218">
         <v>-1</v>
       </c>
       <c r="Z218">
+        <v>1</v>
+      </c>
+      <c r="AA218">
+        <v>-1</v>
+      </c>
+      <c r="AB218">
         <v>0.825</v>
-      </c>
-      <c r="AA218">
-        <v>-0.5</v>
-      </c>
-      <c r="AB218">
-        <v>0.475</v>
       </c>
     </row>
     <row r="219" spans="1:28">
@@ -19755,7 +19755,7 @@
         <v>217</v>
       </c>
       <c r="B219">
-        <v>7176416</v>
+        <v>7176417</v>
       </c>
       <c r="C219" t="s">
         <v>27</v>
@@ -19764,76 +19764,76 @@
         <v>45177.58333333334</v>
       </c>
       <c r="E219" t="s">
-        <v>143</v>
+        <v>63</v>
       </c>
       <c r="F219" t="s">
-        <v>44</v>
+        <v>90</v>
       </c>
       <c r="G219">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H219">
         <v>3</v>
       </c>
       <c r="I219" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="J219">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="K219">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="L219">
-        <v>2.375</v>
+        <v>2.1</v>
       </c>
       <c r="M219">
-        <v>2.2</v>
+        <v>2.45</v>
       </c>
       <c r="N219">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="O219">
-        <v>2.75</v>
+        <v>2.3</v>
       </c>
       <c r="P219">
         <v>0</v>
       </c>
       <c r="Q219">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="R219">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="S219">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="T219">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="U219">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V219">
         <v>-1</v>
       </c>
       <c r="W219">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="X219">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Y219">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z219">
-        <v>0</v>
+        <v>0.825</v>
       </c>
       <c r="AA219">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AB219">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="220" spans="1:28">
@@ -21561,7 +21561,7 @@
         <v>238</v>
       </c>
       <c r="B240">
-        <v>7210267</v>
+        <v>7210265</v>
       </c>
       <c r="C240" t="s">
         <v>27</v>
@@ -21570,76 +21570,76 @@
         <v>45184.54166666666</v>
       </c>
       <c r="E240" t="s">
-        <v>136</v>
+        <v>71</v>
       </c>
       <c r="F240" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="G240">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H240">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I240" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="J240">
-        <v>2.1</v>
+        <v>2.6</v>
       </c>
       <c r="K240">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="L240">
-        <v>2.6</v>
+        <v>2.4</v>
       </c>
       <c r="M240">
-        <v>2.1</v>
+        <v>3.4</v>
       </c>
       <c r="N240">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="O240">
-        <v>2.6</v>
+        <v>1.85</v>
       </c>
       <c r="P240">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="Q240">
+        <v>1.85</v>
+      </c>
+      <c r="R240">
         <v>1.95</v>
-      </c>
-      <c r="R240">
-        <v>1.85</v>
       </c>
       <c r="S240">
         <v>3.25</v>
       </c>
       <c r="T240">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="U240">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V240">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="W240">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="X240">
         <v>-1</v>
       </c>
       <c r="Y240">
-        <v>0.95</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z240">
         <v>-1</v>
       </c>
       <c r="AA240">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB240">
-        <v>0.4375</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="241" spans="1:28">
@@ -21647,7 +21647,7 @@
         <v>239</v>
       </c>
       <c r="B241">
-        <v>7210265</v>
+        <v>7210267</v>
       </c>
       <c r="C241" t="s">
         <v>27</v>
@@ -21656,76 +21656,76 @@
         <v>45184.54166666666</v>
       </c>
       <c r="E241" t="s">
-        <v>71</v>
+        <v>136</v>
       </c>
       <c r="F241" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="G241">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H241">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I241" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="J241">
+        <v>2.1</v>
+      </c>
+      <c r="K241">
+        <v>4</v>
+      </c>
+      <c r="L241">
         <v>2.6</v>
       </c>
-      <c r="K241">
-        <v>3.25</v>
-      </c>
-      <c r="L241">
-        <v>2.4</v>
-      </c>
       <c r="M241">
-        <v>3.4</v>
+        <v>2.1</v>
       </c>
       <c r="N241">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="O241">
+        <v>2.6</v>
+      </c>
+      <c r="P241">
+        <v>-0.25</v>
+      </c>
+      <c r="Q241">
+        <v>1.95</v>
+      </c>
+      <c r="R241">
         <v>1.85</v>
-      </c>
-      <c r="P241">
-        <v>0.5</v>
-      </c>
-      <c r="Q241">
-        <v>1.85</v>
-      </c>
-      <c r="R241">
-        <v>1.95</v>
       </c>
       <c r="S241">
         <v>3.25</v>
       </c>
       <c r="T241">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="U241">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V241">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="W241">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="X241">
         <v>-1</v>
       </c>
       <c r="Y241">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="Z241">
         <v>-1</v>
       </c>
       <c r="AA241">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB241">
-        <v>0.825</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="242" spans="1:28">
@@ -22516,7 +22516,7 @@
         <v>45185.375</v>
       </c>
       <c r="E251" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F251" t="s">
         <v>43</v>
@@ -23551,7 +23551,7 @@
         <v>78</v>
       </c>
       <c r="F263" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G263">
         <v>5</v>
@@ -24571,7 +24571,7 @@
         <v>273</v>
       </c>
       <c r="B275">
-        <v>7239918</v>
+        <v>7239963</v>
       </c>
       <c r="C275" t="s">
         <v>27</v>
@@ -24580,76 +24580,76 @@
         <v>45191.58333333334</v>
       </c>
       <c r="E275" t="s">
-        <v>121</v>
+        <v>80</v>
       </c>
       <c r="F275" t="s">
-        <v>89</v>
+        <v>61</v>
       </c>
       <c r="G275">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H275">
+        <v>4</v>
+      </c>
+      <c r="I275" t="s">
+        <v>207</v>
+      </c>
+      <c r="J275">
+        <v>3.25</v>
+      </c>
+      <c r="K275">
+        <v>4</v>
+      </c>
+      <c r="L275">
+        <v>1.8</v>
+      </c>
+      <c r="M275">
+        <v>2.2</v>
+      </c>
+      <c r="N275">
+        <v>3.8</v>
+      </c>
+      <c r="O275">
+        <v>2.45</v>
+      </c>
+      <c r="P275">
+        <v>0</v>
+      </c>
+      <c r="Q275">
+        <v>1.8</v>
+      </c>
+      <c r="R275">
+        <v>2</v>
+      </c>
+      <c r="S275">
+        <v>3.25</v>
+      </c>
+      <c r="T275">
+        <v>1.775</v>
+      </c>
+      <c r="U275">
+        <v>1.925</v>
+      </c>
+      <c r="V275">
+        <v>-1</v>
+      </c>
+      <c r="W275">
+        <v>-1</v>
+      </c>
+      <c r="X275">
+        <v>1.45</v>
+      </c>
+      <c r="Y275">
+        <v>-1</v>
+      </c>
+      <c r="Z275">
         <v>1</v>
       </c>
-      <c r="I275" t="s">
-        <v>205</v>
-      </c>
-      <c r="J275">
-        <v>2.05</v>
-      </c>
-      <c r="K275">
-        <v>3.75</v>
-      </c>
-      <c r="L275">
-        <v>2.8</v>
-      </c>
-      <c r="M275">
-        <v>1.666</v>
-      </c>
-      <c r="N275">
-        <v>4</v>
-      </c>
-      <c r="O275">
-        <v>3.6</v>
-      </c>
-      <c r="P275">
-        <v>-0.75</v>
-      </c>
-      <c r="Q275">
-        <v>1.95</v>
-      </c>
-      <c r="R275">
-        <v>1.85</v>
-      </c>
-      <c r="S275">
-        <v>3.75</v>
-      </c>
-      <c r="T275">
-        <v>1.95</v>
-      </c>
-      <c r="U275">
-        <v>1.85</v>
-      </c>
-      <c r="V275">
-        <v>0.6659999999999999</v>
-      </c>
-      <c r="W275">
-        <v>-1</v>
-      </c>
-      <c r="X275">
-        <v>-1</v>
-      </c>
-      <c r="Y275">
-        <v>0.475</v>
-      </c>
-      <c r="Z275">
-        <v>-0.5</v>
-      </c>
       <c r="AA275">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB275">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="276" spans="1:28">
@@ -24657,7 +24657,7 @@
         <v>274</v>
       </c>
       <c r="B276">
-        <v>7239904</v>
+        <v>7239918</v>
       </c>
       <c r="C276" t="s">
         <v>27</v>
@@ -24666,76 +24666,76 @@
         <v>45191.58333333334</v>
       </c>
       <c r="E276" t="s">
-        <v>32</v>
+        <v>121</v>
       </c>
       <c r="F276" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="G276">
         <v>2</v>
       </c>
       <c r="H276">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I276" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="J276">
-        <v>2.15</v>
+        <v>2.05</v>
       </c>
       <c r="K276">
+        <v>3.75</v>
+      </c>
+      <c r="L276">
+        <v>2.8</v>
+      </c>
+      <c r="M276">
+        <v>1.666</v>
+      </c>
+      <c r="N276">
         <v>4</v>
       </c>
-      <c r="L276">
-        <v>2.5</v>
-      </c>
-      <c r="M276">
-        <v>1.909</v>
-      </c>
-      <c r="N276">
-        <v>4.2</v>
-      </c>
       <c r="O276">
-        <v>2.875</v>
+        <v>3.6</v>
       </c>
       <c r="P276">
+        <v>-0.75</v>
+      </c>
+      <c r="Q276">
+        <v>1.95</v>
+      </c>
+      <c r="R276">
+        <v>1.85</v>
+      </c>
+      <c r="S276">
+        <v>3.75</v>
+      </c>
+      <c r="T276">
+        <v>1.95</v>
+      </c>
+      <c r="U276">
+        <v>1.85</v>
+      </c>
+      <c r="V276">
+        <v>0.6659999999999999</v>
+      </c>
+      <c r="W276">
+        <v>-1</v>
+      </c>
+      <c r="X276">
+        <v>-1</v>
+      </c>
+      <c r="Y276">
+        <v>0.475</v>
+      </c>
+      <c r="Z276">
         <v>-0.5</v>
       </c>
-      <c r="Q276">
-        <v>1.975</v>
-      </c>
-      <c r="R276">
-        <v>1.825</v>
-      </c>
-      <c r="S276">
-        <v>3</v>
-      </c>
-      <c r="T276">
-        <v>2</v>
-      </c>
-      <c r="U276">
-        <v>1.8</v>
-      </c>
-      <c r="V276">
-        <v>-1</v>
-      </c>
-      <c r="W276">
-        <v>3.2</v>
-      </c>
-      <c r="X276">
-        <v>-1</v>
-      </c>
-      <c r="Y276">
-        <v>-1</v>
-      </c>
-      <c r="Z276">
-        <v>0.825</v>
-      </c>
       <c r="AA276">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB276">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="277" spans="1:28">
@@ -24743,7 +24743,7 @@
         <v>275</v>
       </c>
       <c r="B277">
-        <v>7240039</v>
+        <v>7239904</v>
       </c>
       <c r="C277" t="s">
         <v>27</v>
@@ -24752,76 +24752,76 @@
         <v>45191.58333333334</v>
       </c>
       <c r="E277" t="s">
-        <v>119</v>
+        <v>32</v>
       </c>
       <c r="F277" t="s">
-        <v>166</v>
+        <v>100</v>
       </c>
       <c r="G277">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H277">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I277" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="J277">
-        <v>1.55</v>
+        <v>2.15</v>
       </c>
       <c r="K277">
-        <v>4.25</v>
+        <v>4</v>
       </c>
       <c r="L277">
-        <v>4.25</v>
+        <v>2.5</v>
       </c>
       <c r="M277">
-        <v>1.55</v>
+        <v>1.909</v>
       </c>
       <c r="N277">
-        <v>4.333</v>
+        <v>4.2</v>
       </c>
       <c r="O277">
-        <v>4.333</v>
+        <v>2.875</v>
       </c>
       <c r="P277">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="Q277">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="R277">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S277">
         <v>3</v>
       </c>
       <c r="T277">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U277">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V277">
-        <v>0.55</v>
+        <v>-1</v>
       </c>
       <c r="W277">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="X277">
         <v>-1</v>
       </c>
       <c r="Y277">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z277">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA277">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB277">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="278" spans="1:28">
@@ -24829,7 +24829,7 @@
         <v>276</v>
       </c>
       <c r="B278">
-        <v>7242154</v>
+        <v>7240039</v>
       </c>
       <c r="C278" t="s">
         <v>27</v>
@@ -24838,58 +24838,58 @@
         <v>45191.58333333334</v>
       </c>
       <c r="E278" t="s">
-        <v>95</v>
+        <v>119</v>
       </c>
       <c r="F278" t="s">
-        <v>197</v>
+        <v>166</v>
       </c>
       <c r="G278">
         <v>3</v>
       </c>
       <c r="H278">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I278" t="s">
         <v>205</v>
       </c>
       <c r="J278">
-        <v>1.666</v>
+        <v>1.55</v>
       </c>
       <c r="K278">
-        <v>4</v>
+        <v>4.25</v>
       </c>
       <c r="L278">
-        <v>3.75</v>
+        <v>4.25</v>
       </c>
       <c r="M278">
-        <v>1.615</v>
+        <v>1.55</v>
       </c>
       <c r="N278">
-        <v>4</v>
+        <v>4.333</v>
       </c>
       <c r="O278">
-        <v>4</v>
+        <v>4.333</v>
       </c>
       <c r="P278">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="Q278">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="R278">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S278">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="T278">
-        <v>1.925</v>
+        <v>1.75</v>
       </c>
       <c r="U278">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="V278">
-        <v>0.615</v>
+        <v>0.55</v>
       </c>
       <c r="W278">
         <v>-1</v>
@@ -24898,16 +24898,16 @@
         <v>-1</v>
       </c>
       <c r="Y278">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="Z278">
         <v>-1</v>
       </c>
       <c r="AA278">
-        <v>0.925</v>
+        <v>0</v>
       </c>
       <c r="AB278">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="279" spans="1:28">
@@ -24915,7 +24915,7 @@
         <v>277</v>
       </c>
       <c r="B279">
-        <v>7239963</v>
+        <v>7242154</v>
       </c>
       <c r="C279" t="s">
         <v>27</v>
@@ -24924,40 +24924,40 @@
         <v>45191.58333333334</v>
       </c>
       <c r="E279" t="s">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="F279" t="s">
-        <v>61</v>
+        <v>197</v>
       </c>
       <c r="G279">
         <v>3</v>
       </c>
       <c r="H279">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I279" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="J279">
-        <v>3.25</v>
+        <v>1.666</v>
       </c>
       <c r="K279">
         <v>4</v>
       </c>
       <c r="L279">
-        <v>1.8</v>
+        <v>3.75</v>
       </c>
       <c r="M279">
-        <v>2.2</v>
+        <v>1.615</v>
       </c>
       <c r="N279">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="O279">
-        <v>2.45</v>
+        <v>4</v>
       </c>
       <c r="P279">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="Q279">
         <v>1.8</v>
@@ -24966,31 +24966,31 @@
         <v>2</v>
       </c>
       <c r="S279">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="T279">
+        <v>1.925</v>
+      </c>
+      <c r="U279">
         <v>1.775</v>
       </c>
-      <c r="U279">
-        <v>1.925</v>
-      </c>
       <c r="V279">
-        <v>-1</v>
+        <v>0.615</v>
       </c>
       <c r="W279">
         <v>-1</v>
       </c>
       <c r="X279">
-        <v>1.45</v>
+        <v>-1</v>
       </c>
       <c r="Y279">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Z279">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA279">
-        <v>0.7749999999999999</v>
+        <v>0.925</v>
       </c>
       <c r="AB279">
         <v>-1</v>
@@ -26291,7 +26291,7 @@
         <v>293</v>
       </c>
       <c r="B295">
-        <v>7249519</v>
+        <v>7249518</v>
       </c>
       <c r="C295" t="s">
         <v>27</v>
@@ -26300,46 +26300,46 @@
         <v>45193.25</v>
       </c>
       <c r="E295" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="F295" t="s">
-        <v>158</v>
+        <v>106</v>
       </c>
       <c r="G295">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H295">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I295" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="J295">
-        <v>2.4</v>
+        <v>1.571</v>
       </c>
       <c r="K295">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="L295">
-        <v>2.4</v>
+        <v>4.333</v>
       </c>
       <c r="M295">
-        <v>2.375</v>
+        <v>1.571</v>
       </c>
       <c r="N295">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="O295">
-        <v>2.4</v>
+        <v>4.333</v>
       </c>
       <c r="P295">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Q295">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="R295">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="S295">
         <v>3.25</v>
@@ -26354,22 +26354,22 @@
         <v>-1</v>
       </c>
       <c r="W295">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="X295">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Y295">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z295">
-        <v>0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA295">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB295">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="296" spans="1:28">
@@ -26377,7 +26377,7 @@
         <v>294</v>
       </c>
       <c r="B296">
-        <v>7249518</v>
+        <v>7249519</v>
       </c>
       <c r="C296" t="s">
         <v>27</v>
@@ -26386,46 +26386,46 @@
         <v>45193.25</v>
       </c>
       <c r="E296" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="F296" t="s">
-        <v>106</v>
+        <v>158</v>
       </c>
       <c r="G296">
+        <v>3</v>
+      </c>
+      <c r="H296">
+        <v>3</v>
+      </c>
+      <c r="I296" t="s">
+        <v>206</v>
+      </c>
+      <c r="J296">
+        <v>2.4</v>
+      </c>
+      <c r="K296">
+        <v>3.6</v>
+      </c>
+      <c r="L296">
+        <v>2.4</v>
+      </c>
+      <c r="M296">
+        <v>2.375</v>
+      </c>
+      <c r="N296">
+        <v>3.75</v>
+      </c>
+      <c r="O296">
+        <v>2.4</v>
+      </c>
+      <c r="P296">
         <v>0</v>
       </c>
-      <c r="H296">
-        <v>1</v>
-      </c>
-      <c r="I296" t="s">
-        <v>207</v>
-      </c>
-      <c r="J296">
-        <v>1.571</v>
-      </c>
-      <c r="K296">
-        <v>4</v>
-      </c>
-      <c r="L296">
-        <v>4.333</v>
-      </c>
-      <c r="M296">
-        <v>1.571</v>
-      </c>
-      <c r="N296">
-        <v>4</v>
-      </c>
-      <c r="O296">
-        <v>4.333</v>
-      </c>
-      <c r="P296">
-        <v>-1</v>
-      </c>
       <c r="Q296">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="R296">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="S296">
         <v>3.25</v>
@@ -26440,22 +26440,22 @@
         <v>-1</v>
       </c>
       <c r="W296">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="X296">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Y296">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Z296">
+        <v>0</v>
+      </c>
+      <c r="AA296">
         <v>0.8500000000000001</v>
       </c>
-      <c r="AA296">
-        <v>-1</v>
-      </c>
       <c r="AB296">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="297" spans="1:28">
@@ -26463,7 +26463,7 @@
         <v>295</v>
       </c>
       <c r="B297">
-        <v>7270257</v>
+        <v>7270092</v>
       </c>
       <c r="C297" t="s">
         <v>27</v>
@@ -26472,58 +26472,58 @@
         <v>45198.54166666666</v>
       </c>
       <c r="E297" t="s">
-        <v>136</v>
+        <v>86</v>
       </c>
       <c r="F297" t="s">
-        <v>43</v>
+        <v>111</v>
       </c>
       <c r="G297">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H297">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I297" t="s">
         <v>205</v>
       </c>
       <c r="J297">
-        <v>5</v>
+        <v>1.909</v>
       </c>
       <c r="K297">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="L297">
-        <v>1.444</v>
+        <v>3.1</v>
       </c>
       <c r="M297">
-        <v>6</v>
+        <v>1.7</v>
       </c>
       <c r="N297">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="O297">
-        <v>1.4</v>
+        <v>3.6</v>
       </c>
       <c r="P297">
-        <v>1.5</v>
+        <v>-0.75</v>
       </c>
       <c r="Q297">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="R297">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S297">
         <v>3.5</v>
       </c>
       <c r="T297">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="U297">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V297">
-        <v>5</v>
+        <v>0.7</v>
       </c>
       <c r="W297">
         <v>-1</v>
@@ -26532,16 +26532,16 @@
         <v>-1</v>
       </c>
       <c r="Y297">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="Z297">
         <v>-1</v>
       </c>
       <c r="AA297">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB297">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="298" spans="1:28">
@@ -26549,7 +26549,7 @@
         <v>296</v>
       </c>
       <c r="B298">
-        <v>7270092</v>
+        <v>7270257</v>
       </c>
       <c r="C298" t="s">
         <v>27</v>
@@ -26558,58 +26558,58 @@
         <v>45198.54166666666</v>
       </c>
       <c r="E298" t="s">
-        <v>86</v>
+        <v>136</v>
       </c>
       <c r="F298" t="s">
-        <v>111</v>
+        <v>43</v>
       </c>
       <c r="G298">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H298">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I298" t="s">
         <v>205</v>
       </c>
       <c r="J298">
-        <v>1.909</v>
+        <v>5</v>
       </c>
       <c r="K298">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="L298">
-        <v>3.1</v>
+        <v>1.444</v>
       </c>
       <c r="M298">
-        <v>1.7</v>
+        <v>6</v>
       </c>
       <c r="N298">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="O298">
-        <v>3.6</v>
+        <v>1.4</v>
       </c>
       <c r="P298">
-        <v>-0.75</v>
+        <v>1.5</v>
       </c>
       <c r="Q298">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="R298">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="S298">
         <v>3.5</v>
       </c>
       <c r="T298">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="U298">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V298">
-        <v>0.7</v>
+        <v>5</v>
       </c>
       <c r="W298">
         <v>-1</v>
@@ -26618,16 +26618,16 @@
         <v>-1</v>
       </c>
       <c r="Y298">
-        <v>0.9750000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z298">
         <v>-1</v>
       </c>
       <c r="AA298">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB298">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="299" spans="1:28">
@@ -27590,7 +27590,7 @@
         <v>45199.375</v>
       </c>
       <c r="E310" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F310" t="s">
         <v>78</v>
@@ -28613,7 +28613,7 @@
         <v>320</v>
       </c>
       <c r="B322">
-        <v>7298692</v>
+        <v>7298693</v>
       </c>
       <c r="C322" t="s">
         <v>27</v>
@@ -28622,49 +28622,49 @@
         <v>45205.58333333334</v>
       </c>
       <c r="E322" t="s">
-        <v>32</v>
+        <v>95</v>
       </c>
       <c r="F322" t="s">
-        <v>128</v>
+        <v>89</v>
       </c>
       <c r="G322">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H322">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I322" t="s">
         <v>205</v>
       </c>
       <c r="J322">
-        <v>1.8</v>
+        <v>2.2</v>
       </c>
       <c r="K322">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="L322">
+        <v>2.7</v>
+      </c>
+      <c r="M322">
+        <v>2.1</v>
+      </c>
+      <c r="N322">
+        <v>3.75</v>
+      </c>
+      <c r="O322">
+        <v>2.7</v>
+      </c>
+      <c r="P322">
+        <v>-0.25</v>
+      </c>
+      <c r="Q322">
+        <v>1.95</v>
+      </c>
+      <c r="R322">
+        <v>1.85</v>
+      </c>
+      <c r="S322">
         <v>3.25</v>
-      </c>
-      <c r="M322">
-        <v>1.4</v>
-      </c>
-      <c r="N322">
-        <v>4.75</v>
-      </c>
-      <c r="O322">
-        <v>5</v>
-      </c>
-      <c r="P322">
-        <v>-1.25</v>
-      </c>
-      <c r="Q322">
-        <v>1.85</v>
-      </c>
-      <c r="R322">
-        <v>1.95</v>
-      </c>
-      <c r="S322">
-        <v>3</v>
       </c>
       <c r="T322">
         <v>1.825</v>
@@ -28673,7 +28673,7 @@
         <v>1.975</v>
       </c>
       <c r="V322">
-        <v>0.3999999999999999</v>
+        <v>1.1</v>
       </c>
       <c r="W322">
         <v>-1</v>
@@ -28682,7 +28682,7 @@
         <v>-1</v>
       </c>
       <c r="Y322">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="Z322">
         <v>-1</v>
@@ -28699,7 +28699,7 @@
         <v>321</v>
       </c>
       <c r="B323">
-        <v>7298693</v>
+        <v>7298692</v>
       </c>
       <c r="C323" t="s">
         <v>27</v>
@@ -28708,49 +28708,49 @@
         <v>45205.58333333334</v>
       </c>
       <c r="E323" t="s">
-        <v>95</v>
+        <v>32</v>
       </c>
       <c r="F323" t="s">
-        <v>89</v>
+        <v>128</v>
       </c>
       <c r="G323">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H323">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I323" t="s">
         <v>205</v>
       </c>
       <c r="J323">
-        <v>2.2</v>
+        <v>1.8</v>
       </c>
       <c r="K323">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="L323">
-        <v>2.7</v>
+        <v>3.25</v>
       </c>
       <c r="M323">
-        <v>2.1</v>
+        <v>1.4</v>
       </c>
       <c r="N323">
-        <v>3.75</v>
+        <v>4.75</v>
       </c>
       <c r="O323">
-        <v>2.7</v>
+        <v>5</v>
       </c>
       <c r="P323">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="Q323">
+        <v>1.85</v>
+      </c>
+      <c r="R323">
         <v>1.95</v>
       </c>
-      <c r="R323">
-        <v>1.85</v>
-      </c>
       <c r="S323">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="T323">
         <v>1.825</v>
@@ -28759,7 +28759,7 @@
         <v>1.975</v>
       </c>
       <c r="V323">
-        <v>1.1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="W323">
         <v>-1</v>
@@ -28768,7 +28768,7 @@
         <v>-1</v>
       </c>
       <c r="Y323">
-        <v>0.95</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z323">
         <v>-1</v>
@@ -30259,7 +30259,7 @@
         <v>60</v>
       </c>
       <c r="F341" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="G341">
         <v>0</v>
@@ -31460,10 +31460,10 @@
         <v>45213.375</v>
       </c>
       <c r="E355" t="s">
+        <v>64</v>
+      </c>
+      <c r="F355" t="s">
         <v>65</v>
-      </c>
-      <c r="F355" t="s">
-        <v>64</v>
       </c>
       <c r="G355">
         <v>1</v>
@@ -32311,7 +32311,7 @@
         <v>363</v>
       </c>
       <c r="B365">
-        <v>7361346</v>
+        <v>7361345</v>
       </c>
       <c r="C365" t="s">
         <v>27</v>
@@ -32320,76 +32320,76 @@
         <v>45219.58333333334</v>
       </c>
       <c r="E365" t="s">
-        <v>122</v>
+        <v>32</v>
       </c>
       <c r="F365" t="s">
-        <v>108</v>
+        <v>152</v>
       </c>
       <c r="G365">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H365">
         <v>1</v>
       </c>
       <c r="I365" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="J365">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="K365">
         <v>3.6</v>
       </c>
       <c r="L365">
-        <v>2.6</v>
+        <v>3</v>
       </c>
       <c r="M365">
-        <v>2.2</v>
+        <v>1.615</v>
       </c>
       <c r="N365">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="O365">
-        <v>2.625</v>
+        <v>4.2</v>
       </c>
       <c r="P365">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="Q365">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="R365">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S365">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="T365">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="U365">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V365">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="W365">
         <v>-1</v>
       </c>
       <c r="X365">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y365">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Z365">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA365">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AB365">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="366" spans="1:28">
@@ -32397,7 +32397,7 @@
         <v>364</v>
       </c>
       <c r="B366">
-        <v>7361345</v>
+        <v>7361346</v>
       </c>
       <c r="C366" t="s">
         <v>27</v>
@@ -32406,76 +32406,76 @@
         <v>45219.58333333334</v>
       </c>
       <c r="E366" t="s">
-        <v>32</v>
+        <v>122</v>
       </c>
       <c r="F366" t="s">
-        <v>152</v>
+        <v>108</v>
       </c>
       <c r="G366">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H366">
         <v>1</v>
       </c>
       <c r="I366" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="J366">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="K366">
         <v>3.6</v>
       </c>
       <c r="L366">
+        <v>2.6</v>
+      </c>
+      <c r="M366">
+        <v>2.2</v>
+      </c>
+      <c r="N366">
+        <v>3.6</v>
+      </c>
+      <c r="O366">
+        <v>2.625</v>
+      </c>
+      <c r="P366">
+        <v>-0.25</v>
+      </c>
+      <c r="Q366">
+        <v>2</v>
+      </c>
+      <c r="R366">
+        <v>1.8</v>
+      </c>
+      <c r="S366">
         <v>3</v>
       </c>
-      <c r="M366">
-        <v>1.615</v>
-      </c>
-      <c r="N366">
-        <v>3.8</v>
-      </c>
-      <c r="O366">
-        <v>4.2</v>
-      </c>
-      <c r="P366">
-        <v>-0.75</v>
-      </c>
-      <c r="Q366">
-        <v>1.825</v>
-      </c>
-      <c r="R366">
-        <v>1.975</v>
-      </c>
-      <c r="S366">
-        <v>3.25</v>
-      </c>
       <c r="T366">
-        <v>1.825</v>
+        <v>1.75</v>
       </c>
       <c r="U366">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V366">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="W366">
         <v>-1</v>
       </c>
       <c r="X366">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y366">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z366">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA366">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AB366">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="367" spans="1:28">
@@ -33094,7 +33094,7 @@
         <v>45220.375</v>
       </c>
       <c r="E374" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F374" t="s">
         <v>76</v>
@@ -33610,7 +33610,7 @@
         <v>45220.54166666666</v>
       </c>
       <c r="E380" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F380" t="s">
         <v>63</v>
@@ -34473,7 +34473,7 @@
         <v>136</v>
       </c>
       <c r="F390" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G390">
         <v>4</v>
@@ -36107,7 +36107,7 @@
         <v>76</v>
       </c>
       <c r="F409" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G409">
         <v>0</v>
@@ -36276,7 +36276,7 @@
         <v>45231.41666666666</v>
       </c>
       <c r="E411" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F411" t="s">
         <v>77</v>
@@ -36792,7 +36792,7 @@
         <v>45234.41666666666</v>
       </c>
       <c r="E417" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F417" t="s">
         <v>45</v>
@@ -37394,7 +37394,7 @@
         <v>45234.54166666666</v>
       </c>
       <c r="E424" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F424" t="s">
         <v>79</v>
@@ -37913,7 +37913,7 @@
         <v>136</v>
       </c>
       <c r="F430" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G430">
         <v>3</v>
@@ -38684,7 +38684,7 @@
         <v>45240.625</v>
       </c>
       <c r="E439" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F439" t="s">
         <v>87</v>
@@ -39633,7 +39633,7 @@
         <v>55</v>
       </c>
       <c r="F450" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G450">
         <v>1</v>
@@ -40490,7 +40490,7 @@
         <v>45248.41666666666</v>
       </c>
       <c r="E460" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F460" t="s">
         <v>134</v>
@@ -40751,7 +40751,7 @@
         <v>45</v>
       </c>
       <c r="F463" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G463">
         <v>3</v>
@@ -40923,7 +40923,7 @@
         <v>77</v>
       </c>
       <c r="F465" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G465">
         <v>4</v>
@@ -41522,7 +41522,7 @@
         <v>45268.29166666666</v>
       </c>
       <c r="E472" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F472" t="s">
         <v>68</v>
@@ -42299,7 +42299,7 @@
         <v>70</v>
       </c>
       <c r="F481" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G481">
         <v>1</v>
@@ -43159,7 +43159,7 @@
         <v>55</v>
       </c>
       <c r="F491" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G491">
         <v>3</v>
@@ -48479,7 +48479,7 @@
         <v>551</v>
       </c>
       <c r="B553">
-        <v>8051424</v>
+        <v>8051468</v>
       </c>
       <c r="C553" t="s">
         <v>27</v>
@@ -48488,58 +48488,58 @@
         <v>45387.58333333334</v>
       </c>
       <c r="E553" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="F553" t="s">
-        <v>74</v>
+        <v>133</v>
       </c>
       <c r="G553">
+        <v>2</v>
+      </c>
+      <c r="H553">
         <v>1</v>
-      </c>
-      <c r="H553">
-        <v>0</v>
       </c>
       <c r="I553" t="s">
         <v>205</v>
       </c>
       <c r="J553">
-        <v>2.7</v>
+        <v>2.55</v>
       </c>
       <c r="K553">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="L553">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="M553">
-        <v>2.75</v>
+        <v>2.55</v>
       </c>
       <c r="N553">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="O553">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="P553">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="Q553">
+        <v>2</v>
+      </c>
+      <c r="R553">
+        <v>1.8</v>
+      </c>
+      <c r="S553">
+        <v>3</v>
+      </c>
+      <c r="T553">
         <v>1.875</v>
       </c>
-      <c r="R553">
+      <c r="U553">
         <v>1.925</v>
       </c>
-      <c r="S553">
-        <v>3.25</v>
-      </c>
-      <c r="T553">
-        <v>1.825</v>
-      </c>
-      <c r="U553">
-        <v>1.975</v>
-      </c>
       <c r="V553">
-        <v>1.75</v>
+        <v>1.55</v>
       </c>
       <c r="W553">
         <v>-1</v>
@@ -48548,16 +48548,16 @@
         <v>-1</v>
       </c>
       <c r="Y553">
-        <v>0.875</v>
+        <v>1</v>
       </c>
       <c r="Z553">
         <v>-1</v>
       </c>
       <c r="AA553">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AB553">
-        <v>0.9750000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="554" spans="1:28">
@@ -48737,7 +48737,7 @@
         <v>554</v>
       </c>
       <c r="B556">
-        <v>8051468</v>
+        <v>8051424</v>
       </c>
       <c r="C556" t="s">
         <v>27</v>
@@ -48746,58 +48746,58 @@
         <v>45387.58333333334</v>
       </c>
       <c r="E556" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="F556" t="s">
-        <v>133</v>
+        <v>74</v>
       </c>
       <c r="G556">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H556">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I556" t="s">
         <v>205</v>
       </c>
       <c r="J556">
-        <v>2.55</v>
+        <v>2.7</v>
       </c>
       <c r="K556">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="L556">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="M556">
-        <v>2.55</v>
+        <v>2.75</v>
       </c>
       <c r="N556">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="O556">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="P556">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="Q556">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="R556">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S556">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="T556">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="U556">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V556">
-        <v>1.55</v>
+        <v>1.75</v>
       </c>
       <c r="W556">
         <v>-1</v>
@@ -48806,16 +48806,16 @@
         <v>-1</v>
       </c>
       <c r="Y556">
-        <v>1</v>
+        <v>0.875</v>
       </c>
       <c r="Z556">
         <v>-1</v>
       </c>
       <c r="AA556">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB556">
-        <v>0</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="557" spans="1:28">
@@ -49081,7 +49081,7 @@
         <v>558</v>
       </c>
       <c r="B560">
-        <v>8056506</v>
+        <v>8056507</v>
       </c>
       <c r="C560" t="s">
         <v>27</v>
@@ -49090,76 +49090,76 @@
         <v>45388.375</v>
       </c>
       <c r="E560" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F560" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="G560">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H560">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I560" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="J560">
-        <v>3.9</v>
+        <v>1.111</v>
       </c>
       <c r="K560">
-        <v>4.2</v>
+        <v>8</v>
       </c>
       <c r="L560">
-        <v>1.615</v>
+        <v>11</v>
       </c>
       <c r="M560">
-        <v>4.75</v>
+        <v>1.142</v>
       </c>
       <c r="N560">
-        <v>4.333</v>
+        <v>7</v>
       </c>
       <c r="O560">
-        <v>1.5</v>
+        <v>15</v>
       </c>
       <c r="P560">
-        <v>1.25</v>
+        <v>-2.25</v>
       </c>
       <c r="Q560">
-        <v>1.75</v>
+        <v>1.875</v>
       </c>
       <c r="R560">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S560">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="T560">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="U560">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V560">
-        <v>-1</v>
+        <v>0.1419999999999999</v>
       </c>
       <c r="W560">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="X560">
         <v>-1</v>
       </c>
       <c r="Y560">
-        <v>0.75</v>
+        <v>0.875</v>
       </c>
       <c r="Z560">
         <v>-1</v>
       </c>
       <c r="AA560">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB560">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="561" spans="1:28">
@@ -49167,7 +49167,7 @@
         <v>559</v>
       </c>
       <c r="B561">
-        <v>8056507</v>
+        <v>8056506</v>
       </c>
       <c r="C561" t="s">
         <v>27</v>
@@ -49176,76 +49176,76 @@
         <v>45388.375</v>
       </c>
       <c r="E561" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="F561" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="G561">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H561">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I561" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="J561">
-        <v>1.111</v>
+        <v>3.9</v>
       </c>
       <c r="K561">
-        <v>8</v>
+        <v>4.2</v>
       </c>
       <c r="L561">
-        <v>11</v>
+        <v>1.615</v>
       </c>
       <c r="M561">
-        <v>1.142</v>
+        <v>4.75</v>
       </c>
       <c r="N561">
-        <v>7</v>
+        <v>4.333</v>
       </c>
       <c r="O561">
-        <v>15</v>
+        <v>1.5</v>
       </c>
       <c r="P561">
-        <v>-2.25</v>
+        <v>1.25</v>
       </c>
       <c r="Q561">
-        <v>1.875</v>
+        <v>1.75</v>
       </c>
       <c r="R561">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S561">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="T561">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="U561">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V561">
-        <v>0.1419999999999999</v>
+        <v>-1</v>
       </c>
       <c r="W561">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="X561">
         <v>-1</v>
       </c>
       <c r="Y561">
-        <v>0.875</v>
+        <v>0.75</v>
       </c>
       <c r="Z561">
         <v>-1</v>
       </c>
       <c r="AA561">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB561">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="562" spans="1:28">
@@ -49339,7 +49339,7 @@
         <v>561</v>
       </c>
       <c r="B563">
-        <v>8063298</v>
+        <v>8063297</v>
       </c>
       <c r="C563" t="s">
         <v>27</v>
@@ -49348,76 +49348,76 @@
         <v>45389.25</v>
       </c>
       <c r="E563" t="s">
-        <v>38</v>
+        <v>84</v>
       </c>
       <c r="F563" t="s">
-        <v>117</v>
+        <v>83</v>
       </c>
       <c r="G563">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H563">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I563" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="J563">
-        <v>1.533</v>
+        <v>2.375</v>
       </c>
       <c r="K563">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="L563">
-        <v>5</v>
+        <v>2.5</v>
       </c>
       <c r="M563">
-        <v>1.444</v>
+        <v>3.1</v>
       </c>
       <c r="N563">
-        <v>4.333</v>
+        <v>3.5</v>
       </c>
       <c r="O563">
-        <v>5.75</v>
+        <v>2.05</v>
       </c>
       <c r="P563">
-        <v>-1.25</v>
+        <v>0.25</v>
       </c>
       <c r="Q563">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="R563">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S563">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="T563">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="U563">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="V563">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="W563">
         <v>-1</v>
       </c>
       <c r="X563">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="Y563">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="Z563">
-        <v>0.425</v>
+        <v>0.8</v>
       </c>
       <c r="AA563">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AB563">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="564" spans="1:28">
@@ -49425,7 +49425,7 @@
         <v>562</v>
       </c>
       <c r="B564">
-        <v>8063297</v>
+        <v>8063298</v>
       </c>
       <c r="C564" t="s">
         <v>27</v>
@@ -49434,76 +49434,76 @@
         <v>45389.25</v>
       </c>
       <c r="E564" t="s">
-        <v>84</v>
+        <v>38</v>
       </c>
       <c r="F564" t="s">
-        <v>83</v>
+        <v>117</v>
       </c>
       <c r="G564">
+        <v>2</v>
+      </c>
+      <c r="H564">
         <v>1</v>
       </c>
-      <c r="H564">
+      <c r="I564" t="s">
+        <v>205</v>
+      </c>
+      <c r="J564">
+        <v>1.533</v>
+      </c>
+      <c r="K564">
+        <v>4</v>
+      </c>
+      <c r="L564">
         <v>5</v>
       </c>
-      <c r="I564" t="s">
-        <v>207</v>
-      </c>
-      <c r="J564">
-        <v>2.375</v>
-      </c>
-      <c r="K564">
-        <v>3.5</v>
-      </c>
-      <c r="L564">
-        <v>2.5</v>
-      </c>
       <c r="M564">
-        <v>3.1</v>
+        <v>1.444</v>
       </c>
       <c r="N564">
-        <v>3.5</v>
+        <v>4.333</v>
       </c>
       <c r="O564">
-        <v>2.05</v>
+        <v>5.75</v>
       </c>
       <c r="P564">
-        <v>0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="Q564">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="R564">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S564">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="T564">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="U564">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V564">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="W564">
         <v>-1</v>
       </c>
       <c r="X564">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="Y564">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="Z564">
-        <v>0.8</v>
+        <v>0.425</v>
       </c>
       <c r="AA564">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AB564">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
     </row>
     <row r="565" spans="1:28">
@@ -52275,7 +52275,7 @@
         <v>78</v>
       </c>
       <c r="F597" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G597">
         <v>4</v>
@@ -52521,7 +52521,7 @@
         <v>598</v>
       </c>
       <c r="B600">
-        <v>8141865</v>
+        <v>8147649</v>
       </c>
       <c r="C600" t="s">
         <v>27</v>
@@ -52530,76 +52530,76 @@
         <v>45408.5625</v>
       </c>
       <c r="E600" t="s">
-        <v>99</v>
+        <v>45</v>
       </c>
       <c r="F600" t="s">
-        <v>114</v>
+        <v>43</v>
       </c>
       <c r="G600">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H600">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I600" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="J600">
-        <v>1.571</v>
+        <v>3.6</v>
       </c>
       <c r="K600">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="L600">
-        <v>4.2</v>
+        <v>1.75</v>
       </c>
       <c r="M600">
-        <v>1.571</v>
+        <v>3.6</v>
       </c>
       <c r="N600">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="O600">
-        <v>4.2</v>
+        <v>1.75</v>
       </c>
       <c r="P600">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="Q600">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="R600">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="S600">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="T600">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="U600">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V600">
         <v>-1</v>
       </c>
       <c r="W600">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="X600">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="Y600">
         <v>-1</v>
       </c>
       <c r="Z600">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AA600">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB600">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="601" spans="1:28">
@@ -52607,7 +52607,7 @@
         <v>599</v>
       </c>
       <c r="B601">
-        <v>8147649</v>
+        <v>8141865</v>
       </c>
       <c r="C601" t="s">
         <v>27</v>
@@ -52616,76 +52616,76 @@
         <v>45408.5625</v>
       </c>
       <c r="E601" t="s">
-        <v>45</v>
+        <v>99</v>
       </c>
       <c r="F601" t="s">
-        <v>43</v>
+        <v>114</v>
       </c>
       <c r="G601">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H601">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I601" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="J601">
-        <v>3.6</v>
+        <v>1.571</v>
       </c>
       <c r="K601">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="L601">
-        <v>1.75</v>
+        <v>4.2</v>
       </c>
       <c r="M601">
-        <v>3.6</v>
+        <v>1.571</v>
       </c>
       <c r="N601">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="O601">
-        <v>1.75</v>
+        <v>4.2</v>
       </c>
       <c r="P601">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="Q601">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="R601">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="S601">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="T601">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="U601">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V601">
         <v>-1</v>
       </c>
       <c r="W601">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="X601">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="Y601">
         <v>-1</v>
       </c>
       <c r="Z601">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA601">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB601">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="602" spans="1:28">

--- a/Austria Landesliga/Austria Landesliga.xlsx
+++ b/Austria Landesliga/Austria Landesliga.xlsx
@@ -208,10 +208,10 @@
     <t>SV Kematen</t>
   </si>
   <si>
-    <t>SV Wienerberg</t>
+    <t>ASV 13 Vienna</t>
   </si>
   <si>
-    <t>ASV 13 Vienna</t>
+    <t>SV Wienerberg</t>
   </si>
   <si>
     <t>ASV Spratzern</t>
@@ -442,10 +442,10 @@
     <t>Union Perg</t>
   </si>
   <si>
-    <t>FugenUderns</t>
+    <t>SV Sedda Bad Schallerbach</t>
   </si>
   <si>
-    <t>SV Sedda Bad Schallerbach</t>
+    <t>FugenUderns</t>
   </si>
   <si>
     <t>Kottingbrunn</t>
@@ -2309,7 +2309,7 @@
         <v>42</v>
       </c>
       <c r="F16" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G16">
         <v>2</v>
@@ -2567,7 +2567,7 @@
         <v>45</v>
       </c>
       <c r="F19" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G19">
         <v>2</v>
@@ -4189,7 +4189,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>6744957</v>
+        <v>6744956</v>
       </c>
       <c r="C38" t="s">
         <v>27</v>
@@ -4201,70 +4201,70 @@
         <v>64</v>
       </c>
       <c r="F38" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="G38">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H38">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I38" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="J38">
-        <v>2.625</v>
+        <v>1.909</v>
       </c>
       <c r="K38">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="L38">
-        <v>2.25</v>
+        <v>3.1</v>
       </c>
       <c r="M38">
-        <v>2.3</v>
+        <v>1.65</v>
       </c>
       <c r="N38">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="O38">
-        <v>2.55</v>
+        <v>4</v>
       </c>
       <c r="P38">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="Q38">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="R38">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="S38">
         <v>3.5</v>
       </c>
       <c r="T38">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="U38">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V38">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="W38">
         <v>-1</v>
       </c>
       <c r="X38">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="Y38">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="Z38">
+        <v>-1</v>
+      </c>
+      <c r="AA38">
         <v>1</v>
-      </c>
-      <c r="AA38">
-        <v>0.825</v>
       </c>
       <c r="AB38">
         <v>-1</v>
@@ -4275,7 +4275,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>6744956</v>
+        <v>6744957</v>
       </c>
       <c r="C39" t="s">
         <v>27</v>
@@ -4287,70 +4287,70 @@
         <v>65</v>
       </c>
       <c r="F39" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="G39">
+        <v>1</v>
+      </c>
+      <c r="H39">
         <v>3</v>
       </c>
-      <c r="H39">
-        <v>2</v>
-      </c>
       <c r="I39" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="J39">
-        <v>1.909</v>
+        <v>2.625</v>
       </c>
       <c r="K39">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="L39">
-        <v>3.1</v>
+        <v>2.25</v>
       </c>
       <c r="M39">
-        <v>1.65</v>
+        <v>2.3</v>
       </c>
       <c r="N39">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="O39">
-        <v>4</v>
+        <v>2.55</v>
       </c>
       <c r="P39">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="Q39">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="R39">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="S39">
         <v>3.5</v>
       </c>
       <c r="T39">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="U39">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="V39">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="W39">
         <v>-1</v>
       </c>
       <c r="X39">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="Y39">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="Z39">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA39">
-        <v>1</v>
+        <v>0.825</v>
       </c>
       <c r="AB39">
         <v>-1</v>
@@ -5921,7 +5921,7 @@
         <v>79</v>
       </c>
       <c r="F58" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G58">
         <v>1</v>
@@ -6007,7 +6007,7 @@
         <v>78</v>
       </c>
       <c r="F59" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G59">
         <v>4</v>
@@ -9177,7 +9177,7 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>7045805</v>
+        <v>7045804</v>
       </c>
       <c r="C96" t="s">
         <v>27</v>
@@ -9186,58 +9186,58 @@
         <v>45149.60416666666</v>
       </c>
       <c r="E96" t="s">
-        <v>102</v>
+        <v>54</v>
       </c>
       <c r="F96" t="s">
-        <v>148</v>
+        <v>162</v>
       </c>
       <c r="G96">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H96">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I96" t="s">
         <v>205</v>
       </c>
       <c r="J96">
-        <v>1.25</v>
+        <v>2</v>
       </c>
       <c r="K96">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="L96">
-        <v>7</v>
+        <v>2.75</v>
       </c>
       <c r="M96">
-        <v>1.142</v>
+        <v>2</v>
       </c>
       <c r="N96">
-        <v>8.5</v>
+        <v>4</v>
       </c>
       <c r="O96">
-        <v>9.5</v>
+        <v>2.75</v>
       </c>
       <c r="P96">
-        <v>-2.5</v>
+        <v>-0.25</v>
       </c>
       <c r="Q96">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="R96">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="S96">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T96">
-        <v>1.875</v>
+        <v>1.725</v>
       </c>
       <c r="U96">
-        <v>1.925</v>
+        <v>2.075</v>
       </c>
       <c r="V96">
-        <v>0.1419999999999999</v>
+        <v>1</v>
       </c>
       <c r="W96">
         <v>-1</v>
@@ -9246,16 +9246,16 @@
         <v>-1</v>
       </c>
       <c r="Y96">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="Z96">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA96">
-        <v>0</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AB96">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="97" spans="1:28">
@@ -9263,7 +9263,7 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>7045804</v>
+        <v>7045805</v>
       </c>
       <c r="C97" t="s">
         <v>27</v>
@@ -9272,58 +9272,58 @@
         <v>45149.60416666666</v>
       </c>
       <c r="E97" t="s">
-        <v>54</v>
+        <v>102</v>
       </c>
       <c r="F97" t="s">
-        <v>162</v>
+        <v>148</v>
       </c>
       <c r="G97">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H97">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I97" t="s">
         <v>205</v>
       </c>
       <c r="J97">
-        <v>2</v>
+        <v>1.25</v>
       </c>
       <c r="K97">
+        <v>6</v>
+      </c>
+      <c r="L97">
+        <v>7</v>
+      </c>
+      <c r="M97">
+        <v>1.142</v>
+      </c>
+      <c r="N97">
+        <v>8.5</v>
+      </c>
+      <c r="O97">
+        <v>9.5</v>
+      </c>
+      <c r="P97">
+        <v>-2.5</v>
+      </c>
+      <c r="Q97">
+        <v>1.925</v>
+      </c>
+      <c r="R97">
+        <v>1.875</v>
+      </c>
+      <c r="S97">
         <v>4</v>
       </c>
-      <c r="L97">
-        <v>2.75</v>
-      </c>
-      <c r="M97">
-        <v>2</v>
-      </c>
-      <c r="N97">
-        <v>4</v>
-      </c>
-      <c r="O97">
-        <v>2.75</v>
-      </c>
-      <c r="P97">
-        <v>-0.25</v>
-      </c>
-      <c r="Q97">
-        <v>1.825</v>
-      </c>
-      <c r="R97">
-        <v>1.975</v>
-      </c>
-      <c r="S97">
-        <v>3</v>
-      </c>
       <c r="T97">
-        <v>1.725</v>
+        <v>1.875</v>
       </c>
       <c r="U97">
-        <v>2.075</v>
+        <v>1.925</v>
       </c>
       <c r="V97">
-        <v>1</v>
+        <v>0.1419999999999999</v>
       </c>
       <c r="W97">
         <v>-1</v>
@@ -9332,16 +9332,16 @@
         <v>-1</v>
       </c>
       <c r="Y97">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="Z97">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA97">
-        <v>0.7250000000000001</v>
+        <v>0</v>
       </c>
       <c r="AB97">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:28">
@@ -10135,7 +10135,7 @@
         <v>63</v>
       </c>
       <c r="F107" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="G107">
         <v>3</v>
@@ -10467,7 +10467,7 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>7067961</v>
+        <v>7067953</v>
       </c>
       <c r="C111" t="s">
         <v>27</v>
@@ -10476,55 +10476,55 @@
         <v>45153.22916666666</v>
       </c>
       <c r="E111" t="s">
-        <v>94</v>
+        <v>111</v>
       </c>
       <c r="F111" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="G111">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H111">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I111" t="s">
         <v>207</v>
       </c>
       <c r="J111">
-        <v>2</v>
+        <v>2.35</v>
       </c>
       <c r="K111">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="L111">
-        <v>3</v>
+        <v>2.35</v>
       </c>
       <c r="M111">
-        <v>2.4</v>
+        <v>2.05</v>
       </c>
       <c r="N111">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="O111">
-        <v>2.4</v>
+        <v>2.7</v>
       </c>
       <c r="P111">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="Q111">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="R111">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S111">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="T111">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="U111">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V111">
         <v>-1</v>
@@ -10533,19 +10533,19 @@
         <v>-1</v>
       </c>
       <c r="X111">
-        <v>1.4</v>
+        <v>1.7</v>
       </c>
       <c r="Y111">
         <v>-1</v>
       </c>
       <c r="Z111">
-        <v>0.8999999999999999</v>
+        <v>0.925</v>
       </c>
       <c r="AA111">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB111">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="112" spans="1:28">
@@ -10553,7 +10553,7 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>7067953</v>
+        <v>7067961</v>
       </c>
       <c r="C112" t="s">
         <v>27</v>
@@ -10562,55 +10562,55 @@
         <v>45153.22916666666</v>
       </c>
       <c r="E112" t="s">
-        <v>111</v>
+        <v>94</v>
       </c>
       <c r="F112" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="G112">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H112">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I112" t="s">
         <v>207</v>
       </c>
       <c r="J112">
-        <v>2.35</v>
+        <v>2</v>
       </c>
       <c r="K112">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="L112">
-        <v>2.35</v>
+        <v>3</v>
       </c>
       <c r="M112">
-        <v>2.05</v>
+        <v>2.4</v>
       </c>
       <c r="N112">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="O112">
-        <v>2.7</v>
+        <v>2.4</v>
       </c>
       <c r="P112">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="Q112">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="R112">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="S112">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="T112">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="U112">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V112">
         <v>-1</v>
@@ -10619,19 +10619,19 @@
         <v>-1</v>
       </c>
       <c r="X112">
-        <v>1.7</v>
+        <v>1.4</v>
       </c>
       <c r="Y112">
         <v>-1</v>
       </c>
       <c r="Z112">
-        <v>0.925</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA112">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB112">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="113" spans="1:28">
@@ -11852,7 +11852,7 @@
         <v>45156.54166666666</v>
       </c>
       <c r="E127" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F127" t="s">
         <v>46</v>
@@ -13231,7 +13231,7 @@
         <v>43</v>
       </c>
       <c r="F143" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G143">
         <v>7</v>
@@ -14260,7 +14260,7 @@
         <v>45163.54166666666</v>
       </c>
       <c r="E155" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F155" t="s">
         <v>70</v>
@@ -14423,7 +14423,7 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>7113185</v>
+        <v>7113182</v>
       </c>
       <c r="C157" t="s">
         <v>27</v>
@@ -14432,40 +14432,40 @@
         <v>45163.58333333334</v>
       </c>
       <c r="E157" t="s">
-        <v>128</v>
+        <v>98</v>
       </c>
       <c r="F157" t="s">
-        <v>89</v>
+        <v>71</v>
       </c>
       <c r="G157">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H157">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I157" t="s">
         <v>205</v>
       </c>
       <c r="J157">
-        <v>1.8</v>
+        <v>3.1</v>
       </c>
       <c r="K157">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="L157">
-        <v>3.25</v>
+        <v>1.909</v>
       </c>
       <c r="M157">
-        <v>2.05</v>
+        <v>1.363</v>
       </c>
       <c r="N157">
-        <v>4.333</v>
+        <v>5</v>
       </c>
       <c r="O157">
-        <v>2.5</v>
+        <v>6.5</v>
       </c>
       <c r="P157">
-        <v>-0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="Q157">
         <v>1.95</v>
@@ -14474,16 +14474,16 @@
         <v>1.85</v>
       </c>
       <c r="S157">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="T157">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="U157">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V157">
-        <v>1.05</v>
+        <v>0.363</v>
       </c>
       <c r="W157">
         <v>-1</v>
@@ -14492,16 +14492,16 @@
         <v>-1</v>
       </c>
       <c r="Y157">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="Z157">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA157">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB157">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="158" spans="1:28">
@@ -14509,7 +14509,7 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>7113182</v>
+        <v>7113185</v>
       </c>
       <c r="C158" t="s">
         <v>27</v>
@@ -14518,40 +14518,40 @@
         <v>45163.58333333334</v>
       </c>
       <c r="E158" t="s">
-        <v>98</v>
+        <v>128</v>
       </c>
       <c r="F158" t="s">
-        <v>71</v>
+        <v>89</v>
       </c>
       <c r="G158">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H158">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I158" t="s">
         <v>205</v>
       </c>
       <c r="J158">
-        <v>3.1</v>
+        <v>1.8</v>
       </c>
       <c r="K158">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="L158">
-        <v>1.909</v>
+        <v>3.25</v>
       </c>
       <c r="M158">
-        <v>1.363</v>
+        <v>2.05</v>
       </c>
       <c r="N158">
-        <v>5</v>
+        <v>4.333</v>
       </c>
       <c r="O158">
-        <v>6.5</v>
+        <v>2.5</v>
       </c>
       <c r="P158">
-        <v>-1.5</v>
+        <v>-0.25</v>
       </c>
       <c r="Q158">
         <v>1.95</v>
@@ -14560,16 +14560,16 @@
         <v>1.85</v>
       </c>
       <c r="S158">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="T158">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="U158">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V158">
-        <v>0.363</v>
+        <v>1.05</v>
       </c>
       <c r="W158">
         <v>-1</v>
@@ -14578,16 +14578,16 @@
         <v>-1</v>
       </c>
       <c r="Y158">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="Z158">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA158">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB158">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="159" spans="1:28">
@@ -14595,7 +14595,7 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>7113183</v>
+        <v>7113184</v>
       </c>
       <c r="C159" t="s">
         <v>27</v>
@@ -14604,76 +14604,76 @@
         <v>45163.58333333334</v>
       </c>
       <c r="E159" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="F159" t="s">
-        <v>61</v>
+        <v>86</v>
       </c>
       <c r="G159">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H159">
         <v>1</v>
       </c>
       <c r="I159" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="J159">
+        <v>3</v>
+      </c>
+      <c r="K159">
+        <v>3.6</v>
+      </c>
+      <c r="L159">
+        <v>2</v>
+      </c>
+      <c r="M159">
+        <v>2.15</v>
+      </c>
+      <c r="N159">
+        <v>3.6</v>
+      </c>
+      <c r="O159">
+        <v>2.8</v>
+      </c>
+      <c r="P159">
+        <v>-0.25</v>
+      </c>
+      <c r="Q159">
+        <v>1.95</v>
+      </c>
+      <c r="R159">
+        <v>1.85</v>
+      </c>
+      <c r="S159">
         <v>3.25</v>
       </c>
-      <c r="K159">
-        <v>3.8</v>
-      </c>
-      <c r="L159">
-        <v>1.833</v>
-      </c>
-      <c r="M159">
-        <v>1.8</v>
-      </c>
-      <c r="N159">
-        <v>4.2</v>
-      </c>
-      <c r="O159">
-        <v>3.3</v>
-      </c>
-      <c r="P159">
+      <c r="T159">
+        <v>1.825</v>
+      </c>
+      <c r="U159">
+        <v>1.975</v>
+      </c>
+      <c r="V159">
+        <v>-1</v>
+      </c>
+      <c r="W159">
+        <v>2.6</v>
+      </c>
+      <c r="X159">
+        <v>-1</v>
+      </c>
+      <c r="Y159">
         <v>-0.5</v>
       </c>
-      <c r="Q159">
-        <v>1.85</v>
-      </c>
-      <c r="R159">
-        <v>1.95</v>
-      </c>
-      <c r="S159">
-        <v>3.5</v>
-      </c>
-      <c r="T159">
-        <v>1.85</v>
-      </c>
-      <c r="U159">
-        <v>1.95</v>
-      </c>
-      <c r="V159">
-        <v>-1</v>
-      </c>
-      <c r="W159">
-        <v>-1</v>
-      </c>
-      <c r="X159">
-        <v>2.3</v>
-      </c>
-      <c r="Y159">
-        <v>-1</v>
-      </c>
       <c r="Z159">
-        <v>0.95</v>
+        <v>0.425</v>
       </c>
       <c r="AA159">
         <v>-1</v>
       </c>
       <c r="AB159">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="160" spans="1:28">
@@ -14681,7 +14681,7 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>7113184</v>
+        <v>7113183</v>
       </c>
       <c r="C160" t="s">
         <v>27</v>
@@ -14690,76 +14690,76 @@
         <v>45163.58333333334</v>
       </c>
       <c r="E160" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="F160" t="s">
-        <v>86</v>
+        <v>61</v>
       </c>
       <c r="G160">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H160">
         <v>1</v>
       </c>
       <c r="I160" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="J160">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="K160">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="L160">
-        <v>2</v>
+        <v>1.833</v>
       </c>
       <c r="M160">
-        <v>2.15</v>
+        <v>1.8</v>
       </c>
       <c r="N160">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="O160">
-        <v>2.8</v>
+        <v>3.3</v>
       </c>
       <c r="P160">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="Q160">
+        <v>1.85</v>
+      </c>
+      <c r="R160">
         <v>1.95</v>
       </c>
-      <c r="R160">
+      <c r="S160">
+        <v>3.5</v>
+      </c>
+      <c r="T160">
         <v>1.85</v>
       </c>
-      <c r="S160">
-        <v>3.25</v>
-      </c>
-      <c r="T160">
-        <v>1.825</v>
-      </c>
       <c r="U160">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V160">
         <v>-1</v>
       </c>
       <c r="W160">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="X160">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y160">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="Z160">
-        <v>0.425</v>
+        <v>0.95</v>
       </c>
       <c r="AA160">
         <v>-1</v>
       </c>
       <c r="AB160">
-        <v>0.9750000000000001</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="161" spans="1:28">
@@ -14767,7 +14767,7 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>7113289</v>
+        <v>7115255</v>
       </c>
       <c r="C161" t="s">
         <v>27</v>
@@ -14776,76 +14776,76 @@
         <v>45163.58333333334</v>
       </c>
       <c r="E161" t="s">
-        <v>63</v>
+        <v>129</v>
       </c>
       <c r="F161" t="s">
-        <v>87</v>
+        <v>40</v>
       </c>
       <c r="G161">
         <v>2</v>
       </c>
       <c r="H161">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I161" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="J161">
-        <v>2.75</v>
+        <v>1.8</v>
       </c>
       <c r="K161">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="L161">
-        <v>2.1</v>
+        <v>3.75</v>
       </c>
       <c r="M161">
-        <v>3.25</v>
+        <v>2.15</v>
       </c>
       <c r="N161">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="O161">
-        <v>1.85</v>
+        <v>2.875</v>
       </c>
       <c r="P161">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="Q161">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="R161">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="S161">
         <v>3.5</v>
       </c>
       <c r="T161">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="U161">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="V161">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="W161">
         <v>-1</v>
       </c>
       <c r="X161">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="Y161">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z161">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA161">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB161">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="162" spans="1:28">
@@ -14853,7 +14853,7 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>7115255</v>
+        <v>7113289</v>
       </c>
       <c r="C162" t="s">
         <v>27</v>
@@ -14862,76 +14862,76 @@
         <v>45163.58333333334</v>
       </c>
       <c r="E162" t="s">
-        <v>129</v>
+        <v>63</v>
       </c>
       <c r="F162" t="s">
-        <v>40</v>
+        <v>87</v>
       </c>
       <c r="G162">
         <v>2</v>
       </c>
       <c r="H162">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I162" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="J162">
-        <v>1.8</v>
+        <v>2.75</v>
       </c>
       <c r="K162">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="L162">
-        <v>3.75</v>
+        <v>2.1</v>
       </c>
       <c r="M162">
-        <v>2.15</v>
+        <v>3.25</v>
       </c>
       <c r="N162">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="O162">
-        <v>2.875</v>
+        <v>1.85</v>
       </c>
       <c r="P162">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="Q162">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="R162">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="S162">
         <v>3.5</v>
       </c>
       <c r="T162">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="U162">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="V162">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="W162">
         <v>-1</v>
       </c>
       <c r="X162">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Y162">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z162">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA162">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB162">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="163" spans="1:28">
@@ -14939,7 +14939,7 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>7113024</v>
+        <v>7113334</v>
       </c>
       <c r="C163" t="s">
         <v>27</v>
@@ -14948,49 +14948,49 @@
         <v>45163.60416666666</v>
       </c>
       <c r="E163" t="s">
-        <v>102</v>
+        <v>130</v>
       </c>
       <c r="F163" t="s">
-        <v>177</v>
+        <v>190</v>
       </c>
       <c r="G163">
         <v>2</v>
       </c>
       <c r="H163">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I163" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="J163">
-        <v>1.533</v>
+        <v>3.5</v>
       </c>
       <c r="K163">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="L163">
-        <v>4.5</v>
+        <v>1.727</v>
       </c>
       <c r="M163">
-        <v>1.533</v>
+        <v>4.333</v>
       </c>
       <c r="N163">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="O163">
-        <v>4.75</v>
+        <v>1.571</v>
       </c>
       <c r="P163">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Q163">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="R163">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S163">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="T163">
         <v>1.85</v>
@@ -14999,25 +14999,25 @@
         <v>1.95</v>
       </c>
       <c r="V163">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="W163">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="X163">
         <v>-1</v>
       </c>
       <c r="Y163">
-        <v>0.825</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z163">
         <v>-1</v>
       </c>
       <c r="AA163">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB163">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="164" spans="1:28">
@@ -15025,7 +15025,7 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>7113025</v>
+        <v>7113024</v>
       </c>
       <c r="C164" t="s">
         <v>27</v>
@@ -15034,13 +15034,13 @@
         <v>45163.60416666666</v>
       </c>
       <c r="E164" t="s">
-        <v>73</v>
+        <v>102</v>
       </c>
       <c r="F164" t="s">
-        <v>138</v>
+        <v>177</v>
       </c>
       <c r="G164">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H164">
         <v>0</v>
@@ -15049,43 +15049,43 @@
         <v>205</v>
       </c>
       <c r="J164">
-        <v>1.363</v>
+        <v>1.533</v>
       </c>
       <c r="K164">
-        <v>5</v>
+        <v>4.2</v>
       </c>
       <c r="L164">
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
       <c r="M164">
-        <v>1.222</v>
+        <v>1.533</v>
       </c>
       <c r="N164">
-        <v>5.75</v>
+        <v>4.2</v>
       </c>
       <c r="O164">
-        <v>8</v>
+        <v>4.75</v>
       </c>
       <c r="P164">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="Q164">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="R164">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="S164">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="T164">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="U164">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V164">
-        <v>0.222</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="W164">
         <v>-1</v>
@@ -15094,16 +15094,16 @@
         <v>-1</v>
       </c>
       <c r="Y164">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="Z164">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA164">
         <v>-1</v>
       </c>
       <c r="AB164">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="165" spans="1:28">
@@ -15111,7 +15111,7 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>7113334</v>
+        <v>7113025</v>
       </c>
       <c r="C165" t="s">
         <v>27</v>
@@ -15120,76 +15120,76 @@
         <v>45163.60416666666</v>
       </c>
       <c r="E165" t="s">
-        <v>130</v>
+        <v>73</v>
       </c>
       <c r="F165" t="s">
-        <v>190</v>
+        <v>138</v>
       </c>
       <c r="G165">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H165">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I165" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="J165">
-        <v>3.5</v>
+        <v>1.363</v>
       </c>
       <c r="K165">
+        <v>5</v>
+      </c>
+      <c r="L165">
+        <v>5.5</v>
+      </c>
+      <c r="M165">
+        <v>1.222</v>
+      </c>
+      <c r="N165">
+        <v>5.75</v>
+      </c>
+      <c r="O165">
+        <v>8</v>
+      </c>
+      <c r="P165">
+        <v>-2</v>
+      </c>
+      <c r="Q165">
+        <v>1.925</v>
+      </c>
+      <c r="R165">
+        <v>1.875</v>
+      </c>
+      <c r="S165">
         <v>4</v>
       </c>
-      <c r="L165">
-        <v>1.727</v>
-      </c>
-      <c r="M165">
-        <v>4.333</v>
-      </c>
-      <c r="N165">
-        <v>4</v>
-      </c>
-      <c r="O165">
-        <v>1.571</v>
-      </c>
-      <c r="P165">
-        <v>1</v>
-      </c>
-      <c r="Q165">
-        <v>1.85</v>
-      </c>
-      <c r="R165">
-        <v>1.95</v>
-      </c>
-      <c r="S165">
-        <v>3</v>
-      </c>
       <c r="T165">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="U165">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V165">
-        <v>-1</v>
+        <v>0.222</v>
       </c>
       <c r="W165">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="X165">
         <v>-1</v>
       </c>
       <c r="Y165">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z165">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA165">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB165">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="166" spans="1:28">
@@ -15209,7 +15209,7 @@
         <v>131</v>
       </c>
       <c r="F166" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G166">
         <v>1</v>
@@ -15378,7 +15378,7 @@
         <v>45164.41666666666</v>
       </c>
       <c r="E168" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F168" t="s">
         <v>55</v>
@@ -16324,7 +16324,7 @@
         <v>45170.53125</v>
       </c>
       <c r="E179" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F179" t="s">
         <v>79</v>
@@ -17003,7 +17003,7 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>7147667</v>
+        <v>7147747</v>
       </c>
       <c r="C187" t="s">
         <v>27</v>
@@ -17012,76 +17012,76 @@
         <v>45170.58333333334</v>
       </c>
       <c r="E187" t="s">
-        <v>61</v>
+        <v>40</v>
       </c>
       <c r="F187" t="s">
-        <v>100</v>
+        <v>114</v>
       </c>
       <c r="G187">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H187">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I187" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="J187">
-        <v>1.727</v>
+        <v>1.571</v>
       </c>
       <c r="K187">
+        <v>3.6</v>
+      </c>
+      <c r="L187">
+        <v>5</v>
+      </c>
+      <c r="M187">
+        <v>1.7</v>
+      </c>
+      <c r="N187">
+        <v>3.75</v>
+      </c>
+      <c r="O187">
         <v>4</v>
       </c>
-      <c r="L187">
-        <v>3.5</v>
-      </c>
-      <c r="M187">
-        <v>2.05</v>
-      </c>
-      <c r="N187">
-        <v>4</v>
-      </c>
-      <c r="O187">
-        <v>2.625</v>
-      </c>
       <c r="P187">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="Q187">
+        <v>1.875</v>
+      </c>
+      <c r="R187">
         <v>1.925</v>
       </c>
-      <c r="R187">
-        <v>1.875</v>
-      </c>
       <c r="S187">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="T187">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="U187">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V187">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="W187">
         <v>-1</v>
       </c>
       <c r="X187">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y187">
+        <v>-1</v>
+      </c>
+      <c r="Z187">
         <v>0.925</v>
       </c>
-      <c r="Z187">
-        <v>-1</v>
-      </c>
       <c r="AA187">
         <v>-1</v>
       </c>
       <c r="AB187">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="188" spans="1:28">
@@ -17089,7 +17089,7 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>7147668</v>
+        <v>7147667</v>
       </c>
       <c r="C188" t="s">
         <v>27</v>
@@ -17098,49 +17098,49 @@
         <v>45170.58333333334</v>
       </c>
       <c r="E188" t="s">
-        <v>86</v>
+        <v>61</v>
       </c>
       <c r="F188" t="s">
-        <v>48</v>
+        <v>100</v>
       </c>
       <c r="G188">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H188">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I188" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="J188">
-        <v>1.8</v>
+        <v>1.727</v>
       </c>
       <c r="K188">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="L188">
         <v>3.5</v>
       </c>
       <c r="M188">
-        <v>1.4</v>
+        <v>2.05</v>
       </c>
       <c r="N188">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="O188">
-        <v>6.5</v>
+        <v>2.625</v>
       </c>
       <c r="P188">
-        <v>-1.5</v>
+        <v>-0.25</v>
       </c>
       <c r="Q188">
+        <v>1.925</v>
+      </c>
+      <c r="R188">
         <v>1.875</v>
       </c>
-      <c r="R188">
-        <v>1.925</v>
-      </c>
       <c r="S188">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="T188">
         <v>1.975</v>
@@ -17149,25 +17149,25 @@
         <v>1.825</v>
       </c>
       <c r="V188">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="W188">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="X188">
         <v>-1</v>
       </c>
       <c r="Y188">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="Z188">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA188">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB188">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="189" spans="1:28">
@@ -17175,7 +17175,7 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>7147747</v>
+        <v>7147668</v>
       </c>
       <c r="C189" t="s">
         <v>27</v>
@@ -17184,40 +17184,40 @@
         <v>45170.58333333334</v>
       </c>
       <c r="E189" t="s">
-        <v>40</v>
+        <v>86</v>
       </c>
       <c r="F189" t="s">
-        <v>114</v>
+        <v>48</v>
       </c>
       <c r="G189">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H189">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I189" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="J189">
-        <v>1.571</v>
+        <v>1.8</v>
       </c>
       <c r="K189">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="L189">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="M189">
-        <v>1.7</v>
+        <v>1.4</v>
       </c>
       <c r="N189">
-        <v>3.75</v>
+        <v>4.333</v>
       </c>
       <c r="O189">
-        <v>4</v>
+        <v>6.5</v>
       </c>
       <c r="P189">
-        <v>-0.75</v>
+        <v>-1.5</v>
       </c>
       <c r="Q189">
         <v>1.875</v>
@@ -17226,22 +17226,22 @@
         <v>1.925</v>
       </c>
       <c r="S189">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="T189">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="U189">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V189">
         <v>-1</v>
       </c>
       <c r="W189">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="X189">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y189">
         <v>-1</v>
@@ -17250,10 +17250,10 @@
         <v>0.925</v>
       </c>
       <c r="AA189">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB189">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="190" spans="1:28">
@@ -17347,7 +17347,7 @@
         <v>189</v>
       </c>
       <c r="B191">
-        <v>7151159</v>
+        <v>7151179</v>
       </c>
       <c r="C191" t="s">
         <v>27</v>
@@ -17356,76 +17356,76 @@
         <v>45171.45833333334</v>
       </c>
       <c r="E191" t="s">
-        <v>138</v>
+        <v>58</v>
       </c>
       <c r="F191" t="s">
-        <v>102</v>
+        <v>30</v>
       </c>
       <c r="G191">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H191">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I191" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="J191">
-        <v>9</v>
+        <v>2.75</v>
       </c>
       <c r="K191">
-        <v>7</v>
+        <v>3.6</v>
       </c>
       <c r="L191">
-        <v>1.166</v>
+        <v>2.1</v>
       </c>
       <c r="M191">
-        <v>9</v>
+        <v>2.625</v>
       </c>
       <c r="N191">
-        <v>7</v>
+        <v>3.6</v>
       </c>
       <c r="O191">
-        <v>1.166</v>
+        <v>2.2</v>
       </c>
       <c r="P191">
-        <v>2</v>
+        <v>0.25</v>
       </c>
       <c r="Q191">
-        <v>2.05</v>
+        <v>1.8</v>
       </c>
       <c r="R191">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="S191">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="T191">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="U191">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V191">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="W191">
         <v>-1</v>
       </c>
       <c r="X191">
-        <v>0.1659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Y191">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Z191">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AA191">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AB191">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="192" spans="1:28">
@@ -17605,7 +17605,7 @@
         <v>192</v>
       </c>
       <c r="B194">
-        <v>7151179</v>
+        <v>7151159</v>
       </c>
       <c r="C194" t="s">
         <v>27</v>
@@ -17614,76 +17614,76 @@
         <v>45171.45833333334</v>
       </c>
       <c r="E194" t="s">
-        <v>58</v>
+        <v>138</v>
       </c>
       <c r="F194" t="s">
-        <v>30</v>
+        <v>102</v>
       </c>
       <c r="G194">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H194">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I194" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="J194">
-        <v>2.75</v>
+        <v>9</v>
       </c>
       <c r="K194">
-        <v>3.6</v>
+        <v>7</v>
       </c>
       <c r="L194">
-        <v>2.1</v>
+        <v>1.166</v>
       </c>
       <c r="M194">
-        <v>2.625</v>
+        <v>9</v>
       </c>
       <c r="N194">
-        <v>3.6</v>
+        <v>7</v>
       </c>
       <c r="O194">
-        <v>2.2</v>
+        <v>1.166</v>
       </c>
       <c r="P194">
-        <v>0.25</v>
+        <v>2</v>
       </c>
       <c r="Q194">
-        <v>1.8</v>
+        <v>2.05</v>
       </c>
       <c r="R194">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="S194">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="T194">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="U194">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V194">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="W194">
         <v>-1</v>
       </c>
       <c r="X194">
-        <v>-1</v>
+        <v>0.1659999999999999</v>
       </c>
       <c r="Y194">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="Z194">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AA194">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AB194">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="195" spans="1:28">
@@ -18219,7 +18219,7 @@
         <v>87</v>
       </c>
       <c r="F201" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="G201">
         <v>3</v>
@@ -18821,7 +18821,7 @@
         <v>68</v>
       </c>
       <c r="F208" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G208">
         <v>2</v>
@@ -18895,7 +18895,7 @@
         <v>207</v>
       </c>
       <c r="B209">
-        <v>7178228</v>
+        <v>7176437</v>
       </c>
       <c r="C209" t="s">
         <v>27</v>
@@ -18904,76 +18904,76 @@
         <v>45177.5625</v>
       </c>
       <c r="E209" t="s">
-        <v>141</v>
+        <v>70</v>
       </c>
       <c r="F209" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="G209">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H209">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I209" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="J209">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="K209">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="L209">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
       <c r="M209">
-        <v>2.25</v>
+        <v>2.7</v>
       </c>
       <c r="N209">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="O209">
-        <v>2.45</v>
+        <v>2.15</v>
       </c>
       <c r="P209">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="Q209">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="R209">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S209">
         <v>3.25</v>
       </c>
       <c r="T209">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="U209">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V209">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="W209">
         <v>-1</v>
       </c>
       <c r="X209">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="Y209">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="Z209">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA209">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB209">
-        <v>0.95</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="210" spans="1:28">
@@ -18981,7 +18981,7 @@
         <v>208</v>
       </c>
       <c r="B210">
-        <v>7176437</v>
+        <v>7178228</v>
       </c>
       <c r="C210" t="s">
         <v>27</v>
@@ -18990,76 +18990,76 @@
         <v>45177.5625</v>
       </c>
       <c r="E210" t="s">
-        <v>70</v>
+        <v>141</v>
       </c>
       <c r="F210" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="G210">
+        <v>2</v>
+      </c>
+      <c r="H210">
         <v>0</v>
       </c>
-      <c r="H210">
-        <v>3</v>
-      </c>
       <c r="I210" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="J210">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="K210">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="L210">
-        <v>2.6</v>
+        <v>2.4</v>
       </c>
       <c r="M210">
-        <v>2.7</v>
+        <v>2.25</v>
       </c>
       <c r="N210">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="O210">
-        <v>2.15</v>
+        <v>2.45</v>
       </c>
       <c r="P210">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="Q210">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="R210">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S210">
         <v>3.25</v>
       </c>
       <c r="T210">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="U210">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V210">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="W210">
         <v>-1</v>
       </c>
       <c r="X210">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="Y210">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Z210">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA210">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB210">
-        <v>0.4</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="211" spans="1:28">
@@ -19325,7 +19325,7 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>7176416</v>
+        <v>7176692</v>
       </c>
       <c r="C214" t="s">
         <v>27</v>
@@ -19334,49 +19334,49 @@
         <v>45177.58333333334</v>
       </c>
       <c r="E214" t="s">
-        <v>142</v>
+        <v>80</v>
       </c>
       <c r="F214" t="s">
-        <v>44</v>
+        <v>89</v>
       </c>
       <c r="G214">
+        <v>0</v>
+      </c>
+      <c r="H214">
+        <v>2</v>
+      </c>
+      <c r="I214" t="s">
+        <v>207</v>
+      </c>
+      <c r="J214">
         <v>3</v>
       </c>
-      <c r="H214">
-        <v>3</v>
-      </c>
-      <c r="I214" t="s">
-        <v>206</v>
-      </c>
-      <c r="J214">
-        <v>2.5</v>
-      </c>
       <c r="K214">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="L214">
-        <v>2.375</v>
+        <v>2</v>
       </c>
       <c r="M214">
+        <v>2.7</v>
+      </c>
+      <c r="N214">
+        <v>3.5</v>
+      </c>
+      <c r="O214">
         <v>2.2</v>
       </c>
-      <c r="N214">
-        <v>3.4</v>
-      </c>
-      <c r="O214">
-        <v>2.75</v>
-      </c>
       <c r="P214">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="Q214">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="R214">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="S214">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="T214">
         <v>1.975</v>
@@ -19388,22 +19388,22 @@
         <v>-1</v>
       </c>
       <c r="W214">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="X214">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="Y214">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z214">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA214">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB214">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="215" spans="1:28">
@@ -19420,7 +19420,7 @@
         <v>45177.58333333334</v>
       </c>
       <c r="E215" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F215" t="s">
         <v>185</v>
@@ -19669,7 +19669,7 @@
         <v>216</v>
       </c>
       <c r="B218">
-        <v>7176692</v>
+        <v>7176417</v>
       </c>
       <c r="C218" t="s">
         <v>27</v>
@@ -19678,55 +19678,55 @@
         <v>45177.58333333334</v>
       </c>
       <c r="E218" t="s">
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="F218" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G218">
         <v>0</v>
       </c>
       <c r="H218">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I218" t="s">
         <v>207</v>
       </c>
       <c r="J218">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="K218">
         <v>3.6</v>
       </c>
       <c r="L218">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="M218">
-        <v>2.7</v>
+        <v>2.45</v>
       </c>
       <c r="N218">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="O218">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="P218">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="Q218">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="R218">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S218">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="T218">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="U218">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V218">
         <v>-1</v>
@@ -19735,19 +19735,19 @@
         <v>-1</v>
       </c>
       <c r="X218">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="Y218">
         <v>-1</v>
       </c>
       <c r="Z218">
-        <v>1</v>
+        <v>0.825</v>
       </c>
       <c r="AA218">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB218">
-        <v>0.825</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="219" spans="1:28">
@@ -19755,7 +19755,7 @@
         <v>217</v>
       </c>
       <c r="B219">
-        <v>7176417</v>
+        <v>7176416</v>
       </c>
       <c r="C219" t="s">
         <v>27</v>
@@ -19764,76 +19764,76 @@
         <v>45177.58333333334</v>
       </c>
       <c r="E219" t="s">
-        <v>63</v>
+        <v>143</v>
       </c>
       <c r="F219" t="s">
-        <v>90</v>
+        <v>44</v>
       </c>
       <c r="G219">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H219">
         <v>3</v>
       </c>
       <c r="I219" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="J219">
+        <v>2.5</v>
+      </c>
+      <c r="K219">
+        <v>3.4</v>
+      </c>
+      <c r="L219">
+        <v>2.375</v>
+      </c>
+      <c r="M219">
+        <v>2.2</v>
+      </c>
+      <c r="N219">
+        <v>3.4</v>
+      </c>
+      <c r="O219">
         <v>2.75</v>
-      </c>
-      <c r="K219">
-        <v>3.6</v>
-      </c>
-      <c r="L219">
-        <v>2.1</v>
-      </c>
-      <c r="M219">
-        <v>2.45</v>
-      </c>
-      <c r="N219">
-        <v>3.6</v>
-      </c>
-      <c r="O219">
-        <v>2.3</v>
       </c>
       <c r="P219">
         <v>0</v>
       </c>
       <c r="Q219">
+        <v>1.875</v>
+      </c>
+      <c r="R219">
+        <v>1.925</v>
+      </c>
+      <c r="S219">
+        <v>3</v>
+      </c>
+      <c r="T219">
         <v>1.975</v>
       </c>
-      <c r="R219">
+      <c r="U219">
         <v>1.825</v>
       </c>
-      <c r="S219">
-        <v>3.25</v>
-      </c>
-      <c r="T219">
-        <v>1.85</v>
-      </c>
-      <c r="U219">
-        <v>1.95</v>
-      </c>
       <c r="V219">
         <v>-1</v>
       </c>
       <c r="W219">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="X219">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Y219">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Z219">
-        <v>0.825</v>
+        <v>0</v>
       </c>
       <c r="AA219">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB219">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="220" spans="1:28">
@@ -21561,7 +21561,7 @@
         <v>238</v>
       </c>
       <c r="B240">
-        <v>7210265</v>
+        <v>7210267</v>
       </c>
       <c r="C240" t="s">
         <v>27</v>
@@ -21570,76 +21570,76 @@
         <v>45184.54166666666</v>
       </c>
       <c r="E240" t="s">
-        <v>71</v>
+        <v>136</v>
       </c>
       <c r="F240" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="G240">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H240">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I240" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="J240">
+        <v>2.1</v>
+      </c>
+      <c r="K240">
+        <v>4</v>
+      </c>
+      <c r="L240">
         <v>2.6</v>
       </c>
-      <c r="K240">
-        <v>3.25</v>
-      </c>
-      <c r="L240">
-        <v>2.4</v>
-      </c>
       <c r="M240">
-        <v>3.4</v>
+        <v>2.1</v>
       </c>
       <c r="N240">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="O240">
+        <v>2.6</v>
+      </c>
+      <c r="P240">
+        <v>-0.25</v>
+      </c>
+      <c r="Q240">
+        <v>1.95</v>
+      </c>
+      <c r="R240">
         <v>1.85</v>
-      </c>
-      <c r="P240">
-        <v>0.5</v>
-      </c>
-      <c r="Q240">
-        <v>1.85</v>
-      </c>
-      <c r="R240">
-        <v>1.95</v>
       </c>
       <c r="S240">
         <v>3.25</v>
       </c>
       <c r="T240">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="U240">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V240">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="W240">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="X240">
         <v>-1</v>
       </c>
       <c r="Y240">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="Z240">
         <v>-1</v>
       </c>
       <c r="AA240">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB240">
-        <v>0.825</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="241" spans="1:28">
@@ -21647,7 +21647,7 @@
         <v>239</v>
       </c>
       <c r="B241">
-        <v>7210267</v>
+        <v>7210265</v>
       </c>
       <c r="C241" t="s">
         <v>27</v>
@@ -21656,76 +21656,76 @@
         <v>45184.54166666666</v>
       </c>
       <c r="E241" t="s">
-        <v>136</v>
+        <v>71</v>
       </c>
       <c r="F241" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="G241">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H241">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I241" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="J241">
-        <v>2.1</v>
+        <v>2.6</v>
       </c>
       <c r="K241">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="L241">
-        <v>2.6</v>
+        <v>2.4</v>
       </c>
       <c r="M241">
-        <v>2.1</v>
+        <v>3.4</v>
       </c>
       <c r="N241">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="O241">
-        <v>2.6</v>
+        <v>1.85</v>
       </c>
       <c r="P241">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="Q241">
+        <v>1.85</v>
+      </c>
+      <c r="R241">
         <v>1.95</v>
-      </c>
-      <c r="R241">
-        <v>1.85</v>
       </c>
       <c r="S241">
         <v>3.25</v>
       </c>
       <c r="T241">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="U241">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V241">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="W241">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="X241">
         <v>-1</v>
       </c>
       <c r="Y241">
-        <v>0.95</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z241">
         <v>-1</v>
       </c>
       <c r="AA241">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB241">
-        <v>0.4375</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="242" spans="1:28">
@@ -22516,7 +22516,7 @@
         <v>45185.375</v>
       </c>
       <c r="E251" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F251" t="s">
         <v>43</v>
@@ -23551,7 +23551,7 @@
         <v>78</v>
       </c>
       <c r="F263" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G263">
         <v>5</v>
@@ -24571,7 +24571,7 @@
         <v>273</v>
       </c>
       <c r="B275">
-        <v>7239963</v>
+        <v>7239918</v>
       </c>
       <c r="C275" t="s">
         <v>27</v>
@@ -24580,76 +24580,76 @@
         <v>45191.58333333334</v>
       </c>
       <c r="E275" t="s">
-        <v>80</v>
+        <v>121</v>
       </c>
       <c r="F275" t="s">
-        <v>61</v>
+        <v>89</v>
       </c>
       <c r="G275">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H275">
+        <v>1</v>
+      </c>
+      <c r="I275" t="s">
+        <v>205</v>
+      </c>
+      <c r="J275">
+        <v>2.05</v>
+      </c>
+      <c r="K275">
+        <v>3.75</v>
+      </c>
+      <c r="L275">
+        <v>2.8</v>
+      </c>
+      <c r="M275">
+        <v>1.666</v>
+      </c>
+      <c r="N275">
         <v>4</v>
       </c>
-      <c r="I275" t="s">
-        <v>207</v>
-      </c>
-      <c r="J275">
-        <v>3.25</v>
-      </c>
-      <c r="K275">
-        <v>4</v>
-      </c>
-      <c r="L275">
-        <v>1.8</v>
-      </c>
-      <c r="M275">
-        <v>2.2</v>
-      </c>
-      <c r="N275">
-        <v>3.8</v>
-      </c>
       <c r="O275">
-        <v>2.45</v>
+        <v>3.6</v>
       </c>
       <c r="P275">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="Q275">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="R275">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S275">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="T275">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="U275">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V275">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="W275">
         <v>-1</v>
       </c>
       <c r="X275">
-        <v>1.45</v>
+        <v>-1</v>
       </c>
       <c r="Y275">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
       <c r="Z275">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA275">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB275">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="276" spans="1:28">
@@ -24657,7 +24657,7 @@
         <v>274</v>
       </c>
       <c r="B276">
-        <v>7239918</v>
+        <v>7239904</v>
       </c>
       <c r="C276" t="s">
         <v>27</v>
@@ -24666,76 +24666,76 @@
         <v>45191.58333333334</v>
       </c>
       <c r="E276" t="s">
-        <v>121</v>
+        <v>32</v>
       </c>
       <c r="F276" t="s">
-        <v>89</v>
+        <v>100</v>
       </c>
       <c r="G276">
         <v>2</v>
       </c>
       <c r="H276">
+        <v>2</v>
+      </c>
+      <c r="I276" t="s">
+        <v>206</v>
+      </c>
+      <c r="J276">
+        <v>2.15</v>
+      </c>
+      <c r="K276">
+        <v>4</v>
+      </c>
+      <c r="L276">
+        <v>2.5</v>
+      </c>
+      <c r="M276">
+        <v>1.909</v>
+      </c>
+      <c r="N276">
+        <v>4.2</v>
+      </c>
+      <c r="O276">
+        <v>2.875</v>
+      </c>
+      <c r="P276">
+        <v>-0.5</v>
+      </c>
+      <c r="Q276">
+        <v>1.975</v>
+      </c>
+      <c r="R276">
+        <v>1.825</v>
+      </c>
+      <c r="S276">
+        <v>3</v>
+      </c>
+      <c r="T276">
+        <v>2</v>
+      </c>
+      <c r="U276">
+        <v>1.8</v>
+      </c>
+      <c r="V276">
+        <v>-1</v>
+      </c>
+      <c r="W276">
+        <v>3.2</v>
+      </c>
+      <c r="X276">
+        <v>-1</v>
+      </c>
+      <c r="Y276">
+        <v>-1</v>
+      </c>
+      <c r="Z276">
+        <v>0.825</v>
+      </c>
+      <c r="AA276">
         <v>1</v>
       </c>
-      <c r="I276" t="s">
-        <v>205</v>
-      </c>
-      <c r="J276">
-        <v>2.05</v>
-      </c>
-      <c r="K276">
-        <v>3.75</v>
-      </c>
-      <c r="L276">
-        <v>2.8</v>
-      </c>
-      <c r="M276">
-        <v>1.666</v>
-      </c>
-      <c r="N276">
-        <v>4</v>
-      </c>
-      <c r="O276">
-        <v>3.6</v>
-      </c>
-      <c r="P276">
-        <v>-0.75</v>
-      </c>
-      <c r="Q276">
-        <v>1.95</v>
-      </c>
-      <c r="R276">
-        <v>1.85</v>
-      </c>
-      <c r="S276">
-        <v>3.75</v>
-      </c>
-      <c r="T276">
-        <v>1.95</v>
-      </c>
-      <c r="U276">
-        <v>1.85</v>
-      </c>
-      <c r="V276">
-        <v>0.6659999999999999</v>
-      </c>
-      <c r="W276">
-        <v>-1</v>
-      </c>
-      <c r="X276">
-        <v>-1</v>
-      </c>
-      <c r="Y276">
-        <v>0.475</v>
-      </c>
-      <c r="Z276">
-        <v>-0.5</v>
-      </c>
-      <c r="AA276">
-        <v>-1</v>
-      </c>
       <c r="AB276">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="277" spans="1:28">
@@ -24743,7 +24743,7 @@
         <v>275</v>
       </c>
       <c r="B277">
-        <v>7239904</v>
+        <v>7240039</v>
       </c>
       <c r="C277" t="s">
         <v>27</v>
@@ -24752,76 +24752,76 @@
         <v>45191.58333333334</v>
       </c>
       <c r="E277" t="s">
-        <v>32</v>
+        <v>119</v>
       </c>
       <c r="F277" t="s">
-        <v>100</v>
+        <v>166</v>
       </c>
       <c r="G277">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H277">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I277" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="J277">
-        <v>2.15</v>
+        <v>1.55</v>
       </c>
       <c r="K277">
-        <v>4</v>
+        <v>4.25</v>
       </c>
       <c r="L277">
-        <v>2.5</v>
+        <v>4.25</v>
       </c>
       <c r="M277">
-        <v>1.909</v>
+        <v>1.55</v>
       </c>
       <c r="N277">
-        <v>4.2</v>
+        <v>4.333</v>
       </c>
       <c r="O277">
-        <v>2.875</v>
+        <v>4.333</v>
       </c>
       <c r="P277">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="Q277">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="R277">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S277">
         <v>3</v>
       </c>
       <c r="T277">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U277">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V277">
-        <v>-1</v>
+        <v>0.55</v>
       </c>
       <c r="W277">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="X277">
         <v>-1</v>
       </c>
       <c r="Y277">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="Z277">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA277">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB277">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="278" spans="1:28">
@@ -24829,7 +24829,7 @@
         <v>276</v>
       </c>
       <c r="B278">
-        <v>7240039</v>
+        <v>7242154</v>
       </c>
       <c r="C278" t="s">
         <v>27</v>
@@ -24838,58 +24838,58 @@
         <v>45191.58333333334</v>
       </c>
       <c r="E278" t="s">
-        <v>119</v>
+        <v>95</v>
       </c>
       <c r="F278" t="s">
-        <v>166</v>
+        <v>197</v>
       </c>
       <c r="G278">
         <v>3</v>
       </c>
       <c r="H278">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I278" t="s">
         <v>205</v>
       </c>
       <c r="J278">
-        <v>1.55</v>
+        <v>1.666</v>
       </c>
       <c r="K278">
-        <v>4.25</v>
+        <v>4</v>
       </c>
       <c r="L278">
-        <v>4.25</v>
+        <v>3.75</v>
       </c>
       <c r="M278">
-        <v>1.55</v>
+        <v>1.615</v>
       </c>
       <c r="N278">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="O278">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="P278">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="Q278">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="R278">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S278">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="T278">
-        <v>1.75</v>
+        <v>1.925</v>
       </c>
       <c r="U278">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="V278">
-        <v>0.55</v>
+        <v>0.615</v>
       </c>
       <c r="W278">
         <v>-1</v>
@@ -24898,16 +24898,16 @@
         <v>-1</v>
       </c>
       <c r="Y278">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="Z278">
         <v>-1</v>
       </c>
       <c r="AA278">
-        <v>0</v>
+        <v>0.925</v>
       </c>
       <c r="AB278">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="279" spans="1:28">
@@ -24915,7 +24915,7 @@
         <v>277</v>
       </c>
       <c r="B279">
-        <v>7242154</v>
+        <v>7239963</v>
       </c>
       <c r="C279" t="s">
         <v>27</v>
@@ -24924,40 +24924,40 @@
         <v>45191.58333333334</v>
       </c>
       <c r="E279" t="s">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="F279" t="s">
-        <v>197</v>
+        <v>61</v>
       </c>
       <c r="G279">
         <v>3</v>
       </c>
       <c r="H279">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I279" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="J279">
-        <v>1.666</v>
+        <v>3.25</v>
       </c>
       <c r="K279">
         <v>4</v>
       </c>
       <c r="L279">
-        <v>3.75</v>
+        <v>1.8</v>
       </c>
       <c r="M279">
-        <v>1.615</v>
+        <v>2.2</v>
       </c>
       <c r="N279">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="O279">
-        <v>4</v>
+        <v>2.45</v>
       </c>
       <c r="P279">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="Q279">
         <v>1.8</v>
@@ -24966,31 +24966,31 @@
         <v>2</v>
       </c>
       <c r="S279">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="T279">
+        <v>1.775</v>
+      </c>
+      <c r="U279">
         <v>1.925</v>
       </c>
-      <c r="U279">
-        <v>1.775</v>
-      </c>
       <c r="V279">
-        <v>0.615</v>
+        <v>-1</v>
       </c>
       <c r="W279">
         <v>-1</v>
       </c>
       <c r="X279">
-        <v>-1</v>
+        <v>1.45</v>
       </c>
       <c r="Y279">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="Z279">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA279">
-        <v>0.925</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB279">
         <v>-1</v>
@@ -26291,7 +26291,7 @@
         <v>293</v>
       </c>
       <c r="B295">
-        <v>7249518</v>
+        <v>7249519</v>
       </c>
       <c r="C295" t="s">
         <v>27</v>
@@ -26300,46 +26300,46 @@
         <v>45193.25</v>
       </c>
       <c r="E295" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="F295" t="s">
-        <v>106</v>
+        <v>158</v>
       </c>
       <c r="G295">
+        <v>3</v>
+      </c>
+      <c r="H295">
+        <v>3</v>
+      </c>
+      <c r="I295" t="s">
+        <v>206</v>
+      </c>
+      <c r="J295">
+        <v>2.4</v>
+      </c>
+      <c r="K295">
+        <v>3.6</v>
+      </c>
+      <c r="L295">
+        <v>2.4</v>
+      </c>
+      <c r="M295">
+        <v>2.375</v>
+      </c>
+      <c r="N295">
+        <v>3.75</v>
+      </c>
+      <c r="O295">
+        <v>2.4</v>
+      </c>
+      <c r="P295">
         <v>0</v>
       </c>
-      <c r="H295">
-        <v>1</v>
-      </c>
-      <c r="I295" t="s">
-        <v>207</v>
-      </c>
-      <c r="J295">
-        <v>1.571</v>
-      </c>
-      <c r="K295">
-        <v>4</v>
-      </c>
-      <c r="L295">
-        <v>4.333</v>
-      </c>
-      <c r="M295">
-        <v>1.571</v>
-      </c>
-      <c r="N295">
-        <v>4</v>
-      </c>
-      <c r="O295">
-        <v>4.333</v>
-      </c>
-      <c r="P295">
-        <v>-1</v>
-      </c>
       <c r="Q295">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="R295">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="S295">
         <v>3.25</v>
@@ -26354,22 +26354,22 @@
         <v>-1</v>
       </c>
       <c r="W295">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="X295">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Y295">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Z295">
+        <v>0</v>
+      </c>
+      <c r="AA295">
         <v>0.8500000000000001</v>
       </c>
-      <c r="AA295">
-        <v>-1</v>
-      </c>
       <c r="AB295">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="296" spans="1:28">
@@ -26377,7 +26377,7 @@
         <v>294</v>
       </c>
       <c r="B296">
-        <v>7249519</v>
+        <v>7249518</v>
       </c>
       <c r="C296" t="s">
         <v>27</v>
@@ -26386,46 +26386,46 @@
         <v>45193.25</v>
       </c>
       <c r="E296" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="F296" t="s">
-        <v>158</v>
+        <v>106</v>
       </c>
       <c r="G296">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H296">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I296" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="J296">
-        <v>2.4</v>
+        <v>1.571</v>
       </c>
       <c r="K296">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="L296">
-        <v>2.4</v>
+        <v>4.333</v>
       </c>
       <c r="M296">
-        <v>2.375</v>
+        <v>1.571</v>
       </c>
       <c r="N296">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="O296">
-        <v>2.4</v>
+        <v>4.333</v>
       </c>
       <c r="P296">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Q296">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="R296">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="S296">
         <v>3.25</v>
@@ -26440,22 +26440,22 @@
         <v>-1</v>
       </c>
       <c r="W296">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="X296">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Y296">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z296">
-        <v>0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA296">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB296">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="297" spans="1:28">
@@ -26463,7 +26463,7 @@
         <v>295</v>
       </c>
       <c r="B297">
-        <v>7270092</v>
+        <v>7270257</v>
       </c>
       <c r="C297" t="s">
         <v>27</v>
@@ -26472,58 +26472,58 @@
         <v>45198.54166666666</v>
       </c>
       <c r="E297" t="s">
-        <v>86</v>
+        <v>136</v>
       </c>
       <c r="F297" t="s">
-        <v>111</v>
+        <v>43</v>
       </c>
       <c r="G297">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H297">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I297" t="s">
         <v>205</v>
       </c>
       <c r="J297">
-        <v>1.909</v>
+        <v>5</v>
       </c>
       <c r="K297">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="L297">
-        <v>3.1</v>
+        <v>1.444</v>
       </c>
       <c r="M297">
-        <v>1.7</v>
+        <v>6</v>
       </c>
       <c r="N297">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="O297">
-        <v>3.6</v>
+        <v>1.4</v>
       </c>
       <c r="P297">
-        <v>-0.75</v>
+        <v>1.5</v>
       </c>
       <c r="Q297">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="R297">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="S297">
         <v>3.5</v>
       </c>
       <c r="T297">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="U297">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V297">
-        <v>0.7</v>
+        <v>5</v>
       </c>
       <c r="W297">
         <v>-1</v>
@@ -26532,16 +26532,16 @@
         <v>-1</v>
       </c>
       <c r="Y297">
-        <v>0.9750000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z297">
         <v>-1</v>
       </c>
       <c r="AA297">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB297">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="298" spans="1:28">
@@ -26549,7 +26549,7 @@
         <v>296</v>
       </c>
       <c r="B298">
-        <v>7270257</v>
+        <v>7270092</v>
       </c>
       <c r="C298" t="s">
         <v>27</v>
@@ -26558,58 +26558,58 @@
         <v>45198.54166666666</v>
       </c>
       <c r="E298" t="s">
-        <v>136</v>
+        <v>86</v>
       </c>
       <c r="F298" t="s">
-        <v>43</v>
+        <v>111</v>
       </c>
       <c r="G298">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H298">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I298" t="s">
         <v>205</v>
       </c>
       <c r="J298">
-        <v>5</v>
+        <v>1.909</v>
       </c>
       <c r="K298">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="L298">
-        <v>1.444</v>
+        <v>3.1</v>
       </c>
       <c r="M298">
-        <v>6</v>
+        <v>1.7</v>
       </c>
       <c r="N298">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="O298">
-        <v>1.4</v>
+        <v>3.6</v>
       </c>
       <c r="P298">
-        <v>1.5</v>
+        <v>-0.75</v>
       </c>
       <c r="Q298">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="R298">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S298">
         <v>3.5</v>
       </c>
       <c r="T298">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="U298">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V298">
-        <v>5</v>
+        <v>0.7</v>
       </c>
       <c r="W298">
         <v>-1</v>
@@ -26618,16 +26618,16 @@
         <v>-1</v>
       </c>
       <c r="Y298">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="Z298">
         <v>-1</v>
       </c>
       <c r="AA298">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB298">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="299" spans="1:28">
@@ -27590,7 +27590,7 @@
         <v>45199.375</v>
       </c>
       <c r="E310" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F310" t="s">
         <v>78</v>
@@ -28613,7 +28613,7 @@
         <v>320</v>
       </c>
       <c r="B322">
-        <v>7298693</v>
+        <v>7298692</v>
       </c>
       <c r="C322" t="s">
         <v>27</v>
@@ -28622,49 +28622,49 @@
         <v>45205.58333333334</v>
       </c>
       <c r="E322" t="s">
-        <v>95</v>
+        <v>32</v>
       </c>
       <c r="F322" t="s">
-        <v>89</v>
+        <v>128</v>
       </c>
       <c r="G322">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H322">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I322" t="s">
         <v>205</v>
       </c>
       <c r="J322">
-        <v>2.2</v>
+        <v>1.8</v>
       </c>
       <c r="K322">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="L322">
-        <v>2.7</v>
+        <v>3.25</v>
       </c>
       <c r="M322">
-        <v>2.1</v>
+        <v>1.4</v>
       </c>
       <c r="N322">
-        <v>3.75</v>
+        <v>4.75</v>
       </c>
       <c r="O322">
-        <v>2.7</v>
+        <v>5</v>
       </c>
       <c r="P322">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="Q322">
+        <v>1.85</v>
+      </c>
+      <c r="R322">
         <v>1.95</v>
       </c>
-      <c r="R322">
-        <v>1.85</v>
-      </c>
       <c r="S322">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="T322">
         <v>1.825</v>
@@ -28673,7 +28673,7 @@
         <v>1.975</v>
       </c>
       <c r="V322">
-        <v>1.1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="W322">
         <v>-1</v>
@@ -28682,7 +28682,7 @@
         <v>-1</v>
       </c>
       <c r="Y322">
-        <v>0.95</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z322">
         <v>-1</v>
@@ -28699,7 +28699,7 @@
         <v>321</v>
       </c>
       <c r="B323">
-        <v>7298692</v>
+        <v>7298693</v>
       </c>
       <c r="C323" t="s">
         <v>27</v>
@@ -28708,49 +28708,49 @@
         <v>45205.58333333334</v>
       </c>
       <c r="E323" t="s">
-        <v>32</v>
+        <v>95</v>
       </c>
       <c r="F323" t="s">
-        <v>128</v>
+        <v>89</v>
       </c>
       <c r="G323">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H323">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I323" t="s">
         <v>205</v>
       </c>
       <c r="J323">
-        <v>1.8</v>
+        <v>2.2</v>
       </c>
       <c r="K323">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="L323">
+        <v>2.7</v>
+      </c>
+      <c r="M323">
+        <v>2.1</v>
+      </c>
+      <c r="N323">
+        <v>3.75</v>
+      </c>
+      <c r="O323">
+        <v>2.7</v>
+      </c>
+      <c r="P323">
+        <v>-0.25</v>
+      </c>
+      <c r="Q323">
+        <v>1.95</v>
+      </c>
+      <c r="R323">
+        <v>1.85</v>
+      </c>
+      <c r="S323">
         <v>3.25</v>
-      </c>
-      <c r="M323">
-        <v>1.4</v>
-      </c>
-      <c r="N323">
-        <v>4.75</v>
-      </c>
-      <c r="O323">
-        <v>5</v>
-      </c>
-      <c r="P323">
-        <v>-1.25</v>
-      </c>
-      <c r="Q323">
-        <v>1.85</v>
-      </c>
-      <c r="R323">
-        <v>1.95</v>
-      </c>
-      <c r="S323">
-        <v>3</v>
       </c>
       <c r="T323">
         <v>1.825</v>
@@ -28759,7 +28759,7 @@
         <v>1.975</v>
       </c>
       <c r="V323">
-        <v>0.3999999999999999</v>
+        <v>1.1</v>
       </c>
       <c r="W323">
         <v>-1</v>
@@ -28768,7 +28768,7 @@
         <v>-1</v>
       </c>
       <c r="Y323">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="Z323">
         <v>-1</v>
@@ -30259,7 +30259,7 @@
         <v>60</v>
       </c>
       <c r="F341" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G341">
         <v>0</v>
@@ -31460,10 +31460,10 @@
         <v>45213.375</v>
       </c>
       <c r="E355" t="s">
+        <v>65</v>
+      </c>
+      <c r="F355" t="s">
         <v>64</v>
-      </c>
-      <c r="F355" t="s">
-        <v>65</v>
       </c>
       <c r="G355">
         <v>1</v>
@@ -32311,7 +32311,7 @@
         <v>363</v>
       </c>
       <c r="B365">
-        <v>7361345</v>
+        <v>7361346</v>
       </c>
       <c r="C365" t="s">
         <v>27</v>
@@ -32320,76 +32320,76 @@
         <v>45219.58333333334</v>
       </c>
       <c r="E365" t="s">
-        <v>32</v>
+        <v>122</v>
       </c>
       <c r="F365" t="s">
-        <v>152</v>
+        <v>108</v>
       </c>
       <c r="G365">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H365">
         <v>1</v>
       </c>
       <c r="I365" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="J365">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="K365">
         <v>3.6</v>
       </c>
       <c r="L365">
+        <v>2.6</v>
+      </c>
+      <c r="M365">
+        <v>2.2</v>
+      </c>
+      <c r="N365">
+        <v>3.6</v>
+      </c>
+      <c r="O365">
+        <v>2.625</v>
+      </c>
+      <c r="P365">
+        <v>-0.25</v>
+      </c>
+      <c r="Q365">
+        <v>2</v>
+      </c>
+      <c r="R365">
+        <v>1.8</v>
+      </c>
+      <c r="S365">
         <v>3</v>
       </c>
-      <c r="M365">
-        <v>1.615</v>
-      </c>
-      <c r="N365">
-        <v>3.8</v>
-      </c>
-      <c r="O365">
-        <v>4.2</v>
-      </c>
-      <c r="P365">
-        <v>-0.75</v>
-      </c>
-      <c r="Q365">
-        <v>1.825</v>
-      </c>
-      <c r="R365">
-        <v>1.975</v>
-      </c>
-      <c r="S365">
-        <v>3.25</v>
-      </c>
       <c r="T365">
-        <v>1.825</v>
+        <v>1.75</v>
       </c>
       <c r="U365">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V365">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="W365">
         <v>-1</v>
       </c>
       <c r="X365">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y365">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z365">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA365">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AB365">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="366" spans="1:28">
@@ -32397,7 +32397,7 @@
         <v>364</v>
       </c>
       <c r="B366">
-        <v>7361346</v>
+        <v>7361345</v>
       </c>
       <c r="C366" t="s">
         <v>27</v>
@@ -32406,76 +32406,76 @@
         <v>45219.58333333334</v>
       </c>
       <c r="E366" t="s">
-        <v>122</v>
+        <v>32</v>
       </c>
       <c r="F366" t="s">
-        <v>108</v>
+        <v>152</v>
       </c>
       <c r="G366">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H366">
         <v>1</v>
       </c>
       <c r="I366" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="J366">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="K366">
         <v>3.6</v>
       </c>
       <c r="L366">
-        <v>2.6</v>
+        <v>3</v>
       </c>
       <c r="M366">
-        <v>2.2</v>
+        <v>1.615</v>
       </c>
       <c r="N366">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="O366">
-        <v>2.625</v>
+        <v>4.2</v>
       </c>
       <c r="P366">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="Q366">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="R366">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S366">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="T366">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="U366">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V366">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="W366">
         <v>-1</v>
       </c>
       <c r="X366">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y366">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Z366">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA366">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AB366">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="367" spans="1:28">
@@ -33094,7 +33094,7 @@
         <v>45220.375</v>
       </c>
       <c r="E374" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F374" t="s">
         <v>76</v>
@@ -33610,7 +33610,7 @@
         <v>45220.54166666666</v>
       </c>
       <c r="E380" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F380" t="s">
         <v>63</v>
@@ -34473,7 +34473,7 @@
         <v>136</v>
       </c>
       <c r="F390" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G390">
         <v>4</v>
@@ -36107,7 +36107,7 @@
         <v>76</v>
       </c>
       <c r="F409" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G409">
         <v>0</v>
@@ -36276,7 +36276,7 @@
         <v>45231.41666666666</v>
       </c>
       <c r="E411" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F411" t="s">
         <v>77</v>
@@ -36792,7 +36792,7 @@
         <v>45234.41666666666</v>
       </c>
       <c r="E417" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F417" t="s">
         <v>45</v>
@@ -37394,7 +37394,7 @@
         <v>45234.54166666666</v>
       </c>
       <c r="E424" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F424" t="s">
         <v>79</v>
@@ -37913,7 +37913,7 @@
         <v>136</v>
       </c>
       <c r="F430" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G430">
         <v>3</v>
@@ -38684,7 +38684,7 @@
         <v>45240.625</v>
       </c>
       <c r="E439" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F439" t="s">
         <v>87</v>
@@ -39633,7 +39633,7 @@
         <v>55</v>
       </c>
       <c r="F450" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G450">
         <v>1</v>
@@ -40490,7 +40490,7 @@
         <v>45248.41666666666</v>
       </c>
       <c r="E460" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F460" t="s">
         <v>134</v>
@@ -40751,7 +40751,7 @@
         <v>45</v>
       </c>
       <c r="F463" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G463">
         <v>3</v>
@@ -40923,7 +40923,7 @@
         <v>77</v>
       </c>
       <c r="F465" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G465">
         <v>4</v>
@@ -41522,7 +41522,7 @@
         <v>45268.29166666666</v>
       </c>
       <c r="E472" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F472" t="s">
         <v>68</v>
@@ -42299,7 +42299,7 @@
         <v>70</v>
       </c>
       <c r="F481" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G481">
         <v>1</v>
@@ -43159,7 +43159,7 @@
         <v>55</v>
       </c>
       <c r="F491" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G491">
         <v>3</v>
@@ -49093,7 +49093,7 @@
         <v>43</v>
       </c>
       <c r="F560" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G560">
         <v>4</v>
@@ -51919,7 +51919,7 @@
         <v>591</v>
       </c>
       <c r="B593">
-        <v>8119229</v>
+        <v>8119291</v>
       </c>
       <c r="C593" t="s">
         <v>27</v>
@@ -51928,76 +51928,76 @@
         <v>45402.45833333334</v>
       </c>
       <c r="E593" t="s">
-        <v>152</v>
+        <v>84</v>
       </c>
       <c r="F593" t="s">
-        <v>61</v>
+        <v>82</v>
       </c>
       <c r="G593">
         <v>1</v>
       </c>
       <c r="H593">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I593" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="J593">
-        <v>2.5</v>
+        <v>1.727</v>
       </c>
       <c r="K593">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="L593">
-        <v>2.25</v>
+        <v>4</v>
       </c>
       <c r="M593">
-        <v>2.5</v>
+        <v>2.45</v>
       </c>
       <c r="N593">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="O593">
-        <v>2.25</v>
+        <v>2.45</v>
       </c>
       <c r="P593">
         <v>0</v>
       </c>
       <c r="Q593">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="R593">
+        <v>1.9</v>
+      </c>
+      <c r="S593">
+        <v>3.5</v>
+      </c>
+      <c r="T593">
         <v>1.8</v>
       </c>
-      <c r="S593">
-        <v>3.25</v>
-      </c>
-      <c r="T593">
-        <v>2</v>
-      </c>
       <c r="U593">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="V593">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="W593">
         <v>-1</v>
       </c>
       <c r="X593">
-        <v>-1</v>
+        <v>1.45</v>
       </c>
       <c r="Y593">
+        <v>-1</v>
+      </c>
+      <c r="Z593">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AA593">
+        <v>-1</v>
+      </c>
+      <c r="AB593">
         <v>1</v>
-      </c>
-      <c r="Z593">
-        <v>-1</v>
-      </c>
-      <c r="AA593">
-        <v>-1</v>
-      </c>
-      <c r="AB593">
-        <v>0.8</v>
       </c>
     </row>
     <row r="594" spans="1:28">
@@ -52005,7 +52005,7 @@
         <v>592</v>
       </c>
       <c r="B594">
-        <v>8119291</v>
+        <v>8119229</v>
       </c>
       <c r="C594" t="s">
         <v>27</v>
@@ -52014,76 +52014,76 @@
         <v>45402.45833333334</v>
       </c>
       <c r="E594" t="s">
-        <v>84</v>
+        <v>152</v>
       </c>
       <c r="F594" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="G594">
         <v>1</v>
       </c>
       <c r="H594">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I594" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="J594">
-        <v>1.727</v>
+        <v>2.5</v>
       </c>
       <c r="K594">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="L594">
-        <v>4</v>
+        <v>2.25</v>
       </c>
       <c r="M594">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="N594">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="O594">
-        <v>2.45</v>
+        <v>2.25</v>
       </c>
       <c r="P594">
         <v>0</v>
       </c>
       <c r="Q594">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="R594">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S594">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="T594">
+        <v>2</v>
+      </c>
+      <c r="U594">
         <v>1.8</v>
       </c>
-      <c r="U594">
-        <v>2</v>
-      </c>
       <c r="V594">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="W594">
         <v>-1</v>
       </c>
       <c r="X594">
-        <v>1.45</v>
+        <v>-1</v>
       </c>
       <c r="Y594">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z594">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA594">
         <v>-1</v>
       </c>
       <c r="AB594">
-        <v>1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="595" spans="1:28">
@@ -52275,7 +52275,7 @@
         <v>78</v>
       </c>
       <c r="F597" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G597">
         <v>4</v>
@@ -53123,7 +53123,7 @@
         <v>605</v>
       </c>
       <c r="B607">
-        <v>8141869</v>
+        <v>8141871</v>
       </c>
       <c r="C607" t="s">
         <v>27</v>
@@ -53132,58 +53132,58 @@
         <v>45408.58333333334</v>
       </c>
       <c r="E607" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="F607" t="s">
-        <v>112</v>
+        <v>191</v>
       </c>
       <c r="G607">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H607">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I607" t="s">
         <v>205</v>
       </c>
       <c r="J607">
-        <v>2.75</v>
+        <v>1.75</v>
       </c>
       <c r="K607">
         <v>4</v>
       </c>
       <c r="L607">
-        <v>2</v>
+        <v>3.4</v>
       </c>
       <c r="M607">
-        <v>2.75</v>
+        <v>1.55</v>
       </c>
       <c r="N607">
+        <v>4.5</v>
+      </c>
+      <c r="O607">
         <v>4</v>
       </c>
-      <c r="O607">
-        <v>2</v>
-      </c>
       <c r="P607">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="Q607">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="R607">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S607">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="T607">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="U607">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V607">
-        <v>1.75</v>
+        <v>0.55</v>
       </c>
       <c r="W607">
         <v>-1</v>
@@ -53192,16 +53192,16 @@
         <v>-1</v>
       </c>
       <c r="Y607">
-        <v>0.9750000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="Z607">
         <v>-1</v>
       </c>
       <c r="AA607">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB607">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="608" spans="1:28">
@@ -53209,7 +53209,7 @@
         <v>606</v>
       </c>
       <c r="B608">
-        <v>8141871</v>
+        <v>8141869</v>
       </c>
       <c r="C608" t="s">
         <v>27</v>
@@ -53218,58 +53218,58 @@
         <v>45408.58333333334</v>
       </c>
       <c r="E608" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="F608" t="s">
-        <v>191</v>
+        <v>112</v>
       </c>
       <c r="G608">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H608">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I608" t="s">
         <v>205</v>
       </c>
       <c r="J608">
-        <v>1.75</v>
+        <v>2.75</v>
       </c>
       <c r="K608">
         <v>4</v>
       </c>
       <c r="L608">
-        <v>3.4</v>
+        <v>2</v>
       </c>
       <c r="M608">
-        <v>1.55</v>
+        <v>2.75</v>
       </c>
       <c r="N608">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="O608">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P608">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="Q608">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="R608">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="S608">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="T608">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="U608">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V608">
-        <v>0.55</v>
+        <v>1.75</v>
       </c>
       <c r="W608">
         <v>-1</v>
@@ -53278,16 +53278,16 @@
         <v>-1</v>
       </c>
       <c r="Y608">
-        <v>0.875</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="Z608">
         <v>-1</v>
       </c>
       <c r="AA608">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB608">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="609" spans="1:28">
